--- a/InputData/io-model/BObIC/BAU Output by ISIC Code.xlsx
+++ b/InputData/io-model/BObIC/BAU Output by ISIC Code.xlsx
@@ -427,6 +427,74 @@
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -9393,127 +9461,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1751705800</v>
+        <v>5245345700</v>
       </c>
       <c r="C2" s="42" t="n">
-        <v>6646710340</v>
+        <v>4525840</v>
       </c>
       <c r="D2" s="43" t="n">
-        <v>88095157.00070076</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>322727682.9992992</v>
+        <v>494859460</v>
       </c>
       <c r="F2" t="n">
-        <v>3496314260</v>
+        <v>31989460</v>
       </c>
       <c r="G2" t="n">
-        <v>2345825160</v>
+        <v>19839225360</v>
       </c>
       <c r="H2" t="n">
-        <v>117980420</v>
+        <v>2920401120</v>
       </c>
       <c r="I2" t="n">
-        <v>858983860</v>
+        <v>1938499560</v>
       </c>
       <c r="J2" t="n">
-        <v>2164174400</v>
+        <v>3188557140</v>
       </c>
       <c r="K2" t="n">
-        <v>16703743980</v>
+        <v>309608600</v>
       </c>
       <c r="L2" s="44" t="n">
-        <v>15550034472.98179</v>
+        <v>14838129006.65322</v>
       </c>
       <c r="M2" s="45" t="n">
-        <v>310360367.0182088</v>
+        <v>12215593893.34678</v>
       </c>
       <c r="N2" t="n">
-        <v>470378780</v>
+        <v>3771670480</v>
       </c>
       <c r="O2" s="44" t="n">
-        <v>186403827.7589902</v>
+        <v>658398354.6320069</v>
       </c>
       <c r="P2" s="45" t="n">
-        <v>529707492.2410098</v>
+        <v>1260043505.367993</v>
       </c>
       <c r="Q2" s="44" t="n">
-        <v>219043403.5458575</v>
+        <v>185644880.8286404</v>
       </c>
       <c r="R2" s="45" t="n">
-        <v>213585756.4541425</v>
+        <v>664287299.1713595</v>
       </c>
       <c r="S2" t="n">
-        <v>1681246700</v>
+        <v>4150092420</v>
       </c>
       <c r="T2" t="n">
-        <v>249229780</v>
+        <v>11125543320</v>
       </c>
       <c r="U2" t="n">
-        <v>183296520</v>
+        <v>4147829500</v>
       </c>
       <c r="V2" t="n">
-        <v>1723316440</v>
+        <v>5324445040</v>
       </c>
       <c r="W2" t="n">
-        <v>83213740</v>
+        <v>3717566120</v>
       </c>
       <c r="X2" t="n">
-        <v>1308893500</v>
+        <v>6631487060</v>
       </c>
       <c r="Y2" t="n">
-        <v>338100820</v>
+        <v>1842736900</v>
       </c>
       <c r="Z2" s="44" t="n">
-        <v>4215160047.302066</v>
+        <v>7635352312.150734</v>
       </c>
       <c r="AA2" s="47" t="n">
-        <v>333272455.4162603</v>
+        <v>526282188.9174417</v>
       </c>
       <c r="AB2" s="45" t="n">
-        <v>643528857.2816739</v>
+        <v>301892018.9318247</v>
       </c>
       <c r="AC2" t="n">
-        <v>13275317320</v>
+        <v>20483643260</v>
       </c>
       <c r="AD2" t="n">
-        <v>29627691540</v>
+        <v>61364115939.99999</v>
       </c>
       <c r="AE2" t="n">
-        <v>9307904260</v>
+        <v>12921273200</v>
       </c>
       <c r="AF2" t="n">
-        <v>9273343300</v>
+        <v>15947825840</v>
       </c>
       <c r="AG2" t="n">
-        <v>1590729900</v>
+        <v>6868373640</v>
       </c>
       <c r="AH2" t="n">
-        <v>2938195900</v>
+        <v>8495413120.000001</v>
       </c>
       <c r="AI2" t="n">
-        <v>475213200</v>
+        <v>4207899740</v>
       </c>
       <c r="AJ2" t="n">
-        <v>10870347660</v>
+        <v>47168715920</v>
       </c>
       <c r="AK2" t="n">
-        <v>25516171620</v>
+        <v>62688849880</v>
       </c>
       <c r="AL2" t="n">
-        <v>27246482540</v>
+        <v>76213705559.99998</v>
       </c>
       <c r="AM2" t="n">
-        <v>28597960080</v>
+        <v>73056212140</v>
       </c>
       <c r="AN2" t="n">
-        <v>2684543140</v>
+        <v>7199685700</v>
       </c>
       <c r="AO2" t="n">
-        <v>19284912820</v>
+        <v>37027645660</v>
       </c>
       <c r="AP2" t="n">
-        <v>2546710740</v>
+        <v>4849643280</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>

--- a/InputData/io-model/BObIC/BAU Output by ISIC Code.xlsx
+++ b/InputData/io-model/BObIC/BAU Output by ISIC Code.xlsx
@@ -9461,127 +9461,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5245345700</v>
+        <v>1751705800</v>
       </c>
       <c r="C2" s="42" t="n">
-        <v>4525840</v>
+        <v>6646710340</v>
       </c>
       <c r="D2" s="43" t="n">
-        <v>0</v>
+        <v>88095157.00070076</v>
       </c>
       <c r="E2" t="n">
-        <v>494859460</v>
+        <v>322727682.9992992</v>
       </c>
       <c r="F2" t="n">
-        <v>31989460</v>
+        <v>3496314260</v>
       </c>
       <c r="G2" t="n">
-        <v>19839225360</v>
+        <v>2345825160</v>
       </c>
       <c r="H2" t="n">
-        <v>2920401120</v>
+        <v>117980420</v>
       </c>
       <c r="I2" t="n">
-        <v>1938499560</v>
+        <v>858983860</v>
       </c>
       <c r="J2" t="n">
-        <v>3188557140</v>
+        <v>2164174400</v>
       </c>
       <c r="K2" t="n">
-        <v>309608600</v>
+        <v>16703743980</v>
       </c>
       <c r="L2" s="44" t="n">
-        <v>14838129006.65322</v>
+        <v>15550034472.98179</v>
       </c>
       <c r="M2" s="45" t="n">
-        <v>12215593893.34678</v>
+        <v>310360367.0182088</v>
       </c>
       <c r="N2" t="n">
-        <v>3771670480</v>
+        <v>470378780</v>
       </c>
       <c r="O2" s="44" t="n">
-        <v>658398354.6320069</v>
+        <v>186403827.7589902</v>
       </c>
       <c r="P2" s="45" t="n">
-        <v>1260043505.367993</v>
+        <v>529707492.2410098</v>
       </c>
       <c r="Q2" s="44" t="n">
-        <v>185644880.8286404</v>
+        <v>219043403.5458575</v>
       </c>
       <c r="R2" s="45" t="n">
-        <v>664287299.1713595</v>
+        <v>213585756.4541425</v>
       </c>
       <c r="S2" t="n">
-        <v>4150092420</v>
+        <v>1681246700</v>
       </c>
       <c r="T2" t="n">
-        <v>11125543320</v>
+        <v>249229780</v>
       </c>
       <c r="U2" t="n">
-        <v>4147829500</v>
+        <v>183296520</v>
       </c>
       <c r="V2" t="n">
-        <v>5324445040</v>
+        <v>1723316440</v>
       </c>
       <c r="W2" t="n">
-        <v>3717566120</v>
+        <v>83213740</v>
       </c>
       <c r="X2" t="n">
-        <v>6631487060</v>
+        <v>1308893500</v>
       </c>
       <c r="Y2" t="n">
-        <v>1842736900</v>
+        <v>338100820</v>
       </c>
       <c r="Z2" s="44" t="n">
-        <v>7635352312.150734</v>
+        <v>4215160047.302066</v>
       </c>
       <c r="AA2" s="47" t="n">
-        <v>526282188.9174417</v>
+        <v>333272455.4162603</v>
       </c>
       <c r="AB2" s="45" t="n">
-        <v>301892018.9318247</v>
+        <v>643528857.2816739</v>
       </c>
       <c r="AC2" t="n">
-        <v>20483643260</v>
+        <v>13275317320</v>
       </c>
       <c r="AD2" t="n">
-        <v>61364115939.99999</v>
+        <v>29627691540</v>
       </c>
       <c r="AE2" t="n">
-        <v>12921273200</v>
+        <v>9307904260</v>
       </c>
       <c r="AF2" t="n">
-        <v>15947825840</v>
+        <v>9273343300</v>
       </c>
       <c r="AG2" t="n">
-        <v>6868373640</v>
+        <v>1590729900</v>
       </c>
       <c r="AH2" t="n">
-        <v>8495413120.000001</v>
+        <v>2938195900</v>
       </c>
       <c r="AI2" t="n">
-        <v>4207899740</v>
+        <v>475213200</v>
       </c>
       <c r="AJ2" t="n">
-        <v>47168715920</v>
+        <v>10870347660</v>
       </c>
       <c r="AK2" t="n">
-        <v>62688849880</v>
+        <v>25516171620</v>
       </c>
       <c r="AL2" t="n">
-        <v>76213705559.99998</v>
+        <v>27246482540</v>
       </c>
       <c r="AM2" t="n">
-        <v>73056212140</v>
+        <v>28597960080</v>
       </c>
       <c r="AN2" t="n">
-        <v>7199685700</v>
+        <v>2684543140</v>
       </c>
       <c r="AO2" t="n">
-        <v>37027645660</v>
+        <v>19284912820</v>
       </c>
       <c r="AP2" t="n">
-        <v>4849643280</v>
+        <v>2546710740</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>

--- a/InputData/io-model/BObIC/BAU Output by ISIC Code.xlsx
+++ b/InputData/io-model/BObIC/BAU Output by ISIC Code.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-31260" yWindow="6920" windowWidth="24100" windowHeight="14880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,9 +11,6 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OECD Chem Pharma Split" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BObIC" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-  </externalReferences>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -305,7 +302,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -380,6 +377,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="8" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="8" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -406,20 +417,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="8" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="8" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,178 +736,6 @@
 </comments>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="About"/>
-      <sheetName val="OECD TTL"/>
-      <sheetName val="U.S. Data for ISIC Splits"/>
-      <sheetName val="BObIC"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="37">
-          <cell r="A37">
-            <v>0.9686815713640794</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="49">
-          <cell r="C49">
-            <v>455757.4</v>
-          </cell>
-          <cell r="D49">
-            <v>293671.09999999998</v>
-          </cell>
-          <cell r="E49">
-            <v>64889.3</v>
-          </cell>
-          <cell r="F49">
-            <v>87786.1</v>
-          </cell>
-          <cell r="G49">
-            <v>935808.4</v>
-          </cell>
-          <cell r="H49">
-            <v>87018.8</v>
-          </cell>
-          <cell r="I49">
-            <v>98613</v>
-          </cell>
-          <cell r="J49">
-            <v>269203.3</v>
-          </cell>
-          <cell r="K49">
-            <v>490118.1</v>
-          </cell>
-          <cell r="L49">
-            <v>785327</v>
-          </cell>
-          <cell r="M49">
-            <v>230983</v>
-          </cell>
-          <cell r="N49">
-            <v>119491.4</v>
-          </cell>
-          <cell r="O49">
-            <v>225243.7</v>
-          </cell>
-          <cell r="P49">
-            <v>367581.1</v>
-          </cell>
-          <cell r="Q49">
-            <v>380874.8</v>
-          </cell>
-          <cell r="R49">
-            <v>125254.1</v>
-          </cell>
-          <cell r="S49">
-            <v>380878.6</v>
-          </cell>
-          <cell r="T49">
-            <v>666400</v>
-          </cell>
-          <cell r="U49">
-            <v>334983</v>
-          </cell>
-          <cell r="V49">
-            <v>246719.5</v>
-          </cell>
-          <cell r="W49">
-            <v>475620.1</v>
-          </cell>
-          <cell r="X49">
-            <v>1351706.6</v>
-          </cell>
-          <cell r="Y49">
-            <v>2970593.4</v>
-          </cell>
-          <cell r="Z49">
-            <v>1121923.2</v>
-          </cell>
-          <cell r="AA49">
-            <v>917753.9</v>
-          </cell>
-          <cell r="AB49">
-            <v>657592</v>
-          </cell>
-          <cell r="AC49">
-            <v>635977.4</v>
-          </cell>
-          <cell r="AD49">
-            <v>578097.80000000005</v>
-          </cell>
-          <cell r="AE49">
-            <v>2294683.9</v>
-          </cell>
-          <cell r="AF49">
-            <v>3002385.4</v>
-          </cell>
-          <cell r="AG49">
-            <v>3345452.3</v>
-          </cell>
-          <cell r="AH49">
-            <v>2508797.2999999998</v>
-          </cell>
-          <cell r="AI49">
-            <v>1304057.3999999999</v>
-          </cell>
-          <cell r="AJ49">
-            <v>2187438.6</v>
-          </cell>
-          <cell r="AK49">
-            <v>800816.1</v>
-          </cell>
-          <cell r="AL49">
-            <v>21351.7</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="7">
-          <cell r="D7">
-            <v>40135000000</v>
-          </cell>
-          <cell r="E7">
-            <v>268953000000</v>
-          </cell>
-          <cell r="G7">
-            <v>515925000000</v>
-          </cell>
-          <cell r="H7">
-            <v>269601000000</v>
-          </cell>
-          <cell r="J7">
-            <v>25886000000</v>
-          </cell>
-          <cell r="K7">
-            <v>93232000000</v>
-          </cell>
-          <cell r="M7">
-            <v>127020000000</v>
-          </cell>
-          <cell r="N7">
-            <v>100094000000</v>
-          </cell>
-          <cell r="P7">
-            <v>413205000000</v>
-          </cell>
-          <cell r="Q7">
-            <v>86048000000</v>
-          </cell>
-          <cell r="R7">
-            <v>14508000000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1177,7 +1003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
@@ -1193,6 +1019,9 @@
         <is>
           <t>BObIC BAU Output by ISIC Code</t>
         </is>
+      </c>
+      <c r="C1" s="48" t="n">
+        <v>44307</v>
       </c>
     </row>
     <row r="3">
@@ -1383,8 +1212,8 @@
     <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="43" max="45"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="46" max="46"/>
     <col width="10.1640625" bestFit="1" customWidth="1" style="6" min="47" max="47"/>
-    <col width="9.1640625" customWidth="1" style="6" min="48" max="48"/>
-    <col width="9.1640625" customWidth="1" style="6" min="49" max="16384"/>
+    <col width="9.1640625" customWidth="1" style="6" min="48" max="49"/>
+    <col width="9.1640625" customWidth="1" style="6" min="50" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -1406,240 +1235,240 @@
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="30" t="inlineStr">
+      <c r="A3" s="38" t="inlineStr">
         <is>
           <t>Variable</t>
         </is>
       </c>
-      <c r="B3" s="31" t="n"/>
-      <c r="C3" s="35" t="inlineStr">
+      <c r="B3" s="39" t="n"/>
+      <c r="C3" s="43" t="inlineStr">
         <is>
           <t>TTL: Total</t>
         </is>
       </c>
-      <c r="D3" s="33" t="n"/>
-      <c r="E3" s="33" t="n"/>
-      <c r="F3" s="33" t="n"/>
-      <c r="G3" s="33" t="n"/>
-      <c r="H3" s="33" t="n"/>
-      <c r="I3" s="33" t="n"/>
-      <c r="J3" s="33" t="n"/>
-      <c r="K3" s="33" t="n"/>
-      <c r="L3" s="33" t="n"/>
-      <c r="M3" s="33" t="n"/>
-      <c r="N3" s="33" t="n"/>
-      <c r="O3" s="33" t="n"/>
-      <c r="P3" s="33" t="n"/>
-      <c r="Q3" s="33" t="n"/>
-      <c r="R3" s="33" t="n"/>
-      <c r="S3" s="33" t="n"/>
-      <c r="T3" s="33" t="n"/>
-      <c r="U3" s="33" t="n"/>
-      <c r="V3" s="33" t="n"/>
-      <c r="W3" s="33" t="n"/>
-      <c r="X3" s="33" t="n"/>
-      <c r="Y3" s="33" t="n"/>
-      <c r="Z3" s="33" t="n"/>
-      <c r="AA3" s="33" t="n"/>
-      <c r="AB3" s="33" t="n"/>
-      <c r="AC3" s="33" t="n"/>
-      <c r="AD3" s="33" t="n"/>
-      <c r="AE3" s="33" t="n"/>
-      <c r="AF3" s="33" t="n"/>
-      <c r="AG3" s="33" t="n"/>
-      <c r="AH3" s="33" t="n"/>
-      <c r="AI3" s="33" t="n"/>
-      <c r="AJ3" s="33" t="n"/>
-      <c r="AK3" s="33" t="n"/>
-      <c r="AL3" s="33" t="n"/>
-      <c r="AM3" s="33" t="n"/>
-      <c r="AN3" s="33" t="n"/>
-      <c r="AO3" s="33" t="n"/>
-      <c r="AP3" s="33" t="n"/>
-      <c r="AQ3" s="33" t="n"/>
-      <c r="AR3" s="33" t="n"/>
-      <c r="AS3" s="33" t="n"/>
-      <c r="AT3" s="33" t="n"/>
-      <c r="AU3" s="31" t="n"/>
+      <c r="D3" s="41" t="n"/>
+      <c r="E3" s="41" t="n"/>
+      <c r="F3" s="41" t="n"/>
+      <c r="G3" s="41" t="n"/>
+      <c r="H3" s="41" t="n"/>
+      <c r="I3" s="41" t="n"/>
+      <c r="J3" s="41" t="n"/>
+      <c r="K3" s="41" t="n"/>
+      <c r="L3" s="41" t="n"/>
+      <c r="M3" s="41" t="n"/>
+      <c r="N3" s="41" t="n"/>
+      <c r="O3" s="41" t="n"/>
+      <c r="P3" s="41" t="n"/>
+      <c r="Q3" s="41" t="n"/>
+      <c r="R3" s="41" t="n"/>
+      <c r="S3" s="41" t="n"/>
+      <c r="T3" s="41" t="n"/>
+      <c r="U3" s="41" t="n"/>
+      <c r="V3" s="41" t="n"/>
+      <c r="W3" s="41" t="n"/>
+      <c r="X3" s="41" t="n"/>
+      <c r="Y3" s="41" t="n"/>
+      <c r="Z3" s="41" t="n"/>
+      <c r="AA3" s="41" t="n"/>
+      <c r="AB3" s="41" t="n"/>
+      <c r="AC3" s="41" t="n"/>
+      <c r="AD3" s="41" t="n"/>
+      <c r="AE3" s="41" t="n"/>
+      <c r="AF3" s="41" t="n"/>
+      <c r="AG3" s="41" t="n"/>
+      <c r="AH3" s="41" t="n"/>
+      <c r="AI3" s="41" t="n"/>
+      <c r="AJ3" s="41" t="n"/>
+      <c r="AK3" s="41" t="n"/>
+      <c r="AL3" s="41" t="n"/>
+      <c r="AM3" s="41" t="n"/>
+      <c r="AN3" s="41" t="n"/>
+      <c r="AO3" s="41" t="n"/>
+      <c r="AP3" s="41" t="n"/>
+      <c r="AQ3" s="41" t="n"/>
+      <c r="AR3" s="41" t="n"/>
+      <c r="AS3" s="41" t="n"/>
+      <c r="AT3" s="41" t="n"/>
+      <c r="AU3" s="39" t="n"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="30" t="inlineStr">
+      <c r="A4" s="38" t="inlineStr">
         <is>
           <t>Country</t>
         </is>
       </c>
-      <c r="B4" s="31" t="n"/>
-      <c r="C4" s="32" t="inlineStr">
+      <c r="B4" s="39" t="n"/>
+      <c r="C4" s="40" t="inlineStr">
         <is>
           <t>USA: United States</t>
         </is>
       </c>
-      <c r="D4" s="33" t="n"/>
-      <c r="E4" s="33" t="n"/>
-      <c r="F4" s="33" t="n"/>
-      <c r="G4" s="33" t="n"/>
-      <c r="H4" s="33" t="n"/>
-      <c r="I4" s="33" t="n"/>
-      <c r="J4" s="33" t="n"/>
-      <c r="K4" s="33" t="n"/>
-      <c r="L4" s="33" t="n"/>
-      <c r="M4" s="33" t="n"/>
-      <c r="N4" s="33" t="n"/>
-      <c r="O4" s="33" t="n"/>
-      <c r="P4" s="33" t="n"/>
-      <c r="Q4" s="33" t="n"/>
-      <c r="R4" s="33" t="n"/>
-      <c r="S4" s="33" t="n"/>
-      <c r="T4" s="33" t="n"/>
-      <c r="U4" s="33" t="n"/>
-      <c r="V4" s="33" t="n"/>
-      <c r="W4" s="33" t="n"/>
-      <c r="X4" s="33" t="n"/>
-      <c r="Y4" s="33" t="n"/>
-      <c r="Z4" s="33" t="n"/>
-      <c r="AA4" s="33" t="n"/>
-      <c r="AB4" s="33" t="n"/>
-      <c r="AC4" s="33" t="n"/>
-      <c r="AD4" s="33" t="n"/>
-      <c r="AE4" s="33" t="n"/>
-      <c r="AF4" s="33" t="n"/>
-      <c r="AG4" s="33" t="n"/>
-      <c r="AH4" s="33" t="n"/>
-      <c r="AI4" s="33" t="n"/>
-      <c r="AJ4" s="33" t="n"/>
-      <c r="AK4" s="33" t="n"/>
-      <c r="AL4" s="33" t="n"/>
-      <c r="AM4" s="33" t="n"/>
-      <c r="AN4" s="33" t="n"/>
-      <c r="AO4" s="33" t="n"/>
-      <c r="AP4" s="33" t="n"/>
-      <c r="AQ4" s="33" t="n"/>
-      <c r="AR4" s="33" t="n"/>
-      <c r="AS4" s="33" t="n"/>
-      <c r="AT4" s="33" t="n"/>
-      <c r="AU4" s="31" t="n"/>
+      <c r="D4" s="41" t="n"/>
+      <c r="E4" s="41" t="n"/>
+      <c r="F4" s="41" t="n"/>
+      <c r="G4" s="41" t="n"/>
+      <c r="H4" s="41" t="n"/>
+      <c r="I4" s="41" t="n"/>
+      <c r="J4" s="41" t="n"/>
+      <c r="K4" s="41" t="n"/>
+      <c r="L4" s="41" t="n"/>
+      <c r="M4" s="41" t="n"/>
+      <c r="N4" s="41" t="n"/>
+      <c r="O4" s="41" t="n"/>
+      <c r="P4" s="41" t="n"/>
+      <c r="Q4" s="41" t="n"/>
+      <c r="R4" s="41" t="n"/>
+      <c r="S4" s="41" t="n"/>
+      <c r="T4" s="41" t="n"/>
+      <c r="U4" s="41" t="n"/>
+      <c r="V4" s="41" t="n"/>
+      <c r="W4" s="41" t="n"/>
+      <c r="X4" s="41" t="n"/>
+      <c r="Y4" s="41" t="n"/>
+      <c r="Z4" s="41" t="n"/>
+      <c r="AA4" s="41" t="n"/>
+      <c r="AB4" s="41" t="n"/>
+      <c r="AC4" s="41" t="n"/>
+      <c r="AD4" s="41" t="n"/>
+      <c r="AE4" s="41" t="n"/>
+      <c r="AF4" s="41" t="n"/>
+      <c r="AG4" s="41" t="n"/>
+      <c r="AH4" s="41" t="n"/>
+      <c r="AI4" s="41" t="n"/>
+      <c r="AJ4" s="41" t="n"/>
+      <c r="AK4" s="41" t="n"/>
+      <c r="AL4" s="41" t="n"/>
+      <c r="AM4" s="41" t="n"/>
+      <c r="AN4" s="41" t="n"/>
+      <c r="AO4" s="41" t="n"/>
+      <c r="AP4" s="41" t="n"/>
+      <c r="AQ4" s="41" t="n"/>
+      <c r="AR4" s="41" t="n"/>
+      <c r="AS4" s="41" t="n"/>
+      <c r="AT4" s="41" t="n"/>
+      <c r="AU4" s="39" t="n"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="30" t="inlineStr">
+      <c r="A5" s="38" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B5" s="31" t="n"/>
-      <c r="C5" s="32" t="inlineStr">
+      <c r="B5" s="39" t="n"/>
+      <c r="C5" s="40" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="D5" s="33" t="n"/>
-      <c r="E5" s="33" t="n"/>
-      <c r="F5" s="33" t="n"/>
-      <c r="G5" s="33" t="n"/>
-      <c r="H5" s="33" t="n"/>
-      <c r="I5" s="33" t="n"/>
-      <c r="J5" s="33" t="n"/>
-      <c r="K5" s="33" t="n"/>
-      <c r="L5" s="33" t="n"/>
-      <c r="M5" s="33" t="n"/>
-      <c r="N5" s="33" t="n"/>
-      <c r="O5" s="33" t="n"/>
-      <c r="P5" s="33" t="n"/>
-      <c r="Q5" s="33" t="n"/>
-      <c r="R5" s="33" t="n"/>
-      <c r="S5" s="33" t="n"/>
-      <c r="T5" s="33" t="n"/>
-      <c r="U5" s="33" t="n"/>
-      <c r="V5" s="33" t="n"/>
-      <c r="W5" s="33" t="n"/>
-      <c r="X5" s="33" t="n"/>
-      <c r="Y5" s="33" t="n"/>
-      <c r="Z5" s="33" t="n"/>
-      <c r="AA5" s="33" t="n"/>
-      <c r="AB5" s="33" t="n"/>
-      <c r="AC5" s="33" t="n"/>
-      <c r="AD5" s="33" t="n"/>
-      <c r="AE5" s="33" t="n"/>
-      <c r="AF5" s="33" t="n"/>
-      <c r="AG5" s="33" t="n"/>
-      <c r="AH5" s="33" t="n"/>
-      <c r="AI5" s="33" t="n"/>
-      <c r="AJ5" s="33" t="n"/>
-      <c r="AK5" s="33" t="n"/>
-      <c r="AL5" s="33" t="n"/>
-      <c r="AM5" s="33" t="n"/>
-      <c r="AN5" s="33" t="n"/>
-      <c r="AO5" s="33" t="n"/>
-      <c r="AP5" s="33" t="n"/>
-      <c r="AQ5" s="33" t="n"/>
-      <c r="AR5" s="33" t="n"/>
-      <c r="AS5" s="33" t="n"/>
-      <c r="AT5" s="33" t="n"/>
-      <c r="AU5" s="31" t="n"/>
+      <c r="D5" s="41" t="n"/>
+      <c r="E5" s="41" t="n"/>
+      <c r="F5" s="41" t="n"/>
+      <c r="G5" s="41" t="n"/>
+      <c r="H5" s="41" t="n"/>
+      <c r="I5" s="41" t="n"/>
+      <c r="J5" s="41" t="n"/>
+      <c r="K5" s="41" t="n"/>
+      <c r="L5" s="41" t="n"/>
+      <c r="M5" s="41" t="n"/>
+      <c r="N5" s="41" t="n"/>
+      <c r="O5" s="41" t="n"/>
+      <c r="P5" s="41" t="n"/>
+      <c r="Q5" s="41" t="n"/>
+      <c r="R5" s="41" t="n"/>
+      <c r="S5" s="41" t="n"/>
+      <c r="T5" s="41" t="n"/>
+      <c r="U5" s="41" t="n"/>
+      <c r="V5" s="41" t="n"/>
+      <c r="W5" s="41" t="n"/>
+      <c r="X5" s="41" t="n"/>
+      <c r="Y5" s="41" t="n"/>
+      <c r="Z5" s="41" t="n"/>
+      <c r="AA5" s="41" t="n"/>
+      <c r="AB5" s="41" t="n"/>
+      <c r="AC5" s="41" t="n"/>
+      <c r="AD5" s="41" t="n"/>
+      <c r="AE5" s="41" t="n"/>
+      <c r="AF5" s="41" t="n"/>
+      <c r="AG5" s="41" t="n"/>
+      <c r="AH5" s="41" t="n"/>
+      <c r="AI5" s="41" t="n"/>
+      <c r="AJ5" s="41" t="n"/>
+      <c r="AK5" s="41" t="n"/>
+      <c r="AL5" s="41" t="n"/>
+      <c r="AM5" s="41" t="n"/>
+      <c r="AN5" s="41" t="n"/>
+      <c r="AO5" s="41" t="n"/>
+      <c r="AP5" s="41" t="n"/>
+      <c r="AQ5" s="41" t="n"/>
+      <c r="AR5" s="41" t="n"/>
+      <c r="AS5" s="41" t="n"/>
+      <c r="AT5" s="41" t="n"/>
+      <c r="AU5" s="39" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="30" t="inlineStr">
+      <c r="A6" s="38" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="B6" s="31" t="n"/>
-      <c r="C6" s="32" t="inlineStr">
+      <c r="B6" s="39" t="n"/>
+      <c r="C6" s="40" t="inlineStr">
         <is>
           <t>US Dollar, Millions</t>
         </is>
       </c>
-      <c r="D6" s="33" t="n"/>
-      <c r="E6" s="33" t="n"/>
-      <c r="F6" s="33" t="n"/>
-      <c r="G6" s="33" t="n"/>
-      <c r="H6" s="33" t="n"/>
-      <c r="I6" s="33" t="n"/>
-      <c r="J6" s="33" t="n"/>
-      <c r="K6" s="33" t="n"/>
-      <c r="L6" s="33" t="n"/>
-      <c r="M6" s="33" t="n"/>
-      <c r="N6" s="33" t="n"/>
-      <c r="O6" s="33" t="n"/>
-      <c r="P6" s="33" t="n"/>
-      <c r="Q6" s="33" t="n"/>
-      <c r="R6" s="33" t="n"/>
-      <c r="S6" s="33" t="n"/>
-      <c r="T6" s="33" t="n"/>
-      <c r="U6" s="33" t="n"/>
-      <c r="V6" s="33" t="n"/>
-      <c r="W6" s="33" t="n"/>
-      <c r="X6" s="33" t="n"/>
-      <c r="Y6" s="33" t="n"/>
-      <c r="Z6" s="33" t="n"/>
-      <c r="AA6" s="33" t="n"/>
-      <c r="AB6" s="33" t="n"/>
-      <c r="AC6" s="33" t="n"/>
-      <c r="AD6" s="33" t="n"/>
-      <c r="AE6" s="33" t="n"/>
-      <c r="AF6" s="33" t="n"/>
-      <c r="AG6" s="33" t="n"/>
-      <c r="AH6" s="33" t="n"/>
-      <c r="AI6" s="33" t="n"/>
-      <c r="AJ6" s="33" t="n"/>
-      <c r="AK6" s="33" t="n"/>
-      <c r="AL6" s="33" t="n"/>
-      <c r="AM6" s="33" t="n"/>
-      <c r="AN6" s="33" t="n"/>
-      <c r="AO6" s="33" t="n"/>
-      <c r="AP6" s="33" t="n"/>
-      <c r="AQ6" s="33" t="n"/>
-      <c r="AR6" s="33" t="n"/>
-      <c r="AS6" s="33" t="n"/>
-      <c r="AT6" s="33" t="n"/>
-      <c r="AU6" s="31" t="n"/>
+      <c r="D6" s="41" t="n"/>
+      <c r="E6" s="41" t="n"/>
+      <c r="F6" s="41" t="n"/>
+      <c r="G6" s="41" t="n"/>
+      <c r="H6" s="41" t="n"/>
+      <c r="I6" s="41" t="n"/>
+      <c r="J6" s="41" t="n"/>
+      <c r="K6" s="41" t="n"/>
+      <c r="L6" s="41" t="n"/>
+      <c r="M6" s="41" t="n"/>
+      <c r="N6" s="41" t="n"/>
+      <c r="O6" s="41" t="n"/>
+      <c r="P6" s="41" t="n"/>
+      <c r="Q6" s="41" t="n"/>
+      <c r="R6" s="41" t="n"/>
+      <c r="S6" s="41" t="n"/>
+      <c r="T6" s="41" t="n"/>
+      <c r="U6" s="41" t="n"/>
+      <c r="V6" s="41" t="n"/>
+      <c r="W6" s="41" t="n"/>
+      <c r="X6" s="41" t="n"/>
+      <c r="Y6" s="41" t="n"/>
+      <c r="Z6" s="41" t="n"/>
+      <c r="AA6" s="41" t="n"/>
+      <c r="AB6" s="41" t="n"/>
+      <c r="AC6" s="41" t="n"/>
+      <c r="AD6" s="41" t="n"/>
+      <c r="AE6" s="41" t="n"/>
+      <c r="AF6" s="41" t="n"/>
+      <c r="AG6" s="41" t="n"/>
+      <c r="AH6" s="41" t="n"/>
+      <c r="AI6" s="41" t="n"/>
+      <c r="AJ6" s="41" t="n"/>
+      <c r="AK6" s="41" t="n"/>
+      <c r="AL6" s="41" t="n"/>
+      <c r="AM6" s="41" t="n"/>
+      <c r="AN6" s="41" t="n"/>
+      <c r="AO6" s="41" t="n"/>
+      <c r="AP6" s="41" t="n"/>
+      <c r="AQ6" s="41" t="n"/>
+      <c r="AR6" s="41" t="n"/>
+      <c r="AS6" s="41" t="n"/>
+      <c r="AT6" s="41" t="n"/>
+      <c r="AU6" s="39" t="n"/>
     </row>
     <row r="7" ht="126" customHeight="1">
-      <c r="A7" s="34" t="inlineStr">
+      <c r="A7" s="42" t="inlineStr">
         <is>
           <t>To: (sector in column)</t>
         </is>
       </c>
-      <c r="B7" s="31" t="n"/>
+      <c r="B7" s="39" t="n"/>
       <c r="C7" s="8" t="inlineStr">
         <is>
           <t>D01T03: Agriculture, forestry and fishing</t>
@@ -7849,80 +7678,80 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="37" t="inlineStr">
+      <c r="A3" s="45" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B3" s="31" t="n"/>
-      <c r="C3" s="38" t="inlineStr">
+      <c r="B3" s="39" t="n"/>
+      <c r="C3" s="46" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="D3" s="33" t="n"/>
-      <c r="E3" s="33" t="n"/>
-      <c r="F3" s="33" t="n"/>
-      <c r="G3" s="33" t="n"/>
-      <c r="H3" s="33" t="n"/>
-      <c r="I3" s="33" t="n"/>
-      <c r="J3" s="33" t="n"/>
-      <c r="K3" s="33" t="n"/>
-      <c r="L3" s="33" t="n"/>
-      <c r="M3" s="33" t="n"/>
-      <c r="N3" s="31" t="n"/>
+      <c r="D3" s="41" t="n"/>
+      <c r="E3" s="41" t="n"/>
+      <c r="F3" s="41" t="n"/>
+      <c r="G3" s="41" t="n"/>
+      <c r="H3" s="41" t="n"/>
+      <c r="I3" s="41" t="n"/>
+      <c r="J3" s="41" t="n"/>
+      <c r="K3" s="41" t="n"/>
+      <c r="L3" s="41" t="n"/>
+      <c r="M3" s="41" t="n"/>
+      <c r="N3" s="39" t="n"/>
     </row>
     <row r="4" ht="24" customHeight="1">
-      <c r="A4" s="36" t="inlineStr">
+      <c r="A4" s="44" t="inlineStr">
         <is>
           <t>Variable</t>
         </is>
       </c>
-      <c r="B4" s="31" t="n"/>
-      <c r="C4" s="39" t="inlineStr">
+      <c r="B4" s="39" t="n"/>
+      <c r="C4" s="47" t="inlineStr">
         <is>
           <t>PROD: Production (gross output), current prices</t>
         </is>
       </c>
-      <c r="D4" s="31" t="n"/>
-      <c r="E4" s="39" t="inlineStr">
+      <c r="D4" s="39" t="n"/>
+      <c r="E4" s="47" t="inlineStr">
         <is>
           <t>VALU: Value added, current prices</t>
         </is>
       </c>
-      <c r="F4" s="31" t="n"/>
-      <c r="G4" s="39" t="inlineStr">
+      <c r="F4" s="39" t="n"/>
+      <c r="G4" s="47" t="inlineStr">
         <is>
           <t>LABR: Labour costs (compensation of employees)</t>
         </is>
       </c>
-      <c r="H4" s="31" t="n"/>
-      <c r="I4" s="39" t="inlineStr">
+      <c r="H4" s="39" t="n"/>
+      <c r="I4" s="47" t="inlineStr">
         <is>
           <t>GOPS: Gross operating surplus and mixed income</t>
         </is>
       </c>
-      <c r="J4" s="31" t="n"/>
-      <c r="K4" s="39" t="inlineStr">
+      <c r="J4" s="39" t="n"/>
+      <c r="K4" s="47" t="inlineStr">
         <is>
           <t>OTXS: Other taxes less subsidies on production</t>
         </is>
       </c>
-      <c r="L4" s="31" t="n"/>
-      <c r="M4" s="39" t="inlineStr">
+      <c r="L4" s="39" t="n"/>
+      <c r="M4" s="47" t="inlineStr">
         <is>
           <t>EMPN: Number of persons engaged (total employment)</t>
         </is>
       </c>
-      <c r="N4" s="31" t="n"/>
+      <c r="N4" s="39" t="n"/>
     </row>
     <row r="5" ht="63" customHeight="1">
-      <c r="A5" s="36" t="inlineStr">
+      <c r="A5" s="44" t="inlineStr">
         <is>
           <t>Industry</t>
         </is>
       </c>
-      <c r="B5" s="31" t="n"/>
+      <c r="B5" s="39" t="n"/>
       <c r="C5" s="19" t="inlineStr">
         <is>
           <t>D20: Chemicals and chemical products [CE]</t>
@@ -9248,12 +9077,12 @@
           <t>ISIC 01T03</t>
         </is>
       </c>
-      <c r="C1" s="40" t="inlineStr">
+      <c r="C1" s="30" t="inlineStr">
         <is>
           <t>ISIC 05</t>
         </is>
       </c>
-      <c r="D1" s="41" t="inlineStr">
+      <c r="D1" s="31" t="inlineStr">
         <is>
           <t>ISIC 06</t>
         </is>
@@ -9293,12 +9122,12 @@
           <t>ISIC 19</t>
         </is>
       </c>
-      <c r="L1" s="40" t="inlineStr">
+      <c r="L1" s="30" t="inlineStr">
         <is>
           <t>ISIC 20</t>
         </is>
       </c>
-      <c r="M1" s="41" t="inlineStr">
+      <c r="M1" s="31" t="inlineStr">
         <is>
           <t>ISIC 21</t>
         </is>
@@ -9308,22 +9137,22 @@
           <t>ISIC 22</t>
         </is>
       </c>
-      <c r="O1" s="40" t="inlineStr">
+      <c r="O1" s="30" t="inlineStr">
         <is>
           <t>ISIC 231</t>
         </is>
       </c>
-      <c r="P1" s="41" t="inlineStr">
+      <c r="P1" s="31" t="inlineStr">
         <is>
           <t>ISIC 239</t>
         </is>
       </c>
-      <c r="Q1" s="40" t="inlineStr">
+      <c r="Q1" s="30" t="inlineStr">
         <is>
           <t>ISIC 241</t>
         </is>
       </c>
-      <c r="R1" s="41" t="inlineStr">
+      <c r="R1" s="31" t="inlineStr">
         <is>
           <t>ISIC 242</t>
         </is>
@@ -9363,17 +9192,17 @@
           <t>ISIC 31T33</t>
         </is>
       </c>
-      <c r="Z1" s="40" t="inlineStr">
+      <c r="Z1" s="30" t="inlineStr">
         <is>
           <t>ISIC 351</t>
         </is>
       </c>
-      <c r="AA1" s="46" t="inlineStr">
+      <c r="AA1" s="36" t="inlineStr">
         <is>
           <t>ISIC 352T353</t>
         </is>
       </c>
-      <c r="AB1" s="41" t="inlineStr">
+      <c r="AB1" s="31" t="inlineStr">
         <is>
           <t>ISIC 36T39</t>
         </is>
@@ -9463,10 +9292,10 @@
       <c r="B2" t="n">
         <v>1751705800</v>
       </c>
-      <c r="C2" s="42" t="n">
+      <c r="C2" s="32" t="n">
         <v>6646710340</v>
       </c>
-      <c r="D2" s="43" t="n">
+      <c r="D2" s="33" t="n">
         <v>88095157.00070076</v>
       </c>
       <c r="E2" t="n">
@@ -9490,25 +9319,25 @@
       <c r="K2" t="n">
         <v>16703743980</v>
       </c>
-      <c r="L2" s="44" t="n">
+      <c r="L2" s="34" t="n">
         <v>15550034472.98179</v>
       </c>
-      <c r="M2" s="45" t="n">
+      <c r="M2" s="35" t="n">
         <v>310360367.0182088</v>
       </c>
       <c r="N2" t="n">
         <v>470378780</v>
       </c>
-      <c r="O2" s="44" t="n">
+      <c r="O2" s="34" t="n">
         <v>186403827.7589902</v>
       </c>
-      <c r="P2" s="45" t="n">
+      <c r="P2" s="35" t="n">
         <v>529707492.2410098</v>
       </c>
-      <c r="Q2" s="44" t="n">
+      <c r="Q2" s="34" t="n">
         <v>219043403.5458575</v>
       </c>
-      <c r="R2" s="45" t="n">
+      <c r="R2" s="35" t="n">
         <v>213585756.4541425</v>
       </c>
       <c r="S2" t="n">
@@ -9532,13 +9361,13 @@
       <c r="Y2" t="n">
         <v>338100820</v>
       </c>
-      <c r="Z2" s="44" t="n">
+      <c r="Z2" s="34" t="n">
         <v>4215160047.302066</v>
       </c>
-      <c r="AA2" s="47" t="n">
+      <c r="AA2" s="37" t="n">
         <v>333272455.4162603</v>
       </c>
-      <c r="AB2" s="45" t="n">
+      <c r="AB2" s="35" t="n">
         <v>643528857.2816739</v>
       </c>
       <c r="AC2" t="n">

--- a/InputData/io-model/BObIC/BAU Output by ISIC Code.xlsx
+++ b/InputData/io-model/BObIC/BAU Output by ISIC Code.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="600" firstSheet="3" activeTab="9" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-2730" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="6" activeTab="8" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -205,7 +205,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -357,17 +357,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -380,14 +369,47 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -436,7 +458,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -546,18 +568,22 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -599,6 +625,43 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1190,9 +1253,9 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
-    <col width="77.5" customWidth="1" min="2" max="2"/>
+    <col width="77.5" customWidth="1" style="52" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1375,405 +1438,406 @@
   </sheetPr>
   <dimension ref="A1:AQ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
-    <col width="20.1640625" customWidth="1" min="1" max="1"/>
-    <col width="10.1640625" customWidth="1" min="2" max="38"/>
+    <col width="20.1796875" customWidth="1" style="52" min="1" max="1"/>
+    <col width="10.1796875" customWidth="1" style="52" min="2" max="38"/>
+    <col width="9.6796875" bestFit="1" customWidth="1" style="52" min="40" max="40"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customFormat="1" customHeight="1" s="4" thickBot="1">
-      <c r="A1" s="15" t="inlineStr">
+    <row r="1" ht="16" customFormat="1" customHeight="1" s="51">
+      <c r="A1" s="50" t="inlineStr">
         <is>
           <t>Unit: USD</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="51" t="inlineStr">
         <is>
           <t>ISIC 01T03</t>
         </is>
       </c>
-      <c r="C1" s="47" t="inlineStr">
+      <c r="C1" s="51" t="inlineStr">
         <is>
           <t>ISIC 05</t>
         </is>
       </c>
-      <c r="D1" s="48" t="inlineStr">
+      <c r="D1" s="51" t="inlineStr">
         <is>
           <t>ISIC 06</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="51" t="inlineStr">
         <is>
           <t>ISIC 07T08</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="51" t="inlineStr">
         <is>
           <t>ISIC 09</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="51" t="inlineStr">
         <is>
           <t>ISIC 10T12</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="H1" s="51" t="inlineStr">
         <is>
           <t>ISIC 13T15</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
+      <c r="I1" s="51" t="inlineStr">
         <is>
           <t>ISIC 16</t>
         </is>
       </c>
-      <c r="J1" s="4" t="inlineStr">
+      <c r="J1" s="51" t="inlineStr">
         <is>
           <t>ISIC 17T18</t>
         </is>
       </c>
-      <c r="K1" s="4" t="inlineStr">
+      <c r="K1" s="51" t="inlineStr">
         <is>
           <t>ISIC 19</t>
         </is>
       </c>
-      <c r="L1" s="47" t="inlineStr">
+      <c r="L1" s="51" t="inlineStr">
         <is>
           <t>ISIC 20</t>
         </is>
       </c>
-      <c r="M1" s="48" t="inlineStr">
+      <c r="M1" s="51" t="inlineStr">
         <is>
           <t>ISIC 21</t>
         </is>
       </c>
-      <c r="N1" s="4" t="inlineStr">
+      <c r="N1" s="51" t="inlineStr">
         <is>
           <t>ISIC 22</t>
         </is>
       </c>
-      <c r="O1" s="47" t="inlineStr">
+      <c r="O1" s="51" t="inlineStr">
         <is>
           <t>ISIC 231</t>
         </is>
       </c>
-      <c r="P1" s="48" t="inlineStr">
+      <c r="P1" s="51" t="inlineStr">
         <is>
           <t>ISIC 239</t>
         </is>
       </c>
-      <c r="Q1" s="47" t="inlineStr">
+      <c r="Q1" s="51" t="inlineStr">
         <is>
           <t>ISIC 241</t>
         </is>
       </c>
-      <c r="R1" s="48" t="inlineStr">
+      <c r="R1" s="51" t="inlineStr">
         <is>
           <t>ISIC 242</t>
         </is>
       </c>
-      <c r="S1" s="4" t="inlineStr">
+      <c r="S1" s="51" t="inlineStr">
         <is>
           <t>ISIC 25</t>
         </is>
       </c>
-      <c r="T1" s="4" t="inlineStr">
+      <c r="T1" s="51" t="inlineStr">
         <is>
           <t>ISIC 26</t>
         </is>
       </c>
-      <c r="U1" s="4" t="inlineStr">
+      <c r="U1" s="51" t="inlineStr">
         <is>
           <t>ISIC 27</t>
         </is>
       </c>
-      <c r="V1" s="4" t="inlineStr">
+      <c r="V1" s="51" t="inlineStr">
         <is>
           <t>ISIC 28</t>
         </is>
       </c>
-      <c r="W1" s="4" t="inlineStr">
+      <c r="W1" s="51" t="inlineStr">
         <is>
           <t>ISIC 29</t>
         </is>
       </c>
-      <c r="X1" s="4" t="inlineStr">
+      <c r="X1" s="51" t="inlineStr">
         <is>
           <t>ISIC 30</t>
         </is>
       </c>
-      <c r="Y1" s="4" t="inlineStr">
+      <c r="Y1" s="51" t="inlineStr">
         <is>
           <t>ISIC 31T33</t>
         </is>
       </c>
-      <c r="Z1" s="47" t="inlineStr">
+      <c r="Z1" s="51" t="inlineStr">
         <is>
           <t>ISIC 351</t>
         </is>
       </c>
-      <c r="AA1" s="49" t="inlineStr">
+      <c r="AA1" s="51" t="inlineStr">
         <is>
           <t>ISIC 352T353</t>
         </is>
       </c>
-      <c r="AB1" s="48" t="inlineStr">
+      <c r="AB1" s="51" t="inlineStr">
         <is>
           <t>ISIC 36T39</t>
         </is>
       </c>
-      <c r="AC1" s="4" t="inlineStr">
+      <c r="AC1" s="51" t="inlineStr">
         <is>
           <t>ISIC 41T43</t>
         </is>
       </c>
-      <c r="AD1" s="4" t="inlineStr">
+      <c r="AD1" s="51" t="inlineStr">
         <is>
           <t>ISIC 45T47</t>
         </is>
       </c>
-      <c r="AE1" s="4" t="inlineStr">
+      <c r="AE1" s="51" t="inlineStr">
         <is>
           <t>ISIC 49T53</t>
         </is>
       </c>
-      <c r="AF1" s="4" t="inlineStr">
+      <c r="AF1" s="51" t="inlineStr">
         <is>
           <t>ISIC 55T56</t>
         </is>
       </c>
-      <c r="AG1" s="4" t="inlineStr">
+      <c r="AG1" s="51" t="inlineStr">
         <is>
           <t>ISIC 58T60</t>
         </is>
       </c>
-      <c r="AH1" s="4" t="inlineStr">
+      <c r="AH1" s="51" t="inlineStr">
         <is>
           <t>ISIC 61</t>
         </is>
       </c>
-      <c r="AI1" s="4" t="inlineStr">
+      <c r="AI1" s="51" t="inlineStr">
         <is>
           <t>ISIC 62T63</t>
         </is>
       </c>
-      <c r="AJ1" s="4" t="inlineStr">
+      <c r="AJ1" s="51" t="inlineStr">
         <is>
           <t>ISIC 64T66</t>
         </is>
       </c>
-      <c r="AK1" s="4" t="inlineStr">
+      <c r="AK1" s="51" t="inlineStr">
         <is>
           <t>ISIC 68</t>
         </is>
       </c>
-      <c r="AL1" s="4" t="inlineStr">
+      <c r="AL1" s="51" t="inlineStr">
         <is>
           <t>ISIC 69T82</t>
         </is>
       </c>
-      <c r="AM1" s="4" t="inlineStr">
+      <c r="AM1" s="51" t="inlineStr">
         <is>
           <t>ISIC 84</t>
         </is>
       </c>
-      <c r="AN1" s="4" t="inlineStr">
+      <c r="AN1" s="51" t="inlineStr">
         <is>
           <t>ISIC 85</t>
         </is>
       </c>
-      <c r="AO1" s="4" t="inlineStr">
+      <c r="AO1" s="51" t="inlineStr">
         <is>
           <t>ISIC 86T88</t>
         </is>
       </c>
-      <c r="AP1" s="4" t="inlineStr">
+      <c r="AP1" s="51" t="inlineStr">
         <is>
           <t>ISIC 90T96</t>
         </is>
       </c>
-      <c r="AQ1" s="4" t="inlineStr">
+      <c r="AQ1" s="51" t="inlineStr">
         <is>
           <t>ISIC 97T98</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="16" customHeight="1">
+    <row r="2" ht="16" customHeight="1" s="52">
       <c r="A2" t="inlineStr">
         <is>
           <t>Output</t>
         </is>
       </c>
       <c r="B2">
-        <f>'BObIC-state base'!B2*'USA Ratio Output - Value Added'!F5*'USA Value Added'!B4</f>
+        <f>'BObIC-state base'!B6</f>
         <v/>
       </c>
       <c r="C2">
-        <f>'BObIC-state base'!C2*'USA Ratio Output - Value Added'!G5*'USA Value Added'!C4</f>
+        <f>'BObIC-state base'!C6</f>
         <v/>
       </c>
       <c r="D2">
-        <f>'BObIC-state base'!D2*'USA Ratio Output - Value Added'!H5*'USA Value Added'!D4</f>
+        <f>'BObIC-state base'!D6</f>
         <v/>
       </c>
       <c r="E2">
-        <f>'BObIC-state base'!E2*'USA Ratio Output - Value Added'!I5*'USA Value Added'!E4</f>
+        <f>'BObIC-state base'!E6</f>
         <v/>
       </c>
       <c r="F2">
-        <f>'BObIC-state base'!F2*'USA Ratio Output - Value Added'!J5*'USA Value Added'!F4</f>
+        <f>'BObIC-state base'!F6</f>
         <v/>
       </c>
       <c r="G2">
-        <f>'BObIC-state base'!G2*'USA Ratio Output - Value Added'!K5*'USA Value Added'!G4</f>
+        <f>'BObIC-state base'!G6</f>
         <v/>
       </c>
       <c r="H2">
-        <f>'BObIC-state base'!H2*'USA Ratio Output - Value Added'!L5*'USA Value Added'!H4</f>
+        <f>'BObIC-state base'!H6</f>
         <v/>
       </c>
       <c r="I2">
-        <f>'BObIC-state base'!I2*'USA Ratio Output - Value Added'!M5*'USA Value Added'!I4</f>
+        <f>'BObIC-state base'!I6</f>
         <v/>
       </c>
       <c r="J2">
-        <f>'BObIC-state base'!J2*'USA Ratio Output - Value Added'!N5*'USA Value Added'!J4</f>
+        <f>'BObIC-state base'!J6</f>
         <v/>
       </c>
       <c r="K2">
-        <f>'BObIC-state base'!K2*'USA Ratio Output - Value Added'!O5*'USA Value Added'!K4</f>
+        <f>'BObIC-state base'!K6</f>
         <v/>
       </c>
       <c r="L2">
-        <f>'BObIC-state base'!L2*'USA Ratio Output - Value Added'!P5*'USA Value Added'!L4</f>
+        <f>'BObIC-state base'!L6</f>
         <v/>
       </c>
       <c r="M2">
-        <f>'BObIC-state base'!M2*'USA Ratio Output - Value Added'!Q5*'USA Value Added'!M4</f>
+        <f>'BObIC-state base'!M6</f>
         <v/>
       </c>
       <c r="N2">
-        <f>'BObIC-state base'!N2*'USA Ratio Output - Value Added'!R5*'USA Value Added'!N4</f>
+        <f>'BObIC-state base'!N6</f>
         <v/>
       </c>
       <c r="O2">
-        <f>'BObIC-state base'!O2*'USA Ratio Output - Value Added'!S5*'USA Value Added'!O4</f>
+        <f>'BObIC-state base'!O6</f>
         <v/>
       </c>
       <c r="P2">
-        <f>'BObIC-state base'!P2*'USA Ratio Output - Value Added'!T5*'USA Value Added'!P4</f>
+        <f>'BObIC-state base'!P6</f>
         <v/>
       </c>
       <c r="Q2">
-        <f>'BObIC-state base'!Q2*'USA Ratio Output - Value Added'!U5*'USA Value Added'!Q4</f>
+        <f>'BObIC-state base'!Q6</f>
         <v/>
       </c>
       <c r="R2">
-        <f>'BObIC-state base'!R2*'USA Ratio Output - Value Added'!V5*'USA Value Added'!R4</f>
+        <f>'BObIC-state base'!R6</f>
         <v/>
       </c>
       <c r="S2">
-        <f>'BObIC-state base'!S2*'USA Ratio Output - Value Added'!W5*'USA Value Added'!S4</f>
+        <f>'BObIC-state base'!S6</f>
         <v/>
       </c>
       <c r="T2">
-        <f>'BObIC-state base'!T2*'USA Ratio Output - Value Added'!X5*'USA Value Added'!T4</f>
+        <f>'BObIC-state base'!T6</f>
         <v/>
       </c>
       <c r="U2">
-        <f>'BObIC-state base'!U2*'USA Ratio Output - Value Added'!Y5*'USA Value Added'!U4</f>
+        <f>'BObIC-state base'!U6</f>
         <v/>
       </c>
       <c r="V2">
-        <f>'BObIC-state base'!V2*'USA Ratio Output - Value Added'!Z5*'USA Value Added'!V4</f>
+        <f>'BObIC-state base'!V6</f>
         <v/>
       </c>
       <c r="W2">
-        <f>'BObIC-state base'!W2*'USA Ratio Output - Value Added'!AA5*'USA Value Added'!W4</f>
+        <f>'BObIC-state base'!W6</f>
         <v/>
       </c>
       <c r="X2">
-        <f>'BObIC-state base'!X2*'USA Ratio Output - Value Added'!AB5*'USA Value Added'!X4</f>
+        <f>'BObIC-state base'!X6</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>'BObIC-state base'!Y2*'USA Ratio Output - Value Added'!AC5*'USA Value Added'!Y4</f>
+        <f>'BObIC-state base'!Y6</f>
         <v/>
       </c>
       <c r="Z2">
-        <f>'BObIC-state base'!Z2*'USA Ratio Output - Value Added'!AD5*'USA Value Added'!Z4</f>
+        <f>'BObIC-state base'!Z6</f>
         <v/>
       </c>
       <c r="AA2">
-        <f>'BObIC-state base'!AA2*'USA Ratio Output - Value Added'!AE5*'USA Value Added'!AA4</f>
+        <f>'BObIC-state base'!AA6</f>
         <v/>
       </c>
       <c r="AB2">
-        <f>'BObIC-state base'!AB2*'USA Ratio Output - Value Added'!AF5*'USA Value Added'!AB4</f>
+        <f>'BObIC-state base'!AB6</f>
         <v/>
       </c>
       <c r="AC2">
-        <f>'BObIC-state base'!AC2*'USA Ratio Output - Value Added'!AG5*'USA Value Added'!AC4</f>
+        <f>'BObIC-state base'!AC6</f>
         <v/>
       </c>
       <c r="AD2">
-        <f>'BObIC-state base'!AD2*'USA Ratio Output - Value Added'!AH5*'USA Value Added'!AD4</f>
+        <f>'BObIC-state base'!AD6</f>
         <v/>
       </c>
       <c r="AE2">
-        <f>'BObIC-state base'!AE2*'USA Ratio Output - Value Added'!AI5*'USA Value Added'!AE4</f>
+        <f>'BObIC-state base'!AE6</f>
         <v/>
       </c>
       <c r="AF2">
-        <f>'BObIC-state base'!AF2*'USA Ratio Output - Value Added'!AJ5*'USA Value Added'!AF4</f>
+        <f>'BObIC-state base'!AF6</f>
         <v/>
       </c>
       <c r="AG2">
-        <f>'BObIC-state base'!AG2*'USA Ratio Output - Value Added'!AK5*'USA Value Added'!AG4</f>
+        <f>'BObIC-state base'!AG6</f>
         <v/>
       </c>
       <c r="AH2">
-        <f>'BObIC-state base'!AH2*'USA Ratio Output - Value Added'!AL5*'USA Value Added'!AH4</f>
+        <f>'BObIC-state base'!AH6</f>
         <v/>
       </c>
       <c r="AI2">
-        <f>'BObIC-state base'!AI2*'USA Ratio Output - Value Added'!AM5*'USA Value Added'!AI4</f>
+        <f>'BObIC-state base'!AI6</f>
         <v/>
       </c>
       <c r="AJ2">
-        <f>'BObIC-state base'!AJ2*'USA Ratio Output - Value Added'!AN5*'USA Value Added'!AJ4</f>
+        <f>'BObIC-state base'!AJ6</f>
         <v/>
       </c>
       <c r="AK2">
-        <f>'BObIC-state base'!AK2*'USA Ratio Output - Value Added'!AO5*'USA Value Added'!AK4</f>
+        <f>'BObIC-state base'!AK6</f>
         <v/>
       </c>
       <c r="AL2">
-        <f>'BObIC-state base'!AL2*'USA Ratio Output - Value Added'!AP5*'USA Value Added'!AL4</f>
+        <f>'BObIC-state base'!AL6</f>
         <v/>
       </c>
       <c r="AM2">
-        <f>'BObIC-state base'!AM2*'USA Ratio Output - Value Added'!AQ5*'USA Value Added'!AM4</f>
+        <f>'BObIC-state base'!AM6</f>
         <v/>
       </c>
       <c r="AN2">
-        <f>'BObIC-state base'!AN2*'USA Ratio Output - Value Added'!AR5*'USA Value Added'!AN4</f>
+        <f>'BObIC-state base'!AN6</f>
         <v/>
       </c>
       <c r="AO2">
-        <f>'BObIC-state base'!AO2*'USA Ratio Output - Value Added'!AS5*'USA Value Added'!AO4</f>
+        <f>'BObIC-state base'!AO6</f>
         <v/>
       </c>
       <c r="AP2">
-        <f>'BObIC-state base'!AP2*'USA Ratio Output - Value Added'!AT5*'USA Value Added'!AP4</f>
+        <f>'BObIC-state base'!AP6</f>
         <v/>
       </c>
       <c r="AQ2">
-        <f>'BObIC-state base'!AQ2*'USA Ratio Output - Value Added'!AU5*'USA Value Added'!AQ4</f>
+        <f>'BObIC-state base'!AQ6</f>
         <v/>
       </c>
     </row>
@@ -1796,7 +1860,7 @@
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.90625" defaultRowHeight="14.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -2812,15 +2876,15 @@
   <dimension ref="A1:Z206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
-    <col width="5.6640625" customWidth="1" min="1" max="1"/>
-    <col width="50.6640625" customWidth="1" min="2" max="2"/>
-    <col width="10.6640625" customWidth="1" min="3" max="3"/>
-    <col width="10.1640625" bestFit="1" customWidth="1" min="4" max="26"/>
+    <col width="5.6796875" customWidth="1" style="52" min="1" max="1"/>
+    <col width="50.6796875" customWidth="1" style="52" min="2" max="2"/>
+    <col width="10.6796875" customWidth="1" style="52" min="3" max="3"/>
+    <col width="10.1796875" bestFit="1" customWidth="1" style="52" min="4" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -18541,74 +18605,74 @@
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.90625" defaultRowHeight="14.75"/>
   <cols>
-    <col width="13.6640625" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="13.6796875" bestFit="1" customWidth="1" style="52" min="21" max="21"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customFormat="1" customHeight="1" s="54">
-      <c r="A1" s="53" t="inlineStr">
+    <row r="1" ht="16" customFormat="1" customHeight="1" s="58">
+      <c r="A1" s="57" t="inlineStr">
         <is>
           <t>2018 County Business Patterns &amp; Nonemployer Statistics Combined Report</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="16" customFormat="1" customHeight="1" s="54">
-      <c r="A2" s="55" t="inlineStr">
+    <row r="2" ht="16" customFormat="1" customHeight="1" s="58">
+      <c r="A2" s="59" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
-    <row r="3" ht="11" customFormat="1" customHeight="1" s="54">
-      <c r="A3" s="56" t="inlineStr">
+    <row r="3" ht="11" customFormat="1" customHeight="1" s="58">
+      <c r="A3" s="60" t="inlineStr">
         <is>
           <t>SOURCE: 2018 County Business Patterns and 2018 Nonemployer Statistics.  For information, see https://www.census.gov/programs-surveys/cbp/technical-documentation/methodology.html and https://www.census.gov/programs-surveys/nonemployer-statistics/technical-documentation/methodology.html.</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="11" customFormat="1" customHeight="1" s="54">
-      <c r="A4" s="56" t="inlineStr">
+    <row r="4" ht="11" customFormat="1" customHeight="1" s="58">
+      <c r="A4" s="60" t="inlineStr">
         <is>
           <t>The Census Bureau has reviewed this data product for unauthorized disclosure of confidential information and has approved thedisclosure avoidance practices applied (Approval ID: CBDRB-FY20-261 and CBDRB-FY20-246).</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="10" customFormat="1" customHeight="1" s="54"/>
-    <row r="6" customFormat="1" s="54">
-      <c r="A6" s="57" t="n"/>
-      <c r="B6" s="58" t="n"/>
-      <c r="C6" s="58" t="n"/>
-      <c r="D6" s="58" t="n"/>
-      <c r="E6" s="58" t="n"/>
-      <c r="F6" s="59" t="n"/>
-      <c r="G6" s="57" t="inlineStr">
+    <row r="5" ht="10" customFormat="1" customHeight="1" s="58"/>
+    <row r="6" customFormat="1" s="58">
+      <c r="A6" s="61" t="n"/>
+      <c r="B6" s="62" t="n"/>
+      <c r="C6" s="62" t="n"/>
+      <c r="D6" s="62" t="n"/>
+      <c r="E6" s="62" t="n"/>
+      <c r="F6" s="63" t="n"/>
+      <c r="G6" s="61" t="inlineStr">
         <is>
           <t>2018 COMBINED ESTABLISHMENT DATA</t>
         </is>
       </c>
-      <c r="H6" s="58" t="n"/>
-      <c r="I6" s="59" t="n"/>
-      <c r="J6" s="57" t="inlineStr">
+      <c r="H6" s="62" t="n"/>
+      <c r="I6" s="63" t="n"/>
+      <c r="J6" s="61" t="inlineStr">
         <is>
           <t>2018 COUNTY BUSINESS PATTERNS (CBP) DATA</t>
         </is>
       </c>
-      <c r="K6" s="58" t="n"/>
-      <c r="L6" s="58" t="n"/>
-      <c r="M6" s="58" t="n"/>
-      <c r="N6" s="58" t="n"/>
-      <c r="O6" s="58" t="n"/>
-      <c r="P6" s="59" t="n"/>
-      <c r="Q6" s="57" t="inlineStr">
+      <c r="K6" s="62" t="n"/>
+      <c r="L6" s="62" t="n"/>
+      <c r="M6" s="62" t="n"/>
+      <c r="N6" s="62" t="n"/>
+      <c r="O6" s="62" t="n"/>
+      <c r="P6" s="63" t="n"/>
+      <c r="Q6" s="61" t="inlineStr">
         <is>
           <t>2018 NONEMPLOYER STATISTICS (NES) DATA</t>
         </is>
       </c>
-      <c r="R6" s="58" t="n"/>
-      <c r="S6" s="59" t="n"/>
-    </row>
-    <row r="7" ht="64" customFormat="1" customHeight="1" s="54">
+      <c r="R6" s="62" t="n"/>
+      <c r="S6" s="63" t="n"/>
+    </row>
+    <row r="7" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A7" s="41" t="inlineStr">
         <is>
           <t>State FIPS</t>
@@ -18705,7 +18769,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="8" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A8" s="41" t="n">
         <v>0</v>
       </c>
@@ -18780,7 +18844,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="9" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A9" s="41" t="n">
         <v>0</v>
       </c>
@@ -18855,7 +18919,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="10" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A10" s="41" t="n">
         <v>0</v>
       </c>
@@ -18930,7 +18994,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="11" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A11" s="41" t="n">
         <v>0</v>
       </c>
@@ -19015,7 +19079,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="96" customFormat="1" customHeight="1" s="54">
+    <row r="12" ht="96" customFormat="1" customHeight="1" s="58">
       <c r="A12" s="41" t="n">
         <v>0</v>
       </c>
@@ -19100,7 +19164,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="13" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A13" s="41" t="n">
         <v>0</v>
       </c>
@@ -19185,7 +19249,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="14" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A14" s="41" t="n">
         <v>0</v>
       </c>
@@ -19260,7 +19324,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="15" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A15" s="41" t="n">
         <v>0</v>
       </c>
@@ -19335,7 +19399,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="16" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A16" s="41" t="n">
         <v>0</v>
       </c>
@@ -19410,7 +19474,7 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="17" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A17" s="41" t="n">
         <v>0</v>
       </c>
@@ -19485,7 +19549,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="18" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A18" s="41" t="n">
         <v>0</v>
       </c>
@@ -19560,7 +19624,7 @@
         </is>
       </c>
     </row>
-    <row r="19" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="19" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A19" s="41" t="n">
         <v>0</v>
       </c>
@@ -19635,7 +19699,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="20" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A20" s="41" t="n">
         <v>0</v>
       </c>
@@ -19710,7 +19774,7 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="21" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A21" s="41" t="n">
         <v>0</v>
       </c>
@@ -19785,7 +19849,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="22" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A22" s="41" t="n">
         <v>0</v>
       </c>
@@ -19860,7 +19924,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="23" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A23" s="41" t="n">
         <v>0</v>
       </c>
@@ -19935,7 +19999,7 @@
         </is>
       </c>
     </row>
-    <row r="24" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="24" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A24" s="41" t="n">
         <v>0</v>
       </c>
@@ -20010,7 +20074,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="25" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A25" s="41" t="n">
         <v>0</v>
       </c>
@@ -20094,7 +20158,7 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="26" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A26" s="41" t="n">
         <v>0</v>
       </c>
@@ -20169,7 +20233,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="27" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A27" s="41" t="n">
         <v>0</v>
       </c>
@@ -20244,7 +20308,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="28" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A28" s="41" t="n">
         <v>0</v>
       </c>
@@ -20319,7 +20383,7 @@
         </is>
       </c>
     </row>
-    <row r="29" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="29" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A29" s="41" t="n">
         <v>0</v>
       </c>
@@ -20394,7 +20458,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="30" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A30" s="41" t="n">
         <v>0</v>
       </c>
@@ -20469,7 +20533,7 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="31" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A31" s="41" t="n">
         <v>0</v>
       </c>
@@ -20544,7 +20608,7 @@
         </is>
       </c>
     </row>
-    <row r="32" ht="96" customFormat="1" customHeight="1" s="54">
+    <row r="32" ht="96" customFormat="1" customHeight="1" s="58">
       <c r="A32" s="41" t="n">
         <v>0</v>
       </c>
@@ -20628,17 +20692,17 @@
           <t>N</t>
         </is>
       </c>
-      <c r="T32" s="54">
+      <c r="T32" s="58">
         <f>K32/$K$31</f>
         <v/>
       </c>
-      <c r="U32" s="54" t="inlineStr">
+      <c r="U32" s="58" t="inlineStr">
         <is>
           <t>Electric utilities</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="33" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A33" s="41" t="n">
         <v>0</v>
       </c>
@@ -20722,17 +20786,17 @@
           <t>N</t>
         </is>
       </c>
-      <c r="T33" s="54">
+      <c r="T33" s="58">
         <f>K33/$K$31</f>
         <v/>
       </c>
-      <c r="U33" s="54" t="inlineStr">
+      <c r="U33" s="58" t="inlineStr">
         <is>
           <t>Natural gas</t>
         </is>
       </c>
     </row>
-    <row r="34" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="34" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A34" s="41" t="n">
         <v>0</v>
       </c>
@@ -20816,17 +20880,17 @@
           <t>N</t>
         </is>
       </c>
-      <c r="T34" s="54">
+      <c r="T34" s="58">
         <f>K34/$K$31</f>
         <v/>
       </c>
-      <c r="U34" s="54" t="inlineStr">
+      <c r="U34" s="58" t="inlineStr">
         <is>
           <t>Water and sewage</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="35" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A35" s="41" t="n">
         <v>0</v>
       </c>
@@ -20901,7 +20965,7 @@
         </is>
       </c>
     </row>
-    <row r="36" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="36" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A36" s="41" t="n">
         <v>0</v>
       </c>
@@ -20976,7 +21040,7 @@
         </is>
       </c>
     </row>
-    <row r="37" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="37" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A37" s="41" t="n">
         <v>0</v>
       </c>
@@ -21051,7 +21115,7 @@
         </is>
       </c>
     </row>
-    <row r="38" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="38" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A38" s="41" t="n">
         <v>0</v>
       </c>
@@ -21126,7 +21190,7 @@
         </is>
       </c>
     </row>
-    <row r="39" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="39" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A39" s="41" t="n">
         <v>0</v>
       </c>
@@ -21201,7 +21265,7 @@
         </is>
       </c>
     </row>
-    <row r="40" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="40" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A40" s="41" t="n">
         <v>0</v>
       </c>
@@ -21276,7 +21340,7 @@
         </is>
       </c>
     </row>
-    <row r="41" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="41" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A41" s="41" t="n">
         <v>0</v>
       </c>
@@ -21351,7 +21415,7 @@
         </is>
       </c>
     </row>
-    <row r="42" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="42" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A42" s="41" t="n">
         <v>0</v>
       </c>
@@ -21426,7 +21490,7 @@
         </is>
       </c>
     </row>
-    <row r="43" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="43" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A43" s="41" t="n">
         <v>0</v>
       </c>
@@ -21501,7 +21565,7 @@
         </is>
       </c>
     </row>
-    <row r="44" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="44" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A44" s="41" t="n">
         <v>0</v>
       </c>
@@ -21576,7 +21640,7 @@
         </is>
       </c>
     </row>
-    <row r="45" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="45" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A45" s="41" t="n">
         <v>0</v>
       </c>
@@ -21651,7 +21715,7 @@
         </is>
       </c>
     </row>
-    <row r="46" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="46" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A46" s="41" t="n">
         <v>0</v>
       </c>
@@ -21726,7 +21790,7 @@
         </is>
       </c>
     </row>
-    <row r="47" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="47" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A47" s="41" t="n">
         <v>0</v>
       </c>
@@ -21801,7 +21865,7 @@
         </is>
       </c>
     </row>
-    <row r="48" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="48" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A48" s="41" t="n">
         <v>0</v>
       </c>
@@ -21876,7 +21940,7 @@
         </is>
       </c>
     </row>
-    <row r="49" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="49" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A49" s="41" t="n">
         <v>0</v>
       </c>
@@ -21953,7 +22017,7 @@
         </is>
       </c>
     </row>
-    <row r="50" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="50" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A50" s="41" t="n">
         <v>0</v>
       </c>
@@ -22028,7 +22092,7 @@
         </is>
       </c>
     </row>
-    <row r="51" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="51" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A51" s="41" t="n">
         <v>0</v>
       </c>
@@ -22103,7 +22167,7 @@
         </is>
       </c>
     </row>
-    <row r="52" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="52" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A52" s="41" t="n">
         <v>0</v>
       </c>
@@ -22178,7 +22242,7 @@
         </is>
       </c>
     </row>
-    <row r="53" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="53" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A53" s="41" t="n">
         <v>0</v>
       </c>
@@ -22253,7 +22317,7 @@
         </is>
       </c>
     </row>
-    <row r="54" ht="128" customFormat="1" customHeight="1" s="54">
+    <row r="54" ht="128" customFormat="1" customHeight="1" s="58">
       <c r="A54" s="41" t="n">
         <v>0</v>
       </c>
@@ -22328,7 +22392,7 @@
         </is>
       </c>
     </row>
-    <row r="55" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="55" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A55" s="41" t="n">
         <v>0</v>
       </c>
@@ -22403,7 +22467,7 @@
         </is>
       </c>
     </row>
-    <row r="56" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="56" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A56" s="41" t="n">
         <v>0</v>
       </c>
@@ -22478,7 +22542,7 @@
         </is>
       </c>
     </row>
-    <row r="57" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="57" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A57" s="41" t="n">
         <v>0</v>
       </c>
@@ -22553,7 +22617,7 @@
         </is>
       </c>
     </row>
-    <row r="58" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="58" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A58" s="41" t="n">
         <v>0</v>
       </c>
@@ -22628,7 +22692,7 @@
         </is>
       </c>
     </row>
-    <row r="59" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="59" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A59" s="41" t="n">
         <v>0</v>
       </c>
@@ -22703,7 +22767,7 @@
         </is>
       </c>
     </row>
-    <row r="60" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="60" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A60" s="41" t="n">
         <v>0</v>
       </c>
@@ -22778,7 +22842,7 @@
         </is>
       </c>
     </row>
-    <row r="61" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="61" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A61" s="41" t="n">
         <v>0</v>
       </c>
@@ -22863,7 +22927,7 @@
         </is>
       </c>
     </row>
-    <row r="62" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="62" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A62" s="41" t="n">
         <v>0</v>
       </c>
@@ -22948,7 +23012,7 @@
         </is>
       </c>
     </row>
-    <row r="63" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="63" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A63" s="41" t="n">
         <v>0</v>
       </c>
@@ -23023,7 +23087,7 @@
         </is>
       </c>
     </row>
-    <row r="64" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="64" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A64" s="41" t="n">
         <v>0</v>
       </c>
@@ -23108,7 +23172,7 @@
         </is>
       </c>
     </row>
-    <row r="65" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="65" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A65" s="41" t="n">
         <v>0</v>
       </c>
@@ -23193,7 +23257,7 @@
         </is>
       </c>
     </row>
-    <row r="66" ht="96" customFormat="1" customHeight="1" s="54">
+    <row r="66" ht="96" customFormat="1" customHeight="1" s="58">
       <c r="A66" s="41" t="n">
         <v>0</v>
       </c>
@@ -23278,7 +23342,7 @@
         </is>
       </c>
     </row>
-    <row r="67" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="67" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A67" s="41" t="n">
         <v>0</v>
       </c>
@@ -23353,7 +23417,7 @@
         </is>
       </c>
     </row>
-    <row r="68" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="68" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A68" s="41" t="n">
         <v>0</v>
       </c>
@@ -23438,7 +23502,7 @@
         </is>
       </c>
     </row>
-    <row r="69" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="69" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A69" s="41" t="n">
         <v>0</v>
       </c>
@@ -23523,7 +23587,7 @@
         </is>
       </c>
     </row>
-    <row r="70" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="70" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A70" s="41" t="n">
         <v>0</v>
       </c>
@@ -23598,7 +23662,7 @@
         </is>
       </c>
     </row>
-    <row r="71" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="71" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A71" s="41" t="n">
         <v>0</v>
       </c>
@@ -23683,7 +23747,7 @@
         </is>
       </c>
     </row>
-    <row r="72" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="72" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A72" s="41" t="n">
         <v>0</v>
       </c>
@@ -23768,7 +23832,7 @@
         </is>
       </c>
     </row>
-    <row r="73" ht="96" customFormat="1" customHeight="1" s="54">
+    <row r="73" ht="96" customFormat="1" customHeight="1" s="58">
       <c r="A73" s="41" t="n">
         <v>0</v>
       </c>
@@ -23853,7 +23917,7 @@
         </is>
       </c>
     </row>
-    <row r="74" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="74" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A74" s="41" t="n">
         <v>0</v>
       </c>
@@ -23928,7 +23992,7 @@
         </is>
       </c>
     </row>
-    <row r="75" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="75" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A75" s="41" t="n">
         <v>0</v>
       </c>
@@ -24003,7 +24067,7 @@
         </is>
       </c>
     </row>
-    <row r="76" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="76" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A76" s="41" t="n">
         <v>0</v>
       </c>
@@ -24078,7 +24142,7 @@
         </is>
       </c>
     </row>
-    <row r="77" ht="96" customFormat="1" customHeight="1" s="54">
+    <row r="77" ht="96" customFormat="1" customHeight="1" s="58">
       <c r="A77" s="41" t="n">
         <v>0</v>
       </c>
@@ -24153,7 +24217,7 @@
         </is>
       </c>
     </row>
-    <row r="78" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="78" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A78" s="41" t="n">
         <v>0</v>
       </c>
@@ -24228,7 +24292,7 @@
         </is>
       </c>
     </row>
-    <row r="79" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="79" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A79" s="41" t="n">
         <v>0</v>
       </c>
@@ -24313,7 +24377,7 @@
         </is>
       </c>
     </row>
-    <row r="80" ht="128" customFormat="1" customHeight="1" s="54">
+    <row r="80" ht="128" customFormat="1" customHeight="1" s="58">
       <c r="A80" s="41" t="n">
         <v>0</v>
       </c>
@@ -24398,7 +24462,7 @@
         </is>
       </c>
     </row>
-    <row r="81" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="81" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A81" s="41" t="n">
         <v>0</v>
       </c>
@@ -24483,7 +24547,7 @@
         </is>
       </c>
     </row>
-    <row r="82" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="82" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A82" s="41" t="n">
         <v>0</v>
       </c>
@@ -24558,7 +24622,7 @@
         </is>
       </c>
     </row>
-    <row r="83" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="83" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A83" s="41" t="n">
         <v>0</v>
       </c>
@@ -24643,7 +24707,7 @@
         </is>
       </c>
     </row>
-    <row r="84" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="84" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A84" s="41" t="n">
         <v>0</v>
       </c>
@@ -24728,7 +24792,7 @@
         </is>
       </c>
     </row>
-    <row r="85" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="85" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A85" s="41" t="n">
         <v>0</v>
       </c>
@@ -24803,7 +24867,7 @@
         </is>
       </c>
     </row>
-    <row r="86" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="86" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A86" s="41" t="n">
         <v>0</v>
       </c>
@@ -24878,7 +24942,7 @@
         </is>
       </c>
     </row>
-    <row r="87" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="87" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A87" s="41" t="n">
         <v>0</v>
       </c>
@@ -24953,7 +25017,7 @@
         </is>
       </c>
     </row>
-    <row r="88" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="88" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A88" s="41" t="n">
         <v>0</v>
       </c>
@@ -25028,7 +25092,7 @@
         </is>
       </c>
     </row>
-    <row r="89" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="89" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A89" s="41" t="n">
         <v>0</v>
       </c>
@@ -25103,7 +25167,7 @@
         </is>
       </c>
     </row>
-    <row r="90" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="90" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A90" s="41" t="n">
         <v>0</v>
       </c>
@@ -25178,7 +25242,7 @@
         </is>
       </c>
     </row>
-    <row r="91" ht="144" customFormat="1" customHeight="1" s="54">
+    <row r="91" ht="144" customFormat="1" customHeight="1" s="58">
       <c r="A91" s="41" t="n">
         <v>0</v>
       </c>
@@ -25253,7 +25317,7 @@
         </is>
       </c>
     </row>
-    <row r="92" ht="112" customFormat="1" customHeight="1" s="54">
+    <row r="92" ht="112" customFormat="1" customHeight="1" s="58">
       <c r="A92" s="41" t="n">
         <v>0</v>
       </c>
@@ -25328,7 +25392,7 @@
         </is>
       </c>
     </row>
-    <row r="93" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="93" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A93" s="41" t="n">
         <v>0</v>
       </c>
@@ -25412,7 +25476,7 @@
         </is>
       </c>
     </row>
-    <row r="94" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="94" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A94" s="41" t="n">
         <v>0</v>
       </c>
@@ -25487,7 +25551,7 @@
         </is>
       </c>
     </row>
-    <row r="95" ht="112" customFormat="1" customHeight="1" s="54">
+    <row r="95" ht="112" customFormat="1" customHeight="1" s="58">
       <c r="A95" s="41" t="n">
         <v>0</v>
       </c>
@@ -25562,7 +25626,7 @@
         </is>
       </c>
     </row>
-    <row r="96" ht="96" customFormat="1" customHeight="1" s="54">
+    <row r="96" ht="96" customFormat="1" customHeight="1" s="58">
       <c r="A96" s="41" t="n">
         <v>0</v>
       </c>
@@ -25637,7 +25701,7 @@
         </is>
       </c>
     </row>
-    <row r="97" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="97" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A97" s="41" t="n">
         <v>0</v>
       </c>
@@ -25712,7 +25776,7 @@
         </is>
       </c>
     </row>
-    <row r="98" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="98" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A98" s="41" t="n">
         <v>0</v>
       </c>
@@ -25797,7 +25861,7 @@
         </is>
       </c>
     </row>
-    <row r="99" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="99" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A99" s="41" t="n">
         <v>0</v>
       </c>
@@ -25882,7 +25946,7 @@
         </is>
       </c>
     </row>
-    <row r="100" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="100" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A100" s="41" t="n">
         <v>0</v>
       </c>
@@ -25957,7 +26021,7 @@
         </is>
       </c>
     </row>
-    <row r="101" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="101" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A101" s="41" t="n">
         <v>0</v>
       </c>
@@ -26032,7 +26096,7 @@
         </is>
       </c>
     </row>
-    <row r="102" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="102" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A102" s="41" t="n">
         <v>0</v>
       </c>
@@ -26116,7 +26180,7 @@
         </is>
       </c>
     </row>
-    <row r="103" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="103" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A103" s="41" t="n">
         <v>0</v>
       </c>
@@ -26191,7 +26255,7 @@
         </is>
       </c>
     </row>
-    <row r="104" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="104" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A104" s="41" t="n">
         <v>0</v>
       </c>
@@ -26266,7 +26330,7 @@
         </is>
       </c>
     </row>
-    <row r="105" ht="96" customFormat="1" customHeight="1" s="54">
+    <row r="105" ht="96" customFormat="1" customHeight="1" s="58">
       <c r="A105" s="41" t="n">
         <v>0</v>
       </c>
@@ -26341,7 +26405,7 @@
         </is>
       </c>
     </row>
-    <row r="106" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="106" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A106" s="41" t="n">
         <v>0</v>
       </c>
@@ -26416,7 +26480,7 @@
         </is>
       </c>
     </row>
-    <row r="107" ht="96" customFormat="1" customHeight="1" s="54">
+    <row r="107" ht="96" customFormat="1" customHeight="1" s="58">
       <c r="A107" s="41" t="n">
         <v>0</v>
       </c>
@@ -26510,7 +26574,7 @@
         </is>
       </c>
     </row>
-    <row r="108" ht="96" customFormat="1" customHeight="1" s="54">
+    <row r="108" ht="96" customFormat="1" customHeight="1" s="58">
       <c r="A108" s="41" t="n">
         <v>0</v>
       </c>
@@ -26595,7 +26659,7 @@
         </is>
       </c>
     </row>
-    <row r="109" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="109" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A109" s="41" t="n">
         <v>0</v>
       </c>
@@ -26680,7 +26744,7 @@
         </is>
       </c>
     </row>
-    <row r="110" ht="112" customFormat="1" customHeight="1" s="54">
+    <row r="110" ht="112" customFormat="1" customHeight="1" s="58">
       <c r="A110" s="41" t="n">
         <v>0</v>
       </c>
@@ -26765,7 +26829,7 @@
         </is>
       </c>
     </row>
-    <row r="111" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="111" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A111" s="41" t="n">
         <v>0</v>
       </c>
@@ -26850,7 +26914,7 @@
         </is>
       </c>
     </row>
-    <row r="112" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="112" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A112" s="41" t="n">
         <v>0</v>
       </c>
@@ -26925,7 +26989,7 @@
         </is>
       </c>
     </row>
-    <row r="113" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="113" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A113" s="41" t="n">
         <v>0</v>
       </c>
@@ -27010,7 +27074,7 @@
         </is>
       </c>
     </row>
-    <row r="114" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="114" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A114" s="41" t="n">
         <v>0</v>
       </c>
@@ -27095,7 +27159,7 @@
         </is>
       </c>
     </row>
-    <row r="115" ht="96" customFormat="1" customHeight="1" s="54">
+    <row r="115" ht="96" customFormat="1" customHeight="1" s="58">
       <c r="A115" s="41" t="n">
         <v>0</v>
       </c>
@@ -27180,7 +27244,7 @@
         </is>
       </c>
     </row>
-    <row r="116" ht="96" customFormat="1" customHeight="1" s="54">
+    <row r="116" ht="96" customFormat="1" customHeight="1" s="58">
       <c r="A116" s="41" t="n">
         <v>0</v>
       </c>
@@ -27265,7 +27329,7 @@
         </is>
       </c>
     </row>
-    <row r="117" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="117" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A117" s="41" t="n">
         <v>0</v>
       </c>
@@ -27350,7 +27414,7 @@
         </is>
       </c>
     </row>
-    <row r="118" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="118" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A118" s="41" t="n">
         <v>0</v>
       </c>
@@ -27435,7 +27499,7 @@
         </is>
       </c>
     </row>
-    <row r="119" ht="144" customFormat="1" customHeight="1" s="54">
+    <row r="119" ht="144" customFormat="1" customHeight="1" s="58">
       <c r="A119" s="41" t="n">
         <v>0</v>
       </c>
@@ -27520,7 +27584,7 @@
         </is>
       </c>
     </row>
-    <row r="120" ht="96" customFormat="1" customHeight="1" s="54">
+    <row r="120" ht="96" customFormat="1" customHeight="1" s="58">
       <c r="A120" s="41" t="n">
         <v>0</v>
       </c>
@@ -27605,7 +27669,7 @@
         </is>
       </c>
     </row>
-    <row r="121" ht="96" customFormat="1" customHeight="1" s="54">
+    <row r="121" ht="96" customFormat="1" customHeight="1" s="58">
       <c r="A121" s="41" t="n">
         <v>0</v>
       </c>
@@ -27690,7 +27754,7 @@
         </is>
       </c>
     </row>
-    <row r="122" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="122" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A122" s="41" t="n">
         <v>0</v>
       </c>
@@ -27765,7 +27829,7 @@
         </is>
       </c>
     </row>
-    <row r="123" ht="112" customFormat="1" customHeight="1" s="54">
+    <row r="123" ht="112" customFormat="1" customHeight="1" s="58">
       <c r="A123" s="41" t="n">
         <v>0</v>
       </c>
@@ -27850,7 +27914,7 @@
         </is>
       </c>
     </row>
-    <row r="124" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="124" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A124" s="41" t="n">
         <v>0</v>
       </c>
@@ -27935,7 +27999,7 @@
         </is>
       </c>
     </row>
-    <row r="125" ht="96" customFormat="1" customHeight="1" s="54">
+    <row r="125" ht="96" customFormat="1" customHeight="1" s="58">
       <c r="A125" s="41" t="n">
         <v>0</v>
       </c>
@@ -28020,7 +28084,7 @@
         </is>
       </c>
     </row>
-    <row r="126" ht="144" customFormat="1" customHeight="1" s="54">
+    <row r="126" ht="144" customFormat="1" customHeight="1" s="58">
       <c r="A126" s="41" t="n">
         <v>0</v>
       </c>
@@ -28105,7 +28169,7 @@
         </is>
       </c>
     </row>
-    <row r="127" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="127" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A127" s="41" t="n">
         <v>0</v>
       </c>
@@ -28190,7 +28254,7 @@
         </is>
       </c>
     </row>
-    <row r="128" ht="112" customFormat="1" customHeight="1" s="54">
+    <row r="128" ht="112" customFormat="1" customHeight="1" s="58">
       <c r="A128" s="41" t="n">
         <v>0</v>
       </c>
@@ -28275,7 +28339,7 @@
         </is>
       </c>
     </row>
-    <row r="129" ht="96" customFormat="1" customHeight="1" s="54">
+    <row r="129" ht="96" customFormat="1" customHeight="1" s="58">
       <c r="A129" s="41" t="n">
         <v>0</v>
       </c>
@@ -28360,7 +28424,7 @@
         </is>
       </c>
     </row>
-    <row r="130" ht="96" customFormat="1" customHeight="1" s="54">
+    <row r="130" ht="96" customFormat="1" customHeight="1" s="58">
       <c r="A130" s="41" t="n">
         <v>0</v>
       </c>
@@ -28435,7 +28499,7 @@
         </is>
       </c>
     </row>
-    <row r="131" ht="96" customFormat="1" customHeight="1" s="54">
+    <row r="131" ht="96" customFormat="1" customHeight="1" s="58">
       <c r="A131" s="41" t="n">
         <v>0</v>
       </c>
@@ -28520,7 +28584,7 @@
         </is>
       </c>
     </row>
-    <row r="132" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="132" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A132" s="41" t="n">
         <v>0</v>
       </c>
@@ -28605,7 +28669,7 @@
         </is>
       </c>
     </row>
-    <row r="133" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="133" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A133" s="41" t="n">
         <v>0</v>
       </c>
@@ -28690,7 +28754,7 @@
         </is>
       </c>
     </row>
-    <row r="134" ht="112" customFormat="1" customHeight="1" s="54">
+    <row r="134" ht="112" customFormat="1" customHeight="1" s="58">
       <c r="A134" s="41" t="n">
         <v>0</v>
       </c>
@@ -28775,7 +28839,7 @@
         </is>
       </c>
     </row>
-    <row r="135" ht="128" customFormat="1" customHeight="1" s="54">
+    <row r="135" ht="128" customFormat="1" customHeight="1" s="58">
       <c r="A135" s="41" t="n">
         <v>0</v>
       </c>
@@ -28860,7 +28924,7 @@
         </is>
       </c>
     </row>
-    <row r="136" ht="96" customFormat="1" customHeight="1" s="54">
+    <row r="136" ht="96" customFormat="1" customHeight="1" s="58">
       <c r="A136" s="41" t="n">
         <v>0</v>
       </c>
@@ -28945,7 +29009,7 @@
         </is>
       </c>
     </row>
-    <row r="137" ht="112" customFormat="1" customHeight="1" s="54">
+    <row r="137" ht="112" customFormat="1" customHeight="1" s="58">
       <c r="A137" s="41" t="n">
         <v>0</v>
       </c>
@@ -29020,7 +29084,7 @@
         </is>
       </c>
     </row>
-    <row r="138" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="138" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A138" s="41" t="n">
         <v>0</v>
       </c>
@@ -29105,7 +29169,7 @@
         </is>
       </c>
     </row>
-    <row r="139" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="139" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A139" s="41" t="n">
         <v>0</v>
       </c>
@@ -29190,7 +29254,7 @@
         </is>
       </c>
     </row>
-    <row r="140" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="140" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A140" s="41" t="n">
         <v>0</v>
       </c>
@@ -29275,7 +29339,7 @@
         </is>
       </c>
     </row>
-    <row r="141" ht="112" customFormat="1" customHeight="1" s="54">
+    <row r="141" ht="112" customFormat="1" customHeight="1" s="58">
       <c r="A141" s="41" t="n">
         <v>0</v>
       </c>
@@ -29360,7 +29424,7 @@
         </is>
       </c>
     </row>
-    <row r="142" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="142" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A142" s="41" t="n">
         <v>0</v>
       </c>
@@ -29435,7 +29499,7 @@
         </is>
       </c>
     </row>
-    <row r="143" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="143" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A143" s="41" t="n">
         <v>0</v>
       </c>
@@ -29520,7 +29584,7 @@
         </is>
       </c>
     </row>
-    <row r="144" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="144" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A144" s="41" t="n">
         <v>0</v>
       </c>
@@ -29605,7 +29669,7 @@
         </is>
       </c>
     </row>
-    <row r="145" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="145" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A145" s="41" t="n">
         <v>0</v>
       </c>
@@ -29690,7 +29754,7 @@
         </is>
       </c>
     </row>
-    <row r="146" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="146" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A146" s="41" t="n">
         <v>0</v>
       </c>
@@ -29775,7 +29839,7 @@
         </is>
       </c>
     </row>
-    <row r="147" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="147" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A147" s="41" t="n">
         <v>0</v>
       </c>
@@ -29860,7 +29924,7 @@
         </is>
       </c>
     </row>
-    <row r="148" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="148" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A148" s="41" t="n">
         <v>0</v>
       </c>
@@ -29945,7 +30009,7 @@
         </is>
       </c>
     </row>
-    <row r="149" ht="96" customFormat="1" customHeight="1" s="54">
+    <row r="149" ht="96" customFormat="1" customHeight="1" s="58">
       <c r="A149" s="41" t="n">
         <v>0</v>
       </c>
@@ -30030,7 +30094,7 @@
         </is>
       </c>
     </row>
-    <row r="150" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="150" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A150" s="41" t="n">
         <v>0</v>
       </c>
@@ -30105,7 +30169,7 @@
         </is>
       </c>
     </row>
-    <row r="151" ht="128" customFormat="1" customHeight="1" s="54">
+    <row r="151" ht="128" customFormat="1" customHeight="1" s="58">
       <c r="A151" s="41" t="n">
         <v>0</v>
       </c>
@@ -30190,7 +30254,7 @@
         </is>
       </c>
     </row>
-    <row r="152" ht="96" customFormat="1" customHeight="1" s="54">
+    <row r="152" ht="96" customFormat="1" customHeight="1" s="58">
       <c r="A152" s="41" t="n">
         <v>0</v>
       </c>
@@ -30275,7 +30339,7 @@
         </is>
       </c>
     </row>
-    <row r="153" ht="96" customFormat="1" customHeight="1" s="54">
+    <row r="153" ht="96" customFormat="1" customHeight="1" s="58">
       <c r="A153" s="41" t="n">
         <v>0</v>
       </c>
@@ -30360,7 +30424,7 @@
         </is>
       </c>
     </row>
-    <row r="154" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="154" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A154" s="41" t="n">
         <v>0</v>
       </c>
@@ -30435,7 +30499,7 @@
         </is>
       </c>
     </row>
-    <row r="155" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="155" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A155" s="41" t="n">
         <v>0</v>
       </c>
@@ -30510,7 +30574,7 @@
         </is>
       </c>
     </row>
-    <row r="156" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="156" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A156" s="41" t="n">
         <v>0</v>
       </c>
@@ -30585,7 +30649,7 @@
         </is>
       </c>
     </row>
-    <row r="157" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="157" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A157" s="41" t="n">
         <v>0</v>
       </c>
@@ -30660,7 +30724,7 @@
         </is>
       </c>
     </row>
-    <row r="158" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="158" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A158" s="41" t="n">
         <v>0</v>
       </c>
@@ -30735,7 +30799,7 @@
         </is>
       </c>
     </row>
-    <row r="159" ht="112" customFormat="1" customHeight="1" s="54">
+    <row r="159" ht="112" customFormat="1" customHeight="1" s="58">
       <c r="A159" s="41" t="n">
         <v>0</v>
       </c>
@@ -30810,7 +30874,7 @@
         </is>
       </c>
     </row>
-    <row r="160" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="160" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A160" s="41" t="n">
         <v>0</v>
       </c>
@@ -30885,7 +30949,7 @@
         </is>
       </c>
     </row>
-    <row r="161" ht="96" customFormat="1" customHeight="1" s="54">
+    <row r="161" ht="96" customFormat="1" customHeight="1" s="58">
       <c r="A161" s="41" t="n">
         <v>0</v>
       </c>
@@ -30960,7 +31024,7 @@
         </is>
       </c>
     </row>
-    <row r="162" ht="112" customFormat="1" customHeight="1" s="54">
+    <row r="162" ht="112" customFormat="1" customHeight="1" s="58">
       <c r="A162" s="41" t="n">
         <v>0</v>
       </c>
@@ -31035,7 +31099,7 @@
         </is>
       </c>
     </row>
-    <row r="163" ht="96" customFormat="1" customHeight="1" s="54">
+    <row r="163" ht="96" customFormat="1" customHeight="1" s="58">
       <c r="A163" s="41" t="n">
         <v>0</v>
       </c>
@@ -31110,7 +31174,7 @@
         </is>
       </c>
     </row>
-    <row r="164" ht="144" customFormat="1" customHeight="1" s="54">
+    <row r="164" ht="144" customFormat="1" customHeight="1" s="58">
       <c r="A164" s="41" t="n">
         <v>0</v>
       </c>
@@ -31185,7 +31249,7 @@
         </is>
       </c>
     </row>
-    <row r="165" ht="128" customFormat="1" customHeight="1" s="54">
+    <row r="165" ht="128" customFormat="1" customHeight="1" s="58">
       <c r="A165" s="41" t="n">
         <v>0</v>
       </c>
@@ -31260,7 +31324,7 @@
         </is>
       </c>
     </row>
-    <row r="166" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="166" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A166" s="41" t="n">
         <v>0</v>
       </c>
@@ -31335,7 +31399,7 @@
         </is>
       </c>
     </row>
-    <row r="167" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="167" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A167" s="41" t="n">
         <v>0</v>
       </c>
@@ -31410,7 +31474,7 @@
         </is>
       </c>
     </row>
-    <row r="168" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="168" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A168" s="41" t="n">
         <v>0</v>
       </c>
@@ -31485,7 +31549,7 @@
         </is>
       </c>
     </row>
-    <row r="169" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="169" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A169" s="41" t="n">
         <v>0</v>
       </c>
@@ -31560,7 +31624,7 @@
         </is>
       </c>
     </row>
-    <row r="170" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="170" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A170" s="41" t="n">
         <v>0</v>
       </c>
@@ -31635,7 +31699,7 @@
         </is>
       </c>
     </row>
-    <row r="171" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="171" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A171" s="41" t="n">
         <v>0</v>
       </c>
@@ -31710,7 +31774,7 @@
         </is>
       </c>
     </row>
-    <row r="172" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="172" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A172" s="41" t="n">
         <v>0</v>
       </c>
@@ -31785,7 +31849,7 @@
         </is>
       </c>
     </row>
-    <row r="173" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="173" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A173" s="41" t="n">
         <v>0</v>
       </c>
@@ -31860,7 +31924,7 @@
         </is>
       </c>
     </row>
-    <row r="174" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="174" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A174" s="41" t="n">
         <v>0</v>
       </c>
@@ -31935,7 +31999,7 @@
         </is>
       </c>
     </row>
-    <row r="175" ht="96" customFormat="1" customHeight="1" s="54">
+    <row r="175" ht="96" customFormat="1" customHeight="1" s="58">
       <c r="A175" s="41" t="n">
         <v>0</v>
       </c>
@@ -32010,7 +32074,7 @@
         </is>
       </c>
     </row>
-    <row r="176" ht="96" customFormat="1" customHeight="1" s="54">
+    <row r="176" ht="96" customFormat="1" customHeight="1" s="58">
       <c r="A176" s="41" t="n">
         <v>0</v>
       </c>
@@ -32085,7 +32149,7 @@
         </is>
       </c>
     </row>
-    <row r="177" ht="96" customFormat="1" customHeight="1" s="54">
+    <row r="177" ht="96" customFormat="1" customHeight="1" s="58">
       <c r="A177" s="41" t="n">
         <v>0</v>
       </c>
@@ -32160,7 +32224,7 @@
         </is>
       </c>
     </row>
-    <row r="178" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="178" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A178" s="41" t="n">
         <v>0</v>
       </c>
@@ -32235,7 +32299,7 @@
         </is>
       </c>
     </row>
-    <row r="179" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="179" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A179" s="41" t="n">
         <v>0</v>
       </c>
@@ -32310,7 +32374,7 @@
         </is>
       </c>
     </row>
-    <row r="180" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="180" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A180" s="41" t="n">
         <v>0</v>
       </c>
@@ -32387,7 +32451,7 @@
         </is>
       </c>
     </row>
-    <row r="181" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="181" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A181" s="41" t="n">
         <v>0</v>
       </c>
@@ -32462,7 +32526,7 @@
         </is>
       </c>
     </row>
-    <row r="182" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="182" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A182" s="41" t="n">
         <v>0</v>
       </c>
@@ -32537,7 +32601,7 @@
         </is>
       </c>
     </row>
-    <row r="183" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="183" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A183" s="41" t="n">
         <v>0</v>
       </c>
@@ -32612,7 +32676,7 @@
         </is>
       </c>
     </row>
-    <row r="184" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="184" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A184" s="41" t="n">
         <v>0</v>
       </c>
@@ -32687,7 +32751,7 @@
         </is>
       </c>
     </row>
-    <row r="185" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="185" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A185" s="41" t="n">
         <v>0</v>
       </c>
@@ -32762,7 +32826,7 @@
         </is>
       </c>
     </row>
-    <row r="186" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="186" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A186" s="41" t="n">
         <v>0</v>
       </c>
@@ -32837,7 +32901,7 @@
         </is>
       </c>
     </row>
-    <row r="187" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="187" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A187" s="41" t="n">
         <v>0</v>
       </c>
@@ -32912,7 +32976,7 @@
         </is>
       </c>
     </row>
-    <row r="188" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="188" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A188" s="41" t="n">
         <v>0</v>
       </c>
@@ -32987,7 +33051,7 @@
         </is>
       </c>
     </row>
-    <row r="189" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="189" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A189" s="41" t="n">
         <v>0</v>
       </c>
@@ -33062,7 +33126,7 @@
         </is>
       </c>
     </row>
-    <row r="190" ht="96" customFormat="1" customHeight="1" s="54">
+    <row r="190" ht="96" customFormat="1" customHeight="1" s="58">
       <c r="A190" s="41" t="n">
         <v>0</v>
       </c>
@@ -33137,7 +33201,7 @@
         </is>
       </c>
     </row>
-    <row r="191" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="191" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A191" s="41" t="n">
         <v>0</v>
       </c>
@@ -33212,7 +33276,7 @@
         </is>
       </c>
     </row>
-    <row r="192" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="192" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A192" s="41" t="n">
         <v>0</v>
       </c>
@@ -33287,7 +33351,7 @@
         </is>
       </c>
     </row>
-    <row r="193" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="193" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A193" s="41" t="n">
         <v>0</v>
       </c>
@@ -33362,7 +33426,7 @@
         </is>
       </c>
     </row>
-    <row r="194" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="194" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A194" s="41" t="n">
         <v>0</v>
       </c>
@@ -33437,7 +33501,7 @@
         </is>
       </c>
     </row>
-    <row r="195" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="195" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A195" s="41" t="n">
         <v>0</v>
       </c>
@@ -33512,7 +33576,7 @@
         </is>
       </c>
     </row>
-    <row r="196" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="196" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A196" s="41" t="n">
         <v>0</v>
       </c>
@@ -33587,7 +33651,7 @@
         </is>
       </c>
     </row>
-    <row r="197" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="197" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A197" s="41" t="n">
         <v>0</v>
       </c>
@@ -33662,7 +33726,7 @@
         </is>
       </c>
     </row>
-    <row r="198" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="198" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A198" s="41" t="n">
         <v>0</v>
       </c>
@@ -33737,7 +33801,7 @@
         </is>
       </c>
     </row>
-    <row r="199" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="199" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A199" s="41" t="n">
         <v>0</v>
       </c>
@@ -33812,7 +33876,7 @@
         </is>
       </c>
     </row>
-    <row r="200" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="200" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A200" s="41" t="n">
         <v>0</v>
       </c>
@@ -33887,7 +33951,7 @@
         </is>
       </c>
     </row>
-    <row r="201" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="201" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A201" s="41" t="n">
         <v>0</v>
       </c>
@@ -33962,7 +34026,7 @@
         </is>
       </c>
     </row>
-    <row r="202" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="202" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A202" s="41" t="n">
         <v>0</v>
       </c>
@@ -34037,7 +34101,7 @@
         </is>
       </c>
     </row>
-    <row r="203" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="203" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A203" s="41" t="n">
         <v>0</v>
       </c>
@@ -34112,7 +34176,7 @@
         </is>
       </c>
     </row>
-    <row r="204" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="204" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A204" s="41" t="n">
         <v>0</v>
       </c>
@@ -34187,7 +34251,7 @@
         </is>
       </c>
     </row>
-    <row r="205" ht="112" customFormat="1" customHeight="1" s="54">
+    <row r="205" ht="112" customFormat="1" customHeight="1" s="58">
       <c r="A205" s="41" t="n">
         <v>0</v>
       </c>
@@ -34262,7 +34326,7 @@
         </is>
       </c>
     </row>
-    <row r="206" ht="96" customFormat="1" customHeight="1" s="54">
+    <row r="206" ht="96" customFormat="1" customHeight="1" s="58">
       <c r="A206" s="41" t="n">
         <v>0</v>
       </c>
@@ -34337,7 +34401,7 @@
         </is>
       </c>
     </row>
-    <row r="207" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="207" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A207" s="41" t="n">
         <v>0</v>
       </c>
@@ -34412,7 +34476,7 @@
         </is>
       </c>
     </row>
-    <row r="208" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="208" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A208" s="41" t="n">
         <v>0</v>
       </c>
@@ -34487,7 +34551,7 @@
         </is>
       </c>
     </row>
-    <row r="209" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="209" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A209" s="41" t="n">
         <v>0</v>
       </c>
@@ -34572,7 +34636,7 @@
         </is>
       </c>
     </row>
-    <row r="210" ht="128" customFormat="1" customHeight="1" s="54">
+    <row r="210" ht="128" customFormat="1" customHeight="1" s="58">
       <c r="A210" s="41" t="n">
         <v>0</v>
       </c>
@@ -34657,7 +34721,7 @@
         </is>
       </c>
     </row>
-    <row r="211" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="211" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A211" s="41" t="n">
         <v>0</v>
       </c>
@@ -34732,7 +34796,7 @@
         </is>
       </c>
     </row>
-    <row r="212" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="212" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A212" s="41" t="n">
         <v>0</v>
       </c>
@@ -34807,7 +34871,7 @@
         </is>
       </c>
     </row>
-    <row r="213" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="213" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A213" s="41" t="n">
         <v>0</v>
       </c>
@@ -34882,7 +34946,7 @@
         </is>
       </c>
     </row>
-    <row r="214" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="214" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A214" s="41" t="n">
         <v>0</v>
       </c>
@@ -34957,7 +35021,7 @@
         </is>
       </c>
     </row>
-    <row r="215" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="215" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A215" s="41" t="n">
         <v>0</v>
       </c>
@@ -35032,7 +35096,7 @@
         </is>
       </c>
     </row>
-    <row r="216" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="216" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A216" s="41" t="n">
         <v>0</v>
       </c>
@@ -35107,7 +35171,7 @@
         </is>
       </c>
     </row>
-    <row r="217" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="217" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A217" s="41" t="n">
         <v>0</v>
       </c>
@@ -35182,7 +35246,7 @@
         </is>
       </c>
     </row>
-    <row r="218" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="218" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A218" s="41" t="n">
         <v>0</v>
       </c>
@@ -35257,7 +35321,7 @@
         </is>
       </c>
     </row>
-    <row r="219" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="219" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A219" s="41" t="n">
         <v>0</v>
       </c>
@@ -35332,7 +35396,7 @@
         </is>
       </c>
     </row>
-    <row r="220" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="220" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A220" s="41" t="n">
         <v>0</v>
       </c>
@@ -35409,7 +35473,7 @@
         </is>
       </c>
     </row>
-    <row r="221" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="221" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A221" s="41" t="n">
         <v>0</v>
       </c>
@@ -35484,7 +35548,7 @@
         </is>
       </c>
     </row>
-    <row r="222" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="222" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A222" s="41" t="n">
         <v>0</v>
       </c>
@@ -35569,7 +35633,7 @@
         </is>
       </c>
     </row>
-    <row r="223" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="223" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A223" s="41" t="n">
         <v>0</v>
       </c>
@@ -35654,7 +35718,7 @@
         </is>
       </c>
     </row>
-    <row r="224" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="224" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A224" s="41" t="n">
         <v>0</v>
       </c>
@@ -35729,7 +35793,7 @@
         </is>
       </c>
     </row>
-    <row r="225" ht="96" customFormat="1" customHeight="1" s="54">
+    <row r="225" ht="96" customFormat="1" customHeight="1" s="58">
       <c r="A225" s="41" t="n">
         <v>0</v>
       </c>
@@ -35814,7 +35878,7 @@
         </is>
       </c>
     </row>
-    <row r="226" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="226" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A226" s="41" t="n">
         <v>0</v>
       </c>
@@ -35899,7 +35963,7 @@
         </is>
       </c>
     </row>
-    <row r="227" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="227" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A227" s="41" t="n">
         <v>0</v>
       </c>
@@ -35974,7 +36038,7 @@
         </is>
       </c>
     </row>
-    <row r="228" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="228" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A228" s="41" t="n">
         <v>0</v>
       </c>
@@ -36049,7 +36113,7 @@
         </is>
       </c>
     </row>
-    <row r="229" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="229" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A229" s="41" t="n">
         <v>0</v>
       </c>
@@ -36124,7 +36188,7 @@
         </is>
       </c>
     </row>
-    <row r="230" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="230" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A230" s="41" t="n">
         <v>0</v>
       </c>
@@ -36199,7 +36263,7 @@
         </is>
       </c>
     </row>
-    <row r="231" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="231" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A231" s="41" t="n">
         <v>0</v>
       </c>
@@ -36274,7 +36338,7 @@
         </is>
       </c>
     </row>
-    <row r="232" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="232" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A232" s="41" t="n">
         <v>0</v>
       </c>
@@ -36349,7 +36413,7 @@
         </is>
       </c>
     </row>
-    <row r="233" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="233" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A233" s="41" t="n">
         <v>0</v>
       </c>
@@ -36424,7 +36488,7 @@
         </is>
       </c>
     </row>
-    <row r="234" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="234" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A234" s="41" t="n">
         <v>0</v>
       </c>
@@ -36499,7 +36563,7 @@
         </is>
       </c>
     </row>
-    <row r="235" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="235" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A235" s="41" t="n">
         <v>0</v>
       </c>
@@ -36574,7 +36638,7 @@
         </is>
       </c>
     </row>
-    <row r="236" ht="96" customFormat="1" customHeight="1" s="54">
+    <row r="236" ht="96" customFormat="1" customHeight="1" s="58">
       <c r="A236" s="41" t="n">
         <v>0</v>
       </c>
@@ -36649,7 +36713,7 @@
         </is>
       </c>
     </row>
-    <row r="237" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="237" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A237" s="41" t="n">
         <v>0</v>
       </c>
@@ -36724,7 +36788,7 @@
         </is>
       </c>
     </row>
-    <row r="238" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="238" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A238" s="41" t="n">
         <v>0</v>
       </c>
@@ -36809,7 +36873,7 @@
         </is>
       </c>
     </row>
-    <row r="239" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="239" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A239" s="41" t="n">
         <v>0</v>
       </c>
@@ -36894,7 +36958,7 @@
         </is>
       </c>
     </row>
-    <row r="240" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="240" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A240" s="41" t="n">
         <v>0</v>
       </c>
@@ -36979,7 +37043,7 @@
         </is>
       </c>
     </row>
-    <row r="241" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="241" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A241" s="41" t="n">
         <v>0</v>
       </c>
@@ -37054,7 +37118,7 @@
         </is>
       </c>
     </row>
-    <row r="242" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="242" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A242" s="41" t="n">
         <v>0</v>
       </c>
@@ -37139,7 +37203,7 @@
         </is>
       </c>
     </row>
-    <row r="243" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="243" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A243" s="41" t="n">
         <v>0</v>
       </c>
@@ -37224,7 +37288,7 @@
         </is>
       </c>
     </row>
-    <row r="244" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="244" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A244" s="41" t="n">
         <v>0</v>
       </c>
@@ -37309,7 +37373,7 @@
         </is>
       </c>
     </row>
-    <row r="245" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="245" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A245" s="41" t="n">
         <v>0</v>
       </c>
@@ -37384,7 +37448,7 @@
         </is>
       </c>
     </row>
-    <row r="246" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="246" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A246" s="41" t="n">
         <v>0</v>
       </c>
@@ -37469,7 +37533,7 @@
         </is>
       </c>
     </row>
-    <row r="247" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="247" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A247" s="41" t="n">
         <v>0</v>
       </c>
@@ -37554,7 +37618,7 @@
         </is>
       </c>
     </row>
-    <row r="248" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="248" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A248" s="41" t="n">
         <v>0</v>
       </c>
@@ -37639,7 +37703,7 @@
         </is>
       </c>
     </row>
-    <row r="249" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="249" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A249" s="41" t="n">
         <v>0</v>
       </c>
@@ -37724,7 +37788,7 @@
         </is>
       </c>
     </row>
-    <row r="250" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="250" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A250" s="41" t="n">
         <v>0</v>
       </c>
@@ -37809,7 +37873,7 @@
         </is>
       </c>
     </row>
-    <row r="251" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="251" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A251" s="41" t="n">
         <v>0</v>
       </c>
@@ -37894,7 +37958,7 @@
         </is>
       </c>
     </row>
-    <row r="252" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="252" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A252" s="41" t="n">
         <v>0</v>
       </c>
@@ -37969,7 +38033,7 @@
         </is>
       </c>
     </row>
-    <row r="253" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="253" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A253" s="41" t="n">
         <v>0</v>
       </c>
@@ -38054,7 +38118,7 @@
         </is>
       </c>
     </row>
-    <row r="254" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="254" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A254" s="41" t="n">
         <v>0</v>
       </c>
@@ -38139,7 +38203,7 @@
         </is>
       </c>
     </row>
-    <row r="255" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="255" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A255" s="41" t="n">
         <v>0</v>
       </c>
@@ -38214,7 +38278,7 @@
         </is>
       </c>
     </row>
-    <row r="256" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="256" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A256" s="41" t="n">
         <v>0</v>
       </c>
@@ -38289,7 +38353,7 @@
         </is>
       </c>
     </row>
-    <row r="257" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="257" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A257" s="41" t="n">
         <v>0</v>
       </c>
@@ -38364,7 +38428,7 @@
         </is>
       </c>
     </row>
-    <row r="258" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="258" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A258" s="41" t="n">
         <v>0</v>
       </c>
@@ -38439,7 +38503,7 @@
         </is>
       </c>
     </row>
-    <row r="259" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="259" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A259" s="41" t="n">
         <v>0</v>
       </c>
@@ -38524,7 +38588,7 @@
         </is>
       </c>
     </row>
-    <row r="260" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="260" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A260" s="41" t="n">
         <v>0</v>
       </c>
@@ -38609,7 +38673,7 @@
         </is>
       </c>
     </row>
-    <row r="261" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="261" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A261" s="41" t="n">
         <v>0</v>
       </c>
@@ -38684,7 +38748,7 @@
         </is>
       </c>
     </row>
-    <row r="262" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="262" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A262" s="41" t="n">
         <v>0</v>
       </c>
@@ -38759,7 +38823,7 @@
         </is>
       </c>
     </row>
-    <row r="263" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="263" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A263" s="41" t="n">
         <v>0</v>
       </c>
@@ -38834,7 +38898,7 @@
         </is>
       </c>
     </row>
-    <row r="264" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="264" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A264" s="41" t="n">
         <v>0</v>
       </c>
@@ -38909,7 +38973,7 @@
         </is>
       </c>
     </row>
-    <row r="265" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="265" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A265" s="41" t="n">
         <v>0</v>
       </c>
@@ -38994,7 +39058,7 @@
         </is>
       </c>
     </row>
-    <row r="266" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="266" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A266" s="41" t="n">
         <v>0</v>
       </c>
@@ -39079,7 +39143,7 @@
         </is>
       </c>
     </row>
-    <row r="267" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="267" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A267" s="41" t="n">
         <v>0</v>
       </c>
@@ -39154,7 +39218,7 @@
         </is>
       </c>
     </row>
-    <row r="268" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="268" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A268" s="41" t="n">
         <v>0</v>
       </c>
@@ -39239,7 +39303,7 @@
         </is>
       </c>
     </row>
-    <row r="269" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="269" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A269" s="41" t="n">
         <v>0</v>
       </c>
@@ -39324,7 +39388,7 @@
         </is>
       </c>
     </row>
-    <row r="270" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="270" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A270" s="41" t="n">
         <v>0</v>
       </c>
@@ -39409,7 +39473,7 @@
         </is>
       </c>
     </row>
-    <row r="271" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="271" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A271" s="41" t="n">
         <v>0</v>
       </c>
@@ -39484,7 +39548,7 @@
         </is>
       </c>
     </row>
-    <row r="272" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="272" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A272" s="41" t="n">
         <v>0</v>
       </c>
@@ -39559,7 +39623,7 @@
         </is>
       </c>
     </row>
-    <row r="273" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="273" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A273" s="41" t="n">
         <v>0</v>
       </c>
@@ -39634,7 +39698,7 @@
         </is>
       </c>
     </row>
-    <row r="274" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="274" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A274" s="41" t="n">
         <v>0</v>
       </c>
@@ -39709,7 +39773,7 @@
         </is>
       </c>
     </row>
-    <row r="275" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="275" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A275" s="41" t="n">
         <v>0</v>
       </c>
@@ -39784,7 +39848,7 @@
         </is>
       </c>
     </row>
-    <row r="276" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="276" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A276" s="41" t="n">
         <v>0</v>
       </c>
@@ -39869,7 +39933,7 @@
         </is>
       </c>
     </row>
-    <row r="277" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="277" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A277" s="41" t="n">
         <v>0</v>
       </c>
@@ -39954,7 +40018,7 @@
         </is>
       </c>
     </row>
-    <row r="278" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="278" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A278" s="41" t="n">
         <v>0</v>
       </c>
@@ -40029,7 +40093,7 @@
         </is>
       </c>
     </row>
-    <row r="279" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="279" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A279" s="41" t="n">
         <v>0</v>
       </c>
@@ -40104,7 +40168,7 @@
         </is>
       </c>
     </row>
-    <row r="280" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="280" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A280" s="41" t="n">
         <v>0</v>
       </c>
@@ -40179,7 +40243,7 @@
         </is>
       </c>
     </row>
-    <row r="281" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="281" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A281" s="41" t="n">
         <v>0</v>
       </c>
@@ -40254,7 +40318,7 @@
         </is>
       </c>
     </row>
-    <row r="282" ht="128" customFormat="1" customHeight="1" s="54">
+    <row r="282" ht="128" customFormat="1" customHeight="1" s="58">
       <c r="A282" s="41" t="n">
         <v>0</v>
       </c>
@@ -40329,7 +40393,7 @@
         </is>
       </c>
     </row>
-    <row r="283" ht="112" customFormat="1" customHeight="1" s="54">
+    <row r="283" ht="112" customFormat="1" customHeight="1" s="58">
       <c r="A283" s="41" t="n">
         <v>0</v>
       </c>
@@ -40404,7 +40468,7 @@
         </is>
       </c>
     </row>
-    <row r="284" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="284" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A284" s="41" t="n">
         <v>0</v>
       </c>
@@ -40479,7 +40543,7 @@
         </is>
       </c>
     </row>
-    <row r="285" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="285" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A285" s="41" t="n">
         <v>0</v>
       </c>
@@ -40554,7 +40618,7 @@
         </is>
       </c>
     </row>
-    <row r="286" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="286" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A286" s="41" t="n">
         <v>0</v>
       </c>
@@ -40629,7 +40693,7 @@
         </is>
       </c>
     </row>
-    <row r="287" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="287" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A287" s="41" t="n">
         <v>0</v>
       </c>
@@ -40704,7 +40768,7 @@
         </is>
       </c>
     </row>
-    <row r="288" ht="96" customFormat="1" customHeight="1" s="54">
+    <row r="288" ht="96" customFormat="1" customHeight="1" s="58">
       <c r="A288" s="41" t="n">
         <v>0</v>
       </c>
@@ -40779,7 +40843,7 @@
         </is>
       </c>
     </row>
-    <row r="289" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="289" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A289" s="41" t="n">
         <v>0</v>
       </c>
@@ -40864,7 +40928,7 @@
         </is>
       </c>
     </row>
-    <row r="290" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="290" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A290" s="41" t="n">
         <v>0</v>
       </c>
@@ -40949,7 +41013,7 @@
         </is>
       </c>
     </row>
-    <row r="291" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="291" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A291" s="41" t="n">
         <v>0</v>
       </c>
@@ -41024,7 +41088,7 @@
         </is>
       </c>
     </row>
-    <row r="292" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="292" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A292" s="41" t="n">
         <v>0</v>
       </c>
@@ -41099,7 +41163,7 @@
         </is>
       </c>
     </row>
-    <row r="293" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="293" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A293" s="41" t="n">
         <v>0</v>
       </c>
@@ -41174,7 +41238,7 @@
         </is>
       </c>
     </row>
-    <row r="294" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="294" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A294" s="41" t="n">
         <v>0</v>
       </c>
@@ -41249,7 +41313,7 @@
         </is>
       </c>
     </row>
-    <row r="295" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="295" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A295" s="41" t="n">
         <v>0</v>
       </c>
@@ -41324,7 +41388,7 @@
         </is>
       </c>
     </row>
-    <row r="296" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="296" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A296" s="41" t="n">
         <v>0</v>
       </c>
@@ -41399,7 +41463,7 @@
         </is>
       </c>
     </row>
-    <row r="297" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="297" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A297" s="41" t="n">
         <v>0</v>
       </c>
@@ -41474,7 +41538,7 @@
         </is>
       </c>
     </row>
-    <row r="298" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="298" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A298" s="41" t="n">
         <v>0</v>
       </c>
@@ -41549,7 +41613,7 @@
         </is>
       </c>
     </row>
-    <row r="299" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="299" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A299" s="41" t="n">
         <v>0</v>
       </c>
@@ -41624,7 +41688,7 @@
         </is>
       </c>
     </row>
-    <row r="300" ht="128" customFormat="1" customHeight="1" s="54">
+    <row r="300" ht="128" customFormat="1" customHeight="1" s="58">
       <c r="A300" s="41" t="n">
         <v>0</v>
       </c>
@@ -41699,7 +41763,7 @@
         </is>
       </c>
     </row>
-    <row r="301" ht="112" customFormat="1" customHeight="1" s="54">
+    <row r="301" ht="112" customFormat="1" customHeight="1" s="58">
       <c r="A301" s="41" t="n">
         <v>0</v>
       </c>
@@ -41774,7 +41838,7 @@
         </is>
       </c>
     </row>
-    <row r="302" ht="112" customFormat="1" customHeight="1" s="54">
+    <row r="302" ht="112" customFormat="1" customHeight="1" s="58">
       <c r="A302" s="41" t="n">
         <v>0</v>
       </c>
@@ -41849,7 +41913,7 @@
         </is>
       </c>
     </row>
-    <row r="303" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="303" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A303" s="41" t="n">
         <v>0</v>
       </c>
@@ -41924,7 +41988,7 @@
         </is>
       </c>
     </row>
-    <row r="304" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="304" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A304" s="41" t="n">
         <v>0</v>
       </c>
@@ -41999,7 +42063,7 @@
         </is>
       </c>
     </row>
-    <row r="305" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="305" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A305" s="41" t="n">
         <v>0</v>
       </c>
@@ -42074,7 +42138,7 @@
         </is>
       </c>
     </row>
-    <row r="306" ht="96" customFormat="1" customHeight="1" s="54">
+    <row r="306" ht="96" customFormat="1" customHeight="1" s="58">
       <c r="A306" s="41" t="n">
         <v>0</v>
       </c>
@@ -42149,7 +42213,7 @@
         </is>
       </c>
     </row>
-    <row r="307" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="307" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A307" s="41" t="n">
         <v>0</v>
       </c>
@@ -42224,7 +42288,7 @@
         </is>
       </c>
     </row>
-    <row r="308" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="308" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A308" s="41" t="n">
         <v>0</v>
       </c>
@@ -42299,7 +42363,7 @@
         </is>
       </c>
     </row>
-    <row r="309" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="309" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A309" s="41" t="n">
         <v>0</v>
       </c>
@@ -42374,7 +42438,7 @@
         </is>
       </c>
     </row>
-    <row r="310" ht="96" customFormat="1" customHeight="1" s="54">
+    <row r="310" ht="96" customFormat="1" customHeight="1" s="58">
       <c r="A310" s="41" t="n">
         <v>0</v>
       </c>
@@ -42449,7 +42513,7 @@
         </is>
       </c>
     </row>
-    <row r="311" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="311" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A311" s="41" t="n">
         <v>0</v>
       </c>
@@ -42524,7 +42588,7 @@
         </is>
       </c>
     </row>
-    <row r="312" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="312" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A312" s="41" t="n">
         <v>0</v>
       </c>
@@ -42599,7 +42663,7 @@
         </is>
       </c>
     </row>
-    <row r="313" ht="96" customFormat="1" customHeight="1" s="54">
+    <row r="313" ht="96" customFormat="1" customHeight="1" s="58">
       <c r="A313" s="41" t="n">
         <v>0</v>
       </c>
@@ -42674,7 +42738,7 @@
         </is>
       </c>
     </row>
-    <row r="314" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="314" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A314" s="41" t="n">
         <v>0</v>
       </c>
@@ -42759,7 +42823,7 @@
         </is>
       </c>
     </row>
-    <row r="315" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="315" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A315" s="41" t="n">
         <v>0</v>
       </c>
@@ -42844,7 +42908,7 @@
         </is>
       </c>
     </row>
-    <row r="316" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="316" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A316" s="41" t="n">
         <v>0</v>
       </c>
@@ -42929,7 +42993,7 @@
         </is>
       </c>
     </row>
-    <row r="317" ht="128" customFormat="1" customHeight="1" s="54">
+    <row r="317" ht="128" customFormat="1" customHeight="1" s="58">
       <c r="A317" s="41" t="n">
         <v>0</v>
       </c>
@@ -43004,7 +43068,7 @@
         </is>
       </c>
     </row>
-    <row r="318" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="318" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A318" s="41" t="n">
         <v>0</v>
       </c>
@@ -43079,7 +43143,7 @@
         </is>
       </c>
     </row>
-    <row r="319" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="319" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A319" s="41" t="n">
         <v>0</v>
       </c>
@@ -43154,7 +43218,7 @@
         </is>
       </c>
     </row>
-    <row r="320" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="320" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A320" s="41" t="n">
         <v>0</v>
       </c>
@@ -43229,7 +43293,7 @@
         </is>
       </c>
     </row>
-    <row r="321" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="321" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A321" s="41" t="n">
         <v>0</v>
       </c>
@@ -43304,7 +43368,7 @@
         </is>
       </c>
     </row>
-    <row r="322" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="322" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A322" s="41" t="n">
         <v>0</v>
       </c>
@@ -43379,7 +43443,7 @@
         </is>
       </c>
     </row>
-    <row r="323" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="323" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A323" s="41" t="n">
         <v>0</v>
       </c>
@@ -43454,7 +43518,7 @@
         </is>
       </c>
     </row>
-    <row r="324" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="324" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A324" s="41" t="n">
         <v>0</v>
       </c>
@@ -43529,7 +43593,7 @@
         </is>
       </c>
     </row>
-    <row r="325" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="325" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A325" s="41" t="n">
         <v>0</v>
       </c>
@@ -43604,7 +43668,7 @@
         </is>
       </c>
     </row>
-    <row r="326" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="326" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A326" s="41" t="n">
         <v>0</v>
       </c>
@@ -43679,7 +43743,7 @@
         </is>
       </c>
     </row>
-    <row r="327" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="327" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A327" s="41" t="n">
         <v>0</v>
       </c>
@@ -43754,7 +43818,7 @@
         </is>
       </c>
     </row>
-    <row r="328" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="328" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A328" s="41" t="n">
         <v>0</v>
       </c>
@@ -43839,7 +43903,7 @@
         </is>
       </c>
     </row>
-    <row r="329" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="329" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A329" s="41" t="n">
         <v>0</v>
       </c>
@@ -43924,7 +43988,7 @@
         </is>
       </c>
     </row>
-    <row r="330" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="330" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A330" s="41" t="n">
         <v>0</v>
       </c>
@@ -44009,7 +44073,7 @@
         </is>
       </c>
     </row>
-    <row r="331" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="331" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A331" s="41" t="n">
         <v>0</v>
       </c>
@@ -44084,7 +44148,7 @@
         </is>
       </c>
     </row>
-    <row r="332" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="332" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A332" s="41" t="n">
         <v>0</v>
       </c>
@@ -44159,7 +44223,7 @@
         </is>
       </c>
     </row>
-    <row r="333" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="333" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A333" s="41" t="n">
         <v>0</v>
       </c>
@@ -44244,7 +44308,7 @@
         </is>
       </c>
     </row>
-    <row r="334" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="334" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A334" s="41" t="n">
         <v>0</v>
       </c>
@@ -44329,7 +44393,7 @@
         </is>
       </c>
     </row>
-    <row r="335" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="335" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A335" s="41" t="n">
         <v>0</v>
       </c>
@@ -44414,7 +44478,7 @@
         </is>
       </c>
     </row>
-    <row r="336" ht="96" customFormat="1" customHeight="1" s="54">
+    <row r="336" ht="96" customFormat="1" customHeight="1" s="58">
       <c r="A336" s="41" t="n">
         <v>0</v>
       </c>
@@ -44499,7 +44563,7 @@
         </is>
       </c>
     </row>
-    <row r="337" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="337" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A337" s="41" t="n">
         <v>0</v>
       </c>
@@ -44584,7 +44648,7 @@
         </is>
       </c>
     </row>
-    <row r="338" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="338" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A338" s="41" t="n">
         <v>0</v>
       </c>
@@ -44669,7 +44733,7 @@
         </is>
       </c>
     </row>
-    <row r="339" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="339" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A339" s="41" t="n">
         <v>0</v>
       </c>
@@ -44754,7 +44818,7 @@
         </is>
       </c>
     </row>
-    <row r="340" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="340" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A340" s="41" t="n">
         <v>0</v>
       </c>
@@ -44829,7 +44893,7 @@
         </is>
       </c>
     </row>
-    <row r="341" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="341" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A341" s="41" t="n">
         <v>0</v>
       </c>
@@ -44904,7 +44968,7 @@
         </is>
       </c>
     </row>
-    <row r="342" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="342" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A342" s="41" t="n">
         <v>0</v>
       </c>
@@ -44979,7 +45043,7 @@
         </is>
       </c>
     </row>
-    <row r="343" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="343" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A343" s="41" t="n">
         <v>0</v>
       </c>
@@ -45054,7 +45118,7 @@
         </is>
       </c>
     </row>
-    <row r="344" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="344" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A344" s="41" t="n">
         <v>0</v>
       </c>
@@ -45129,7 +45193,7 @@
         </is>
       </c>
     </row>
-    <row r="345" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="345" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A345" s="41" t="n">
         <v>0</v>
       </c>
@@ -45204,7 +45268,7 @@
         </is>
       </c>
     </row>
-    <row r="346" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="346" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A346" s="41" t="n">
         <v>0</v>
       </c>
@@ -45279,7 +45343,7 @@
         </is>
       </c>
     </row>
-    <row r="347" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="347" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A347" s="41" t="n">
         <v>0</v>
       </c>
@@ -45354,7 +45418,7 @@
         </is>
       </c>
     </row>
-    <row r="348" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="348" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A348" s="41" t="n">
         <v>0</v>
       </c>
@@ -45429,7 +45493,7 @@
         </is>
       </c>
     </row>
-    <row r="349" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="349" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A349" s="41" t="n">
         <v>0</v>
       </c>
@@ -45514,7 +45578,7 @@
         </is>
       </c>
     </row>
-    <row r="350" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="350" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A350" s="41" t="n">
         <v>0</v>
       </c>
@@ -45599,7 +45663,7 @@
         </is>
       </c>
     </row>
-    <row r="351" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="351" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A351" s="41" t="n">
         <v>0</v>
       </c>
@@ -45684,7 +45748,7 @@
         </is>
       </c>
     </row>
-    <row r="352" ht="112" customFormat="1" customHeight="1" s="54">
+    <row r="352" ht="112" customFormat="1" customHeight="1" s="58">
       <c r="A352" s="41" t="n">
         <v>0</v>
       </c>
@@ -45769,7 +45833,7 @@
         </is>
       </c>
     </row>
-    <row r="353" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="353" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A353" s="41" t="n">
         <v>0</v>
       </c>
@@ -45844,7 +45908,7 @@
         </is>
       </c>
     </row>
-    <row r="354" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="354" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A354" s="41" t="n">
         <v>0</v>
       </c>
@@ -45929,7 +45993,7 @@
         </is>
       </c>
     </row>
-    <row r="355" ht="176" customFormat="1" customHeight="1" s="54">
+    <row r="355" ht="176" customFormat="1" customHeight="1" s="58">
       <c r="A355" s="41" t="n">
         <v>0</v>
       </c>
@@ -46014,7 +46078,7 @@
         </is>
       </c>
     </row>
-    <row r="356" ht="144" customFormat="1" customHeight="1" s="54">
+    <row r="356" ht="144" customFormat="1" customHeight="1" s="58">
       <c r="A356" s="41" t="n">
         <v>0</v>
       </c>
@@ -46099,7 +46163,7 @@
         </is>
       </c>
     </row>
-    <row r="357" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="357" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A357" s="41" t="n">
         <v>0</v>
       </c>
@@ -46184,7 +46248,7 @@
         </is>
       </c>
     </row>
-    <row r="358" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="358" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A358" s="41" t="n">
         <v>0</v>
       </c>
@@ -46259,7 +46323,7 @@
         </is>
       </c>
     </row>
-    <row r="359" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="359" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A359" s="41" t="n">
         <v>0</v>
       </c>
@@ -46334,7 +46398,7 @@
         </is>
       </c>
     </row>
-    <row r="360" ht="128" customFormat="1" customHeight="1" s="54">
+    <row r="360" ht="128" customFormat="1" customHeight="1" s="58">
       <c r="A360" s="41" t="n">
         <v>0</v>
       </c>
@@ -46409,7 +46473,7 @@
         </is>
       </c>
     </row>
-    <row r="361" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="361" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A361" s="41" t="n">
         <v>0</v>
       </c>
@@ -46484,7 +46548,7 @@
         </is>
       </c>
     </row>
-    <row r="362" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="362" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A362" s="41" t="n">
         <v>0</v>
       </c>
@@ -46559,7 +46623,7 @@
         </is>
       </c>
     </row>
-    <row r="363" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="363" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A363" s="41" t="n">
         <v>0</v>
       </c>
@@ -46634,7 +46698,7 @@
         </is>
       </c>
     </row>
-    <row r="364" ht="96" customFormat="1" customHeight="1" s="54">
+    <row r="364" ht="96" customFormat="1" customHeight="1" s="58">
       <c r="A364" s="41" t="n">
         <v>0</v>
       </c>
@@ -46709,7 +46773,7 @@
         </is>
       </c>
     </row>
-    <row r="365" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="365" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A365" s="41" t="n">
         <v>0</v>
       </c>
@@ -46784,7 +46848,7 @@
         </is>
       </c>
     </row>
-    <row r="366" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="366" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A366" s="41" t="n">
         <v>0</v>
       </c>
@@ -46859,7 +46923,7 @@
         </is>
       </c>
     </row>
-    <row r="367" ht="96" customFormat="1" customHeight="1" s="54">
+    <row r="367" ht="96" customFormat="1" customHeight="1" s="58">
       <c r="A367" s="41" t="n">
         <v>0</v>
       </c>
@@ -46934,7 +46998,7 @@
         </is>
       </c>
     </row>
-    <row r="368" ht="128" customFormat="1" customHeight="1" s="54">
+    <row r="368" ht="128" customFormat="1" customHeight="1" s="58">
       <c r="A368" s="41" t="n">
         <v>0</v>
       </c>
@@ -47009,7 +47073,7 @@
         </is>
       </c>
     </row>
-    <row r="369" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="369" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A369" s="41" t="n">
         <v>0</v>
       </c>
@@ -47084,7 +47148,7 @@
         </is>
       </c>
     </row>
-    <row r="370" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="370" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A370" s="41" t="n">
         <v>0</v>
       </c>
@@ -47159,7 +47223,7 @@
         </is>
       </c>
     </row>
-    <row r="371" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="371" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A371" s="41" t="n">
         <v>0</v>
       </c>
@@ -47234,7 +47298,7 @@
         </is>
       </c>
     </row>
-    <row r="372" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="372" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A372" s="41" t="n">
         <v>0</v>
       </c>
@@ -47309,7 +47373,7 @@
         </is>
       </c>
     </row>
-    <row r="373" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="373" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A373" s="41" t="n">
         <v>0</v>
       </c>
@@ -47384,7 +47448,7 @@
         </is>
       </c>
     </row>
-    <row r="374" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="374" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A374" s="41" t="n">
         <v>0</v>
       </c>
@@ -47459,7 +47523,7 @@
         </is>
       </c>
     </row>
-    <row r="375" ht="80" customFormat="1" customHeight="1" s="54">
+    <row r="375" ht="80" customFormat="1" customHeight="1" s="58">
       <c r="A375" s="41" t="n">
         <v>0</v>
       </c>
@@ -47534,7 +47598,7 @@
         </is>
       </c>
     </row>
-    <row r="376" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="376" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A376" s="41" t="n">
         <v>0</v>
       </c>
@@ -47609,7 +47673,7 @@
         </is>
       </c>
     </row>
-    <row r="377" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="377" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A377" s="41" t="n">
         <v>0</v>
       </c>
@@ -47684,7 +47748,7 @@
         </is>
       </c>
     </row>
-    <row r="378" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="378" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A378" s="41" t="n">
         <v>0</v>
       </c>
@@ -47759,7 +47823,7 @@
         </is>
       </c>
     </row>
-    <row r="379" ht="96" customFormat="1" customHeight="1" s="54">
+    <row r="379" ht="96" customFormat="1" customHeight="1" s="58">
       <c r="A379" s="41" t="n">
         <v>0</v>
       </c>
@@ -47834,7 +47898,7 @@
         </is>
       </c>
     </row>
-    <row r="380" ht="128" customFormat="1" customHeight="1" s="54">
+    <row r="380" ht="128" customFormat="1" customHeight="1" s="58">
       <c r="A380" s="41" t="n">
         <v>0</v>
       </c>
@@ -47909,7 +47973,7 @@
         </is>
       </c>
     </row>
-    <row r="381" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="381" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A381" s="41" t="n">
         <v>0</v>
       </c>
@@ -47984,7 +48048,7 @@
         </is>
       </c>
     </row>
-    <row r="382" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="382" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A382" s="41" t="n">
         <v>0</v>
       </c>
@@ -48059,7 +48123,7 @@
         </is>
       </c>
     </row>
-    <row r="383" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="383" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A383" s="41" t="n">
         <v>0</v>
       </c>
@@ -48134,7 +48198,7 @@
         </is>
       </c>
     </row>
-    <row r="384" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="384" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A384" s="41" t="n">
         <v>0</v>
       </c>
@@ -48209,7 +48273,7 @@
         </is>
       </c>
     </row>
-    <row r="385" ht="96" customFormat="1" customHeight="1" s="54">
+    <row r="385" ht="96" customFormat="1" customHeight="1" s="58">
       <c r="A385" s="41" t="n">
         <v>0</v>
       </c>
@@ -48284,7 +48348,7 @@
         </is>
       </c>
     </row>
-    <row r="386" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="386" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A386" s="41" t="n">
         <v>0</v>
       </c>
@@ -48359,7 +48423,7 @@
         </is>
       </c>
     </row>
-    <row r="387" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="387" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A387" s="41" t="n">
         <v>0</v>
       </c>
@@ -48434,7 +48498,7 @@
         </is>
       </c>
     </row>
-    <row r="388" ht="112" customFormat="1" customHeight="1" s="54">
+    <row r="388" ht="112" customFormat="1" customHeight="1" s="58">
       <c r="A388" s="41" t="n">
         <v>0</v>
       </c>
@@ -48509,7 +48573,7 @@
         </is>
       </c>
     </row>
-    <row r="389" ht="208" customFormat="1" customHeight="1" s="54">
+    <row r="389" ht="208" customFormat="1" customHeight="1" s="58">
       <c r="A389" s="41" t="n">
         <v>0</v>
       </c>
@@ -48584,7 +48648,7 @@
         </is>
       </c>
     </row>
-    <row r="390" ht="96" customFormat="1" customHeight="1" s="54">
+    <row r="390" ht="96" customFormat="1" customHeight="1" s="58">
       <c r="A390" s="41" t="n">
         <v>0</v>
       </c>
@@ -48659,7 +48723,7 @@
         </is>
       </c>
     </row>
-    <row r="391" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="391" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A391" s="41" t="n">
         <v>0</v>
       </c>
@@ -48734,7 +48798,7 @@
         </is>
       </c>
     </row>
-    <row r="392" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="392" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A392" s="41" t="n">
         <v>0</v>
       </c>
@@ -48809,7 +48873,7 @@
         </is>
       </c>
     </row>
-    <row r="393" ht="32" customFormat="1" customHeight="1" s="54">
+    <row r="393" ht="32" customFormat="1" customHeight="1" s="58">
       <c r="A393" s="41" t="n">
         <v>0</v>
       </c>
@@ -48884,7 +48948,7 @@
         </is>
       </c>
     </row>
-    <row r="394" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="394" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A394" s="41" t="n">
         <v>0</v>
       </c>
@@ -48959,7 +49023,7 @@
         </is>
       </c>
     </row>
-    <row r="395" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="395" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A395" s="41" t="n">
         <v>0</v>
       </c>
@@ -49034,7 +49098,7 @@
         </is>
       </c>
     </row>
-    <row r="396" ht="112" customFormat="1" customHeight="1" s="54">
+    <row r="396" ht="112" customFormat="1" customHeight="1" s="58">
       <c r="A396" s="41" t="n">
         <v>0</v>
       </c>
@@ -49109,7 +49173,7 @@
         </is>
       </c>
     </row>
-    <row r="397" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="397" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A397" s="41" t="n">
         <v>0</v>
       </c>
@@ -49194,7 +49258,7 @@
         </is>
       </c>
     </row>
-    <row r="398" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="398" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A398" s="41" t="n">
         <v>0</v>
       </c>
@@ -49279,7 +49343,7 @@
         </is>
       </c>
     </row>
-    <row r="399" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="399" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A399" s="41" t="n">
         <v>0</v>
       </c>
@@ -49364,7 +49428,7 @@
         </is>
       </c>
     </row>
-    <row r="400" ht="64" customFormat="1" customHeight="1" s="54">
+    <row r="400" ht="64" customFormat="1" customHeight="1" s="58">
       <c r="A400" s="41" t="n">
         <v>0</v>
       </c>
@@ -49449,7 +49513,7 @@
         </is>
       </c>
     </row>
-    <row r="401" ht="112" customFormat="1" customHeight="1" s="54">
+    <row r="401" ht="112" customFormat="1" customHeight="1" s="58">
       <c r="A401" s="41" t="n">
         <v>0</v>
       </c>
@@ -49534,7 +49598,7 @@
         </is>
       </c>
     </row>
-    <row r="402" ht="48" customFormat="1" customHeight="1" s="54">
+    <row r="402" ht="48" customFormat="1" customHeight="1" s="58">
       <c r="A402" s="41" t="n">
         <v>0</v>
       </c>
@@ -49643,23 +49707,23 @@
   </sheetPr>
   <dimension ref="A1:AQ4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="AA1" workbookViewId="0">
       <selection activeCell="AQ5" sqref="AQ5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
-    <col width="20.1640625" customWidth="1" min="1" max="1"/>
-    <col width="10.1640625" customWidth="1" min="2" max="38"/>
+    <col width="20.1796875" customWidth="1" style="52" min="1" max="1"/>
+    <col width="10.1796875" customWidth="1" style="52" min="2" max="38"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="4">
-      <c r="A1" s="15" t="inlineStr">
+    <row r="1" customFormat="1" s="51">
+      <c r="A1" s="50" t="inlineStr">
         <is>
           <t>Unit: USD</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="51" t="inlineStr">
         <is>
           <t>ISIC 01T03</t>
         </is>
@@ -49674,37 +49738,37 @@
           <t>ISIC 06</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="51" t="inlineStr">
         <is>
           <t>ISIC 07T08</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="51" t="inlineStr">
         <is>
           <t>ISIC 09</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="51" t="inlineStr">
         <is>
           <t>ISIC 10T12</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="H1" s="51" t="inlineStr">
         <is>
           <t>ISIC 13T15</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
+      <c r="I1" s="51" t="inlineStr">
         <is>
           <t>ISIC 16</t>
         </is>
       </c>
-      <c r="J1" s="4" t="inlineStr">
+      <c r="J1" s="51" t="inlineStr">
         <is>
           <t>ISIC 17T18</t>
         </is>
       </c>
-      <c r="K1" s="4" t="inlineStr">
+      <c r="K1" s="51" t="inlineStr">
         <is>
           <t>ISIC 19</t>
         </is>
@@ -49719,7 +49783,7 @@
           <t>ISIC 21</t>
         </is>
       </c>
-      <c r="N1" s="4" t="inlineStr">
+      <c r="N1" s="51" t="inlineStr">
         <is>
           <t>ISIC 22</t>
         </is>
@@ -49744,37 +49808,37 @@
           <t>ISIC 242</t>
         </is>
       </c>
-      <c r="S1" s="4" t="inlineStr">
+      <c r="S1" s="51" t="inlineStr">
         <is>
           <t>ISIC 25</t>
         </is>
       </c>
-      <c r="T1" s="4" t="inlineStr">
+      <c r="T1" s="51" t="inlineStr">
         <is>
           <t>ISIC 26</t>
         </is>
       </c>
-      <c r="U1" s="4" t="inlineStr">
+      <c r="U1" s="51" t="inlineStr">
         <is>
           <t>ISIC 27</t>
         </is>
       </c>
-      <c r="V1" s="4" t="inlineStr">
+      <c r="V1" s="51" t="inlineStr">
         <is>
           <t>ISIC 28</t>
         </is>
       </c>
-      <c r="W1" s="4" t="inlineStr">
+      <c r="W1" s="51" t="inlineStr">
         <is>
           <t>ISIC 29</t>
         </is>
       </c>
-      <c r="X1" s="4" t="inlineStr">
+      <c r="X1" s="51" t="inlineStr">
         <is>
           <t>ISIC 30</t>
         </is>
       </c>
-      <c r="Y1" s="4" t="inlineStr">
+      <c r="Y1" s="51" t="inlineStr">
         <is>
           <t>ISIC 31T33</t>
         </is>
@@ -49794,83 +49858,83 @@
           <t>ISIC 36T39</t>
         </is>
       </c>
-      <c r="AC1" s="4" t="inlineStr">
+      <c r="AC1" s="51" t="inlineStr">
         <is>
           <t>ISIC 41T43</t>
         </is>
       </c>
-      <c r="AD1" s="4" t="inlineStr">
+      <c r="AD1" s="51" t="inlineStr">
         <is>
           <t>ISIC 45T47</t>
         </is>
       </c>
-      <c r="AE1" s="4" t="inlineStr">
+      <c r="AE1" s="51" t="inlineStr">
         <is>
           <t>ISIC 49T53</t>
         </is>
       </c>
-      <c r="AF1" s="4" t="inlineStr">
+      <c r="AF1" s="51" t="inlineStr">
         <is>
           <t>ISIC 55T56</t>
         </is>
       </c>
-      <c r="AG1" s="4" t="inlineStr">
+      <c r="AG1" s="51" t="inlineStr">
         <is>
           <t>ISIC 58T60</t>
         </is>
       </c>
-      <c r="AH1" s="4" t="inlineStr">
+      <c r="AH1" s="51" t="inlineStr">
         <is>
           <t>ISIC 61</t>
         </is>
       </c>
-      <c r="AI1" s="4" t="inlineStr">
+      <c r="AI1" s="51" t="inlineStr">
         <is>
           <t>ISIC 62T63</t>
         </is>
       </c>
-      <c r="AJ1" s="4" t="inlineStr">
+      <c r="AJ1" s="51" t="inlineStr">
         <is>
           <t>ISIC 64T66</t>
         </is>
       </c>
-      <c r="AK1" s="4" t="inlineStr">
+      <c r="AK1" s="51" t="inlineStr">
         <is>
           <t>ISIC 68</t>
         </is>
       </c>
-      <c r="AL1" s="4" t="inlineStr">
+      <c r="AL1" s="51" t="inlineStr">
         <is>
           <t>ISIC 69T82</t>
         </is>
       </c>
-      <c r="AM1" s="4" t="inlineStr">
+      <c r="AM1" s="51" t="inlineStr">
         <is>
           <t>ISIC 84</t>
         </is>
       </c>
-      <c r="AN1" s="4" t="inlineStr">
+      <c r="AN1" s="51" t="inlineStr">
         <is>
           <t>ISIC 85</t>
         </is>
       </c>
-      <c r="AO1" s="4" t="inlineStr">
+      <c r="AO1" s="51" t="inlineStr">
         <is>
           <t>ISIC 86T88</t>
         </is>
       </c>
-      <c r="AP1" s="4" t="inlineStr">
+      <c r="AP1" s="51" t="inlineStr">
         <is>
           <t>ISIC 90T96</t>
         </is>
       </c>
-      <c r="AQ1" s="4" t="inlineStr">
+      <c r="AQ1" s="51" t="inlineStr">
         <is>
           <t>ISIC 97T98</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="16" customHeight="1" thickBot="1">
+    <row r="2" ht="16" customHeight="1" s="52" thickBot="1">
       <c r="A2" t="inlineStr">
         <is>
           <t>National Value Added</t>
@@ -50012,8 +50076,10 @@
       <c r="B3" t="n">
         <v>179570725080</v>
       </c>
-      <c r="C3" t="n">
-        <v>59381900879.99999</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="D3" t="n">
         <v>43325227578.93123</v>
@@ -50132,8 +50198,10 @@
       <c r="AP3" t="n">
         <v>219230866720</v>
       </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -50146,9 +50214,10 @@
         <f>B2/B3</f>
         <v/>
       </c>
-      <c r="C4">
-        <f>C2/C3</f>
-        <v/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="D4">
         <f>D2/D3</f>
@@ -50306,8 +50375,10 @@
         <f>AP2/AP3</f>
         <v/>
       </c>
-      <c r="AQ4" t="n">
-        <v>1</v>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -50325,14 +50396,14 @@
   <dimension ref="A1:AU48"/>
   <sheetViews>
     <sheetView zoomScale="103" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.90625" defaultRowHeight="14.75"/>
   <cols>
-    <col width="14.5" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="17.33203125" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="14.6640625" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="14.5" bestFit="1" customWidth="1" style="52" min="2" max="2"/>
+    <col width="17.31640625" bestFit="1" customWidth="1" style="52" min="3" max="3"/>
+    <col width="14.6796875" bestFit="1" customWidth="1" style="52" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -51056,7 +51127,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" ht="16" customHeight="1">
+    <row r="8" ht="16" customHeight="1" s="52">
       <c r="A8" t="inlineStr">
         <is>
           <t>13T15</t>
@@ -51066,9 +51137,9 @@
         <f>SUM('USA Gross Output'!Z69,'USA Gross Output'!Z70)</f>
         <v/>
       </c>
-      <c r="E8" s="52" t="n"/>
-    </row>
-    <row r="9" ht="16" customHeight="1">
+      <c r="E8" s="49" t="n"/>
+    </row>
+    <row r="9" ht="16" customHeight="1" s="52">
       <c r="A9" t="n">
         <v>16</v>
       </c>
@@ -51076,9 +51147,9 @@
         <f>SUM('USA Gross Output'!Z34)</f>
         <v/>
       </c>
-      <c r="E9" s="52" t="n"/>
-    </row>
-    <row r="10" ht="16" customHeight="1">
+      <c r="E9" s="49" t="n"/>
+    </row>
+    <row r="10" ht="16" customHeight="1" s="52">
       <c r="A10" t="inlineStr">
         <is>
           <t>17T18</t>
@@ -51088,9 +51159,9 @@
         <f>SUM('USA Gross Output'!Z71,'USA Gross Output'!Z72)</f>
         <v/>
       </c>
-      <c r="E10" s="52" t="n"/>
-    </row>
-    <row r="11" ht="16" customHeight="1">
+      <c r="E10" s="49" t="n"/>
+    </row>
+    <row r="11" ht="16" customHeight="1" s="52">
       <c r="A11" t="n">
         <v>19</v>
       </c>
@@ -51098,9 +51169,9 @@
         <f>SUM('USA Gross Output'!Z73)</f>
         <v/>
       </c>
-      <c r="E11" s="52" t="n"/>
-    </row>
-    <row r="12" ht="16" customHeight="1">
+      <c r="E11" s="49" t="n"/>
+    </row>
+    <row r="12" ht="16" customHeight="1" s="52">
       <c r="A12" t="n">
         <v>20</v>
       </c>
@@ -51108,9 +51179,9 @@
         <f>SUM('USA Gross Output'!Z74)*(1-'USA County Business Patterns'!T93)</f>
         <v/>
       </c>
-      <c r="E12" s="52" t="n"/>
-    </row>
-    <row r="13" ht="16" customHeight="1">
+      <c r="E12" s="49" t="n"/>
+    </row>
+    <row r="13" ht="16" customHeight="1" s="52">
       <c r="A13" t="n">
         <v>21</v>
       </c>
@@ -51118,9 +51189,9 @@
         <f>SUM('USA Gross Output'!Z74)*('USA County Business Patterns'!T93)</f>
         <v/>
       </c>
-      <c r="E13" s="52" t="n"/>
-    </row>
-    <row r="14" ht="16" customHeight="1">
+      <c r="E13" s="49" t="n"/>
+    </row>
+    <row r="14" ht="16" customHeight="1" s="52">
       <c r="A14" t="n">
         <v>22</v>
       </c>
@@ -51128,9 +51199,9 @@
         <f>SUM('USA Gross Output'!Z79)</f>
         <v/>
       </c>
-      <c r="E14" s="52" t="n"/>
-    </row>
-    <row r="15" ht="16" customHeight="1">
+      <c r="E14" s="49" t="n"/>
+    </row>
+    <row r="15" ht="16" customHeight="1" s="52">
       <c r="A15" t="n">
         <v>231</v>
       </c>
@@ -51138,9 +51209,9 @@
         <f>SUM('USA Gross Output'!Z35)*'USA County Business Patterns'!T102</f>
         <v/>
       </c>
-      <c r="E15" s="52" t="n"/>
-    </row>
-    <row r="16" ht="16" customHeight="1">
+      <c r="E15" s="49" t="n"/>
+    </row>
+    <row r="16" ht="16" customHeight="1" s="52">
       <c r="A16" t="n">
         <v>239</v>
       </c>
@@ -51148,9 +51219,9 @@
         <f>SUM('USA Gross Output'!Z35)*(1-'USA County Business Patterns'!T102)</f>
         <v/>
       </c>
-      <c r="E16" s="52" t="n"/>
-    </row>
-    <row r="17" ht="16" customHeight="1">
+      <c r="E16" s="49" t="n"/>
+    </row>
+    <row r="17" ht="16" customHeight="1" s="52">
       <c r="A17" t="n">
         <v>241</v>
       </c>
@@ -51158,9 +51229,9 @@
         <f>SUM('USA Gross Output'!Z36)*'USA County Business Patterns'!T107</f>
         <v/>
       </c>
-      <c r="E17" s="52" t="n"/>
-    </row>
-    <row r="18" ht="16" customHeight="1">
+      <c r="E17" s="49" t="n"/>
+    </row>
+    <row r="18" ht="16" customHeight="1" s="52">
       <c r="A18" t="n">
         <v>242</v>
       </c>
@@ -51168,9 +51239,9 @@
         <f>SUM('USA Gross Output'!Z36)*(1-'USA County Business Patterns'!T107)</f>
         <v/>
       </c>
-      <c r="E18" s="52" t="n"/>
-    </row>
-    <row r="19" ht="16" customHeight="1">
+      <c r="E18" s="49" t="n"/>
+    </row>
+    <row r="19" ht="16" customHeight="1" s="52">
       <c r="A19" t="n">
         <v>25</v>
       </c>
@@ -51178,9 +51249,9 @@
         <f>SUM('USA Gross Output'!Z39)</f>
         <v/>
       </c>
-      <c r="E19" s="52" t="n"/>
-    </row>
-    <row r="20" ht="16" customHeight="1">
+      <c r="E19" s="49" t="n"/>
+    </row>
+    <row r="20" ht="16" customHeight="1" s="52">
       <c r="A20" t="n">
         <v>26</v>
       </c>
@@ -51188,9 +51259,9 @@
         <f>SUM('USA Gross Output'!Z45)</f>
         <v/>
       </c>
-      <c r="E20" s="52" t="n"/>
-    </row>
-    <row r="21" ht="16" customHeight="1">
+      <c r="E20" s="49" t="n"/>
+    </row>
+    <row r="21" ht="16" customHeight="1" s="52">
       <c r="A21" t="n">
         <v>27</v>
       </c>
@@ -51198,9 +51269,9 @@
         <f>SUM('USA Gross Output'!Z51)</f>
         <v/>
       </c>
-      <c r="E21" s="52" t="n"/>
-    </row>
-    <row r="22" ht="16" customHeight="1">
+      <c r="E21" s="49" t="n"/>
+    </row>
+    <row r="22" ht="16" customHeight="1" s="52">
       <c r="A22" t="n">
         <v>28</v>
       </c>
@@ -51208,9 +51279,9 @@
         <f>SUM('USA Gross Output'!Z40)</f>
         <v/>
       </c>
-      <c r="E22" s="52" t="n"/>
-    </row>
-    <row r="23" ht="16" customHeight="1">
+      <c r="E22" s="49" t="n"/>
+    </row>
+    <row r="23" ht="16" customHeight="1" s="52">
       <c r="A23" t="n">
         <v>29</v>
       </c>
@@ -51218,9 +51289,9 @@
         <f>SUM('USA Gross Output'!Z52)</f>
         <v/>
       </c>
-      <c r="E23" s="52" t="n"/>
-    </row>
-    <row r="24" ht="16" customHeight="1">
+      <c r="E23" s="49" t="n"/>
+    </row>
+    <row r="24" ht="16" customHeight="1" s="52">
       <c r="A24" t="n">
         <v>30</v>
       </c>
@@ -51228,9 +51299,9 @@
         <f>SUM('USA Gross Output'!Z57)</f>
         <v/>
       </c>
-      <c r="E24" s="52" t="n"/>
-    </row>
-    <row r="25" ht="16" customHeight="1">
+      <c r="E24" s="49" t="n"/>
+    </row>
+    <row r="25" ht="16" customHeight="1" s="52">
       <c r="A25" t="inlineStr">
         <is>
           <t>31T33</t>
@@ -51240,9 +51311,9 @@
         <f>SUM('USA Gross Output'!Z61)</f>
         <v/>
       </c>
-      <c r="E25" s="52" t="n"/>
-    </row>
-    <row r="26" ht="16" customHeight="1">
+      <c r="E25" s="49" t="n"/>
+    </row>
+    <row r="26" ht="16" customHeight="1" s="52">
       <c r="A26" t="n">
         <v>351</v>
       </c>
@@ -51250,9 +51321,9 @@
         <f>SUM('USA Gross Output'!Z20)*'USA County Business Patterns'!T32</f>
         <v/>
       </c>
-      <c r="E26" s="52" t="n"/>
-    </row>
-    <row r="27" ht="16" customHeight="1">
+      <c r="E26" s="49" t="n"/>
+    </row>
+    <row r="27" ht="16" customHeight="1" s="52">
       <c r="A27" t="inlineStr">
         <is>
           <t>352T353</t>
@@ -51262,9 +51333,9 @@
         <f>SUM('USA Gross Output'!Z20)*'USA County Business Patterns'!T33</f>
         <v/>
       </c>
-      <c r="E27" s="52" t="n"/>
-    </row>
-    <row r="28" ht="16" customHeight="1">
+      <c r="E27" s="49" t="n"/>
+    </row>
+    <row r="28" ht="16" customHeight="1" s="52">
       <c r="A28" t="inlineStr">
         <is>
           <t>36T39</t>
@@ -51274,9 +51345,9 @@
         <f>SUM('USA Gross Output'!Z20)*'USA County Business Patterns'!T34</f>
         <v/>
       </c>
-      <c r="E28" s="52" t="n"/>
-    </row>
-    <row r="29" ht="16" customHeight="1">
+      <c r="E28" s="49" t="n"/>
+    </row>
+    <row r="29" ht="16" customHeight="1" s="52">
       <c r="A29" t="inlineStr">
         <is>
           <t>41T43</t>
@@ -51286,9 +51357,9 @@
         <f>SUM('USA Gross Output'!Z23)</f>
         <v/>
       </c>
-      <c r="E29" s="52" t="n"/>
-    </row>
-    <row r="30" ht="16" customHeight="1">
+      <c r="E29" s="49" t="n"/>
+    </row>
+    <row r="30" ht="16" customHeight="1" s="52">
       <c r="A30" t="inlineStr">
         <is>
           <t>45T47</t>
@@ -51298,9 +51369,9 @@
         <f>SUM('USA Gross Output'!Z80,'USA Gross Output'!Z92)</f>
         <v/>
       </c>
-      <c r="E30" s="52" t="n"/>
-    </row>
-    <row r="31" ht="16" customHeight="1">
+      <c r="E30" s="49" t="n"/>
+    </row>
+    <row r="31" ht="16" customHeight="1" s="52">
       <c r="A31" t="inlineStr">
         <is>
           <t>49T53</t>
@@ -51310,9 +51381,9 @@
         <f>SUM('USA Gross Output'!Z103)</f>
         <v/>
       </c>
-      <c r="E31" s="52" t="n"/>
-    </row>
-    <row r="32" ht="16" customHeight="1">
+      <c r="E31" s="49" t="n"/>
+    </row>
+    <row r="32" ht="16" customHeight="1" s="52">
       <c r="A32" t="inlineStr">
         <is>
           <t>55T56</t>
@@ -51322,9 +51393,9 @@
         <f>SUM('USA Gross Output'!Z177)</f>
         <v/>
       </c>
-      <c r="E32" s="52" t="n"/>
-    </row>
-    <row r="33" ht="16" customHeight="1">
+      <c r="E32" s="49" t="n"/>
+    </row>
+    <row r="33" ht="16" customHeight="1" s="52">
       <c r="A33" t="inlineStr">
         <is>
           <t>58T60</t>
@@ -51334,9 +51405,9 @@
         <f>SUM('USA Gross Output'!Z115,'USA Gross Output'!Z118)</f>
         <v/>
       </c>
-      <c r="E33" s="52" t="n"/>
-    </row>
-    <row r="34" ht="16" customHeight="1">
+      <c r="E33" s="49" t="n"/>
+    </row>
+    <row r="34" ht="16" customHeight="1" s="52">
       <c r="A34" t="n">
         <v>61</v>
       </c>
@@ -51344,9 +51415,9 @@
         <f>SUM('USA Gross Output'!Z119)</f>
         <v/>
       </c>
-      <c r="E34" s="52" t="n"/>
-    </row>
-    <row r="35" ht="16" customHeight="1">
+      <c r="E34" s="49" t="n"/>
+    </row>
+    <row r="35" ht="16" customHeight="1" s="52">
       <c r="A35" t="inlineStr">
         <is>
           <t>62T63</t>
@@ -51356,9 +51427,9 @@
         <f>SUM('USA Gross Output'!Z124)</f>
         <v/>
       </c>
-      <c r="E35" s="52" t="n"/>
-    </row>
-    <row r="36" ht="16" customHeight="1">
+      <c r="E35" s="49" t="n"/>
+    </row>
+    <row r="36" ht="16" customHeight="1" s="52">
       <c r="A36" t="inlineStr">
         <is>
           <t>64T66</t>
@@ -51368,9 +51439,9 @@
         <f>SUM('USA Gross Output'!Z127)</f>
         <v/>
       </c>
-      <c r="E36" s="52" t="n"/>
-    </row>
-    <row r="37" ht="16" customHeight="1">
+      <c r="E36" s="49" t="n"/>
+    </row>
+    <row r="37" ht="16" customHeight="1" s="52">
       <c r="A37" t="n">
         <v>68</v>
       </c>
@@ -51378,9 +51449,9 @@
         <f>SUM('USA Gross Output'!Z136)</f>
         <v/>
       </c>
-      <c r="E37" s="52" t="n"/>
-    </row>
-    <row r="38" ht="16" customHeight="1">
+      <c r="E37" s="49" t="n"/>
+    </row>
+    <row r="38" ht="16" customHeight="1" s="52">
       <c r="A38" t="inlineStr">
         <is>
           <t>69T82</t>
@@ -51390,9 +51461,9 @@
         <f>SUM('USA Gross Output'!Z143)</f>
         <v/>
       </c>
-      <c r="E38" s="52" t="n"/>
-    </row>
-    <row r="39" ht="16" customHeight="1">
+      <c r="E38" s="49" t="n"/>
+    </row>
+    <row r="39" ht="16" customHeight="1" s="52">
       <c r="A39" t="n">
         <v>84</v>
       </c>
@@ -51400,9 +51471,9 @@
         <f>SUM('USA Gross Output'!Z185)</f>
         <v/>
       </c>
-      <c r="E39" s="52" t="n"/>
-    </row>
-    <row r="40" ht="16" customHeight="1">
+      <c r="E39" s="49" t="n"/>
+    </row>
+    <row r="40" ht="16" customHeight="1" s="52">
       <c r="A40" t="n">
         <v>85</v>
       </c>
@@ -51410,9 +51481,9 @@
         <f>SUM('USA Gross Output'!Z162)</f>
         <v/>
       </c>
-      <c r="E40" s="52" t="n"/>
-    </row>
-    <row r="41" ht="16" customHeight="1">
+      <c r="E40" s="49" t="n"/>
+    </row>
+    <row r="41" ht="16" customHeight="1" s="52">
       <c r="A41" t="inlineStr">
         <is>
           <t>86T88</t>
@@ -51422,9 +51493,9 @@
         <f>SUM('USA Gross Output'!Z163)</f>
         <v/>
       </c>
-      <c r="E41" s="52" t="n"/>
-    </row>
-    <row r="42" ht="16" customHeight="1">
+      <c r="E41" s="49" t="n"/>
+    </row>
+    <row r="42" ht="16" customHeight="1" s="52">
       <c r="A42" t="inlineStr">
         <is>
           <t>90T96</t>
@@ -51434,9 +51505,9 @@
         <f>SUM('USA Gross Output'!Z173)</f>
         <v/>
       </c>
-      <c r="E42" s="52" t="n"/>
-    </row>
-    <row r="43" ht="16" customHeight="1">
+      <c r="E42" s="49" t="n"/>
+    </row>
+    <row r="43" ht="16" customHeight="1" s="52">
       <c r="A43" t="inlineStr">
         <is>
           <t>97T98</t>
@@ -51446,22 +51517,22 @@
         <f>SUM('USA Gross Output'!Z184)</f>
         <v/>
       </c>
-      <c r="E43" s="52" t="n"/>
-    </row>
-    <row r="44" ht="16" customHeight="1">
-      <c r="E44" s="52" t="n"/>
-    </row>
-    <row r="45" ht="16" customHeight="1">
-      <c r="E45" s="52" t="n"/>
-    </row>
-    <row r="46" ht="16" customHeight="1">
-      <c r="E46" s="52" t="n"/>
-    </row>
-    <row r="47" ht="16" customHeight="1">
-      <c r="E47" s="52" t="n"/>
-    </row>
-    <row r="48" ht="16" customHeight="1">
-      <c r="E48" s="52" t="n"/>
+      <c r="E43" s="49" t="n"/>
+    </row>
+    <row r="44" ht="16" customHeight="1" s="52">
+      <c r="E44" s="49" t="n"/>
+    </row>
+    <row r="45" ht="16" customHeight="1" s="52">
+      <c r="E45" s="49" t="n"/>
+    </row>
+    <row r="46" ht="16" customHeight="1" s="52">
+      <c r="E46" s="49" t="n"/>
+    </row>
+    <row r="47" ht="16" customHeight="1" s="52">
+      <c r="E47" s="49" t="n"/>
+    </row>
+    <row r="48" ht="16" customHeight="1" s="52">
+      <c r="E48" s="49" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -51480,26 +51551,26 @@
       <selection activeCell="AJ7" sqref="AJ7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1796875" defaultRowHeight="13"/>
   <cols>
     <col width="27.5" customWidth="1" style="6" min="1" max="1"/>
     <col width="2.5" customWidth="1" style="6" min="2" max="2"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="3" max="23"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="3" max="23"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="24" max="26"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="27" max="30"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="27" max="30"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="31" max="36"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="37" max="38"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="37" max="38"/>
     <col width="10.5" bestFit="1" customWidth="1" style="6" min="39" max="39"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="40" max="40"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="40" max="40"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="41" max="42"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="43" max="45"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="43" max="45"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="46" max="46"/>
-    <col width="10.1640625" bestFit="1" customWidth="1" style="6" min="47" max="47"/>
-    <col width="9.1640625" customWidth="1" style="6" min="48" max="51"/>
-    <col width="9.1640625" customWidth="1" style="6" min="52" max="16384"/>
+    <col width="10.1796875" bestFit="1" customWidth="1" style="6" min="47" max="47"/>
+    <col width="9.1796875" customWidth="1" style="6" min="48" max="51"/>
+    <col width="9.1796875" customWidth="1" style="6" min="52" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" hidden="1">
+    <row r="1" hidden="1" s="52">
       <c r="A1" s="5">
         <f>DotStatQuery(B1)</f>
         <v/>
@@ -51510,248 +51581,248 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="23.25" customHeight="1">
+    <row r="2" ht="23.25" customHeight="1" s="52">
       <c r="A2" s="7" t="inlineStr">
         <is>
           <t>Dataset: Input-Output Tables 2018 edition</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="60" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="52">
+      <c r="A3" s="64" t="inlineStr">
         <is>
           <t>Variable</t>
         </is>
       </c>
-      <c r="B3" s="61" t="n"/>
-      <c r="C3" s="65" t="inlineStr">
+      <c r="B3" s="65" t="n"/>
+      <c r="C3" s="69" t="inlineStr">
         <is>
           <t>TTL: Total</t>
         </is>
       </c>
-      <c r="D3" s="63" t="n"/>
-      <c r="E3" s="63" t="n"/>
-      <c r="F3" s="63" t="n"/>
-      <c r="G3" s="63" t="n"/>
-      <c r="H3" s="63" t="n"/>
-      <c r="I3" s="63" t="n"/>
-      <c r="J3" s="63" t="n"/>
-      <c r="K3" s="63" t="n"/>
-      <c r="L3" s="63" t="n"/>
-      <c r="M3" s="63" t="n"/>
-      <c r="N3" s="63" t="n"/>
-      <c r="O3" s="63" t="n"/>
-      <c r="P3" s="63" t="n"/>
-      <c r="Q3" s="63" t="n"/>
-      <c r="R3" s="63" t="n"/>
-      <c r="S3" s="63" t="n"/>
-      <c r="T3" s="63" t="n"/>
-      <c r="U3" s="63" t="n"/>
-      <c r="V3" s="63" t="n"/>
-      <c r="W3" s="63" t="n"/>
-      <c r="X3" s="63" t="n"/>
-      <c r="Y3" s="63" t="n"/>
-      <c r="Z3" s="63" t="n"/>
-      <c r="AA3" s="63" t="n"/>
-      <c r="AB3" s="63" t="n"/>
-      <c r="AC3" s="63" t="n"/>
-      <c r="AD3" s="63" t="n"/>
-      <c r="AE3" s="63" t="n"/>
-      <c r="AF3" s="63" t="n"/>
-      <c r="AG3" s="63" t="n"/>
-      <c r="AH3" s="63" t="n"/>
-      <c r="AI3" s="63" t="n"/>
-      <c r="AJ3" s="63" t="n"/>
-      <c r="AK3" s="63" t="n"/>
-      <c r="AL3" s="63" t="n"/>
-      <c r="AM3" s="63" t="n"/>
-      <c r="AN3" s="63" t="n"/>
-      <c r="AO3" s="63" t="n"/>
-      <c r="AP3" s="63" t="n"/>
-      <c r="AQ3" s="63" t="n"/>
-      <c r="AR3" s="63" t="n"/>
-      <c r="AS3" s="63" t="n"/>
-      <c r="AT3" s="63" t="n"/>
-      <c r="AU3" s="61" t="n"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="60" t="inlineStr">
+      <c r="D3" s="67" t="n"/>
+      <c r="E3" s="67" t="n"/>
+      <c r="F3" s="67" t="n"/>
+      <c r="G3" s="67" t="n"/>
+      <c r="H3" s="67" t="n"/>
+      <c r="I3" s="67" t="n"/>
+      <c r="J3" s="67" t="n"/>
+      <c r="K3" s="67" t="n"/>
+      <c r="L3" s="67" t="n"/>
+      <c r="M3" s="67" t="n"/>
+      <c r="N3" s="67" t="n"/>
+      <c r="O3" s="67" t="n"/>
+      <c r="P3" s="67" t="n"/>
+      <c r="Q3" s="67" t="n"/>
+      <c r="R3" s="67" t="n"/>
+      <c r="S3" s="67" t="n"/>
+      <c r="T3" s="67" t="n"/>
+      <c r="U3" s="67" t="n"/>
+      <c r="V3" s="67" t="n"/>
+      <c r="W3" s="67" t="n"/>
+      <c r="X3" s="67" t="n"/>
+      <c r="Y3" s="67" t="n"/>
+      <c r="Z3" s="67" t="n"/>
+      <c r="AA3" s="67" t="n"/>
+      <c r="AB3" s="67" t="n"/>
+      <c r="AC3" s="67" t="n"/>
+      <c r="AD3" s="67" t="n"/>
+      <c r="AE3" s="67" t="n"/>
+      <c r="AF3" s="67" t="n"/>
+      <c r="AG3" s="67" t="n"/>
+      <c r="AH3" s="67" t="n"/>
+      <c r="AI3" s="67" t="n"/>
+      <c r="AJ3" s="67" t="n"/>
+      <c r="AK3" s="67" t="n"/>
+      <c r="AL3" s="67" t="n"/>
+      <c r="AM3" s="67" t="n"/>
+      <c r="AN3" s="67" t="n"/>
+      <c r="AO3" s="67" t="n"/>
+      <c r="AP3" s="67" t="n"/>
+      <c r="AQ3" s="67" t="n"/>
+      <c r="AR3" s="67" t="n"/>
+      <c r="AS3" s="67" t="n"/>
+      <c r="AT3" s="67" t="n"/>
+      <c r="AU3" s="65" t="n"/>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="52">
+      <c r="A4" s="64" t="inlineStr">
         <is>
           <t>Country</t>
         </is>
       </c>
-      <c r="B4" s="61" t="n"/>
-      <c r="C4" s="62" t="inlineStr">
+      <c r="B4" s="65" t="n"/>
+      <c r="C4" s="66" t="inlineStr">
         <is>
           <t>USA: United States</t>
         </is>
       </c>
-      <c r="D4" s="63" t="n"/>
-      <c r="E4" s="63" t="n"/>
-      <c r="F4" s="63" t="n"/>
-      <c r="G4" s="63" t="n"/>
-      <c r="H4" s="63" t="n"/>
-      <c r="I4" s="63" t="n"/>
-      <c r="J4" s="63" t="n"/>
-      <c r="K4" s="63" t="n"/>
-      <c r="L4" s="63" t="n"/>
-      <c r="M4" s="63" t="n"/>
-      <c r="N4" s="63" t="n"/>
-      <c r="O4" s="63" t="n"/>
-      <c r="P4" s="63" t="n"/>
-      <c r="Q4" s="63" t="n"/>
-      <c r="R4" s="63" t="n"/>
-      <c r="S4" s="63" t="n"/>
-      <c r="T4" s="63" t="n"/>
-      <c r="U4" s="63" t="n"/>
-      <c r="V4" s="63" t="n"/>
-      <c r="W4" s="63" t="n"/>
-      <c r="X4" s="63" t="n"/>
-      <c r="Y4" s="63" t="n"/>
-      <c r="Z4" s="63" t="n"/>
-      <c r="AA4" s="63" t="n"/>
-      <c r="AB4" s="63" t="n"/>
-      <c r="AC4" s="63" t="n"/>
-      <c r="AD4" s="63" t="n"/>
-      <c r="AE4" s="63" t="n"/>
-      <c r="AF4" s="63" t="n"/>
-      <c r="AG4" s="63" t="n"/>
-      <c r="AH4" s="63" t="n"/>
-      <c r="AI4" s="63" t="n"/>
-      <c r="AJ4" s="63" t="n"/>
-      <c r="AK4" s="63" t="n"/>
-      <c r="AL4" s="63" t="n"/>
-      <c r="AM4" s="63" t="n"/>
-      <c r="AN4" s="63" t="n"/>
-      <c r="AO4" s="63" t="n"/>
-      <c r="AP4" s="63" t="n"/>
-      <c r="AQ4" s="63" t="n"/>
-      <c r="AR4" s="63" t="n"/>
-      <c r="AS4" s="63" t="n"/>
-      <c r="AT4" s="63" t="n"/>
-      <c r="AU4" s="61" t="n"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="60" t="inlineStr">
+      <c r="D4" s="67" t="n"/>
+      <c r="E4" s="67" t="n"/>
+      <c r="F4" s="67" t="n"/>
+      <c r="G4" s="67" t="n"/>
+      <c r="H4" s="67" t="n"/>
+      <c r="I4" s="67" t="n"/>
+      <c r="J4" s="67" t="n"/>
+      <c r="K4" s="67" t="n"/>
+      <c r="L4" s="67" t="n"/>
+      <c r="M4" s="67" t="n"/>
+      <c r="N4" s="67" t="n"/>
+      <c r="O4" s="67" t="n"/>
+      <c r="P4" s="67" t="n"/>
+      <c r="Q4" s="67" t="n"/>
+      <c r="R4" s="67" t="n"/>
+      <c r="S4" s="67" t="n"/>
+      <c r="T4" s="67" t="n"/>
+      <c r="U4" s="67" t="n"/>
+      <c r="V4" s="67" t="n"/>
+      <c r="W4" s="67" t="n"/>
+      <c r="X4" s="67" t="n"/>
+      <c r="Y4" s="67" t="n"/>
+      <c r="Z4" s="67" t="n"/>
+      <c r="AA4" s="67" t="n"/>
+      <c r="AB4" s="67" t="n"/>
+      <c r="AC4" s="67" t="n"/>
+      <c r="AD4" s="67" t="n"/>
+      <c r="AE4" s="67" t="n"/>
+      <c r="AF4" s="67" t="n"/>
+      <c r="AG4" s="67" t="n"/>
+      <c r="AH4" s="67" t="n"/>
+      <c r="AI4" s="67" t="n"/>
+      <c r="AJ4" s="67" t="n"/>
+      <c r="AK4" s="67" t="n"/>
+      <c r="AL4" s="67" t="n"/>
+      <c r="AM4" s="67" t="n"/>
+      <c r="AN4" s="67" t="n"/>
+      <c r="AO4" s="67" t="n"/>
+      <c r="AP4" s="67" t="n"/>
+      <c r="AQ4" s="67" t="n"/>
+      <c r="AR4" s="67" t="n"/>
+      <c r="AS4" s="67" t="n"/>
+      <c r="AT4" s="67" t="n"/>
+      <c r="AU4" s="65" t="n"/>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="52">
+      <c r="A5" s="64" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B5" s="61" t="n"/>
-      <c r="C5" s="62" t="inlineStr">
+      <c r="B5" s="65" t="n"/>
+      <c r="C5" s="66" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="D5" s="63" t="n"/>
-      <c r="E5" s="63" t="n"/>
-      <c r="F5" s="63" t="n"/>
-      <c r="G5" s="63" t="n"/>
-      <c r="H5" s="63" t="n"/>
-      <c r="I5" s="63" t="n"/>
-      <c r="J5" s="63" t="n"/>
-      <c r="K5" s="63" t="n"/>
-      <c r="L5" s="63" t="n"/>
-      <c r="M5" s="63" t="n"/>
-      <c r="N5" s="63" t="n"/>
-      <c r="O5" s="63" t="n"/>
-      <c r="P5" s="63" t="n"/>
-      <c r="Q5" s="63" t="n"/>
-      <c r="R5" s="63" t="n"/>
-      <c r="S5" s="63" t="n"/>
-      <c r="T5" s="63" t="n"/>
-      <c r="U5" s="63" t="n"/>
-      <c r="V5" s="63" t="n"/>
-      <c r="W5" s="63" t="n"/>
-      <c r="X5" s="63" t="n"/>
-      <c r="Y5" s="63" t="n"/>
-      <c r="Z5" s="63" t="n"/>
-      <c r="AA5" s="63" t="n"/>
-      <c r="AB5" s="63" t="n"/>
-      <c r="AC5" s="63" t="n"/>
-      <c r="AD5" s="63" t="n"/>
-      <c r="AE5" s="63" t="n"/>
-      <c r="AF5" s="63" t="n"/>
-      <c r="AG5" s="63" t="n"/>
-      <c r="AH5" s="63" t="n"/>
-      <c r="AI5" s="63" t="n"/>
-      <c r="AJ5" s="63" t="n"/>
-      <c r="AK5" s="63" t="n"/>
-      <c r="AL5" s="63" t="n"/>
-      <c r="AM5" s="63" t="n"/>
-      <c r="AN5" s="63" t="n"/>
-      <c r="AO5" s="63" t="n"/>
-      <c r="AP5" s="63" t="n"/>
-      <c r="AQ5" s="63" t="n"/>
-      <c r="AR5" s="63" t="n"/>
-      <c r="AS5" s="63" t="n"/>
-      <c r="AT5" s="63" t="n"/>
-      <c r="AU5" s="61" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="60" t="inlineStr">
+      <c r="D5" s="67" t="n"/>
+      <c r="E5" s="67" t="n"/>
+      <c r="F5" s="67" t="n"/>
+      <c r="G5" s="67" t="n"/>
+      <c r="H5" s="67" t="n"/>
+      <c r="I5" s="67" t="n"/>
+      <c r="J5" s="67" t="n"/>
+      <c r="K5" s="67" t="n"/>
+      <c r="L5" s="67" t="n"/>
+      <c r="M5" s="67" t="n"/>
+      <c r="N5" s="67" t="n"/>
+      <c r="O5" s="67" t="n"/>
+      <c r="P5" s="67" t="n"/>
+      <c r="Q5" s="67" t="n"/>
+      <c r="R5" s="67" t="n"/>
+      <c r="S5" s="67" t="n"/>
+      <c r="T5" s="67" t="n"/>
+      <c r="U5" s="67" t="n"/>
+      <c r="V5" s="67" t="n"/>
+      <c r="W5" s="67" t="n"/>
+      <c r="X5" s="67" t="n"/>
+      <c r="Y5" s="67" t="n"/>
+      <c r="Z5" s="67" t="n"/>
+      <c r="AA5" s="67" t="n"/>
+      <c r="AB5" s="67" t="n"/>
+      <c r="AC5" s="67" t="n"/>
+      <c r="AD5" s="67" t="n"/>
+      <c r="AE5" s="67" t="n"/>
+      <c r="AF5" s="67" t="n"/>
+      <c r="AG5" s="67" t="n"/>
+      <c r="AH5" s="67" t="n"/>
+      <c r="AI5" s="67" t="n"/>
+      <c r="AJ5" s="67" t="n"/>
+      <c r="AK5" s="67" t="n"/>
+      <c r="AL5" s="67" t="n"/>
+      <c r="AM5" s="67" t="n"/>
+      <c r="AN5" s="67" t="n"/>
+      <c r="AO5" s="67" t="n"/>
+      <c r="AP5" s="67" t="n"/>
+      <c r="AQ5" s="67" t="n"/>
+      <c r="AR5" s="67" t="n"/>
+      <c r="AS5" s="67" t="n"/>
+      <c r="AT5" s="67" t="n"/>
+      <c r="AU5" s="65" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" s="52">
+      <c r="A6" s="64" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="B6" s="61" t="n"/>
-      <c r="C6" s="62" t="inlineStr">
+      <c r="B6" s="65" t="n"/>
+      <c r="C6" s="66" t="inlineStr">
         <is>
           <t>US Dollar, Millions</t>
         </is>
       </c>
-      <c r="D6" s="63" t="n"/>
-      <c r="E6" s="63" t="n"/>
-      <c r="F6" s="63" t="n"/>
-      <c r="G6" s="63" t="n"/>
-      <c r="H6" s="63" t="n"/>
-      <c r="I6" s="63" t="n"/>
-      <c r="J6" s="63" t="n"/>
-      <c r="K6" s="63" t="n"/>
-      <c r="L6" s="63" t="n"/>
-      <c r="M6" s="63" t="n"/>
-      <c r="N6" s="63" t="n"/>
-      <c r="O6" s="63" t="n"/>
-      <c r="P6" s="63" t="n"/>
-      <c r="Q6" s="63" t="n"/>
-      <c r="R6" s="63" t="n"/>
-      <c r="S6" s="63" t="n"/>
-      <c r="T6" s="63" t="n"/>
-      <c r="U6" s="63" t="n"/>
-      <c r="V6" s="63" t="n"/>
-      <c r="W6" s="63" t="n"/>
-      <c r="X6" s="63" t="n"/>
-      <c r="Y6" s="63" t="n"/>
-      <c r="Z6" s="63" t="n"/>
-      <c r="AA6" s="63" t="n"/>
-      <c r="AB6" s="63" t="n"/>
-      <c r="AC6" s="63" t="n"/>
-      <c r="AD6" s="63" t="n"/>
-      <c r="AE6" s="63" t="n"/>
-      <c r="AF6" s="63" t="n"/>
-      <c r="AG6" s="63" t="n"/>
-      <c r="AH6" s="63" t="n"/>
-      <c r="AI6" s="63" t="n"/>
-      <c r="AJ6" s="63" t="n"/>
-      <c r="AK6" s="63" t="n"/>
-      <c r="AL6" s="63" t="n"/>
-      <c r="AM6" s="63" t="n"/>
-      <c r="AN6" s="63" t="n"/>
-      <c r="AO6" s="63" t="n"/>
-      <c r="AP6" s="63" t="n"/>
-      <c r="AQ6" s="63" t="n"/>
-      <c r="AR6" s="63" t="n"/>
-      <c r="AS6" s="63" t="n"/>
-      <c r="AT6" s="63" t="n"/>
-      <c r="AU6" s="61" t="n"/>
-    </row>
-    <row r="7" ht="126" customHeight="1">
-      <c r="A7" s="64" t="inlineStr">
+      <c r="D6" s="67" t="n"/>
+      <c r="E6" s="67" t="n"/>
+      <c r="F6" s="67" t="n"/>
+      <c r="G6" s="67" t="n"/>
+      <c r="H6" s="67" t="n"/>
+      <c r="I6" s="67" t="n"/>
+      <c r="J6" s="67" t="n"/>
+      <c r="K6" s="67" t="n"/>
+      <c r="L6" s="67" t="n"/>
+      <c r="M6" s="67" t="n"/>
+      <c r="N6" s="67" t="n"/>
+      <c r="O6" s="67" t="n"/>
+      <c r="P6" s="67" t="n"/>
+      <c r="Q6" s="67" t="n"/>
+      <c r="R6" s="67" t="n"/>
+      <c r="S6" s="67" t="n"/>
+      <c r="T6" s="67" t="n"/>
+      <c r="U6" s="67" t="n"/>
+      <c r="V6" s="67" t="n"/>
+      <c r="W6" s="67" t="n"/>
+      <c r="X6" s="67" t="n"/>
+      <c r="Y6" s="67" t="n"/>
+      <c r="Z6" s="67" t="n"/>
+      <c r="AA6" s="67" t="n"/>
+      <c r="AB6" s="67" t="n"/>
+      <c r="AC6" s="67" t="n"/>
+      <c r="AD6" s="67" t="n"/>
+      <c r="AE6" s="67" t="n"/>
+      <c r="AF6" s="67" t="n"/>
+      <c r="AG6" s="67" t="n"/>
+      <c r="AH6" s="67" t="n"/>
+      <c r="AI6" s="67" t="n"/>
+      <c r="AJ6" s="67" t="n"/>
+      <c r="AK6" s="67" t="n"/>
+      <c r="AL6" s="67" t="n"/>
+      <c r="AM6" s="67" t="n"/>
+      <c r="AN6" s="67" t="n"/>
+      <c r="AO6" s="67" t="n"/>
+      <c r="AP6" s="67" t="n"/>
+      <c r="AQ6" s="67" t="n"/>
+      <c r="AR6" s="67" t="n"/>
+      <c r="AS6" s="67" t="n"/>
+      <c r="AT6" s="67" t="n"/>
+      <c r="AU6" s="65" t="n"/>
+    </row>
+    <row r="7" ht="126" customHeight="1" s="52">
+      <c r="A7" s="68" t="inlineStr">
         <is>
           <t>To: (sector in column)</t>
         </is>
       </c>
-      <c r="B7" s="61" t="n"/>
+      <c r="B7" s="65" t="n"/>
       <c r="C7" s="8" t="inlineStr">
         <is>
           <t>D01T03: Agriculture, forestry and fishing</t>
@@ -51978,7 +52049,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="13.5" customHeight="1">
+    <row r="8" ht="13.5" customHeight="1" s="52">
       <c r="A8" s="9" t="inlineStr">
         <is>
           <t>From: (sector in row)</t>
@@ -52031,7 +52102,7 @@
       <c r="AT8" s="10" t="n"/>
       <c r="AU8" s="10" t="n"/>
     </row>
-    <row r="9" ht="21" customHeight="1">
+    <row r="9" ht="21" customHeight="1" s="52">
       <c r="A9" s="11" t="inlineStr">
         <is>
           <t>TTL_01T03: Agriculture, forestry and fishing</t>
@@ -52174,7 +52245,7 @@
         <v>-37816</v>
       </c>
     </row>
-    <row r="10" ht="31.5" customHeight="1">
+    <row r="10" ht="31.5" customHeight="1" s="52">
       <c r="A10" s="11" t="inlineStr">
         <is>
           <t>TTL_05T06: Mining and extraction of energy producing products</t>
@@ -52317,7 +52388,7 @@
         <v>-161022.9</v>
       </c>
     </row>
-    <row r="11" ht="31.5" customHeight="1">
+    <row r="11" ht="31.5" customHeight="1" s="52">
       <c r="A11" s="11" t="inlineStr">
         <is>
           <t>TTL_07T08: Mining and quarrying of non-energy producing products</t>
@@ -52460,7 +52531,7 @@
         <v>-7908.2</v>
       </c>
     </row>
-    <row r="12" ht="21" customHeight="1">
+    <row r="12" ht="21" customHeight="1" s="52">
       <c r="A12" s="11" t="inlineStr">
         <is>
           <t>TTL_09: Mining support service activities</t>
@@ -52603,7 +52674,7 @@
         <v>-1554.4</v>
       </c>
     </row>
-    <row r="13" ht="21" customHeight="1">
+    <row r="13" ht="21" customHeight="1" s="52">
       <c r="A13" s="11" t="inlineStr">
         <is>
           <t>TTL_10T12: Food products, beverages and tobacco</t>
@@ -52746,7 +52817,7 @@
         <v>-84486.2</v>
       </c>
     </row>
-    <row r="14" ht="31.5" customHeight="1">
+    <row r="14" ht="31.5" customHeight="1" s="52">
       <c r="A14" s="11" t="inlineStr">
         <is>
           <t>TTL_13T15: Textiles, wearing apparel, leather and related products</t>
@@ -52889,7 +52960,7 @@
         <v>-145065.5</v>
       </c>
     </row>
-    <row r="15" ht="31.5" customHeight="1">
+    <row r="15" ht="31.5" customHeight="1" s="52">
       <c r="A15" s="11" t="inlineStr">
         <is>
           <t>TTL_16: Wood and of products of wood and cork (except furniture)</t>
@@ -53032,7 +53103,7 @@
         <v>-16997.3</v>
       </c>
     </row>
-    <row r="16" ht="21" customHeight="1">
+    <row r="16" ht="21" customHeight="1" s="52">
       <c r="A16" s="11" t="inlineStr">
         <is>
           <t>TTL_17T18: Paper products and printing</t>
@@ -53175,7 +53246,7 @@
         <v>-23813.7</v>
       </c>
     </row>
-    <row r="17" ht="21" customHeight="1">
+    <row r="17" ht="21" customHeight="1" s="52">
       <c r="A17" s="11" t="inlineStr">
         <is>
           <t>TTL_19: Coke and refined petroleum products</t>
@@ -53318,7 +53389,7 @@
         <v>-55734.3</v>
       </c>
     </row>
-    <row r="18" ht="21" customHeight="1">
+    <row r="18" ht="21" customHeight="1" s="52">
       <c r="A18" s="11" t="inlineStr">
         <is>
           <t>TTL_20T21: Chemicals and pharmaceutical products</t>
@@ -53461,7 +53532,7 @@
         <v>-165140.7</v>
       </c>
     </row>
-    <row r="19" ht="21" customHeight="1">
+    <row r="19" ht="21" customHeight="1" s="52">
       <c r="A19" s="11" t="inlineStr">
         <is>
           <t>TTL_22: Rubber and plastics products</t>
@@ -53604,7 +53675,7 @@
         <v>-49527.3</v>
       </c>
     </row>
-    <row r="20" ht="21" customHeight="1">
+    <row r="20" ht="21" customHeight="1" s="52">
       <c r="A20" s="11" t="inlineStr">
         <is>
           <t>TTL_23: Other non-metallic mineral products</t>
@@ -53747,7 +53818,7 @@
         <v>-26110.4</v>
       </c>
     </row>
-    <row r="21" ht="21" customHeight="1">
+    <row r="21" ht="21" customHeight="1" s="52">
       <c r="A21" s="11" t="inlineStr">
         <is>
           <t>TTL_24: Manufacture of basic metals</t>
@@ -53890,7 +53961,7 @@
         <v>-77529.89999999999</v>
       </c>
     </row>
-    <row r="22" ht="31.5" customHeight="1">
+    <row r="22" ht="31.5" customHeight="1" s="52">
       <c r="A22" s="11" t="inlineStr">
         <is>
           <t>TTL_25: Fabricated metal products, except machinery and equipment</t>
@@ -54033,7 +54104,7 @@
         <v>-65502.4</v>
       </c>
     </row>
-    <row r="23" ht="21" customHeight="1">
+    <row r="23" ht="21" customHeight="1" s="52">
       <c r="A23" s="11" t="inlineStr">
         <is>
           <t>TTL_26: Computer, electronic and optical products</t>
@@ -54176,7 +54247,7 @@
         <v>-240846.5</v>
       </c>
     </row>
-    <row r="24" ht="13.5" customHeight="1">
+    <row r="24" ht="13.5" customHeight="1" s="52">
       <c r="A24" s="11" t="inlineStr">
         <is>
           <t>TTL_27: Electrical equipment</t>
@@ -54319,7 +54390,7 @@
         <v>-88431.10000000001</v>
       </c>
     </row>
-    <row r="25" ht="21" customHeight="1">
+    <row r="25" ht="21" customHeight="1" s="52">
       <c r="A25" s="11" t="inlineStr">
         <is>
           <t>TTL_28: Machinery and equipment n.e.c.</t>
@@ -54462,7 +54533,7 @@
         <v>-128475.8</v>
       </c>
     </row>
-    <row r="26" ht="21" customHeight="1">
+    <row r="26" ht="21" customHeight="1" s="52">
       <c r="A26" s="11" t="inlineStr">
         <is>
           <t>TTL_29: Motor vehicles, trailers and semi-trailers</t>
@@ -54605,7 +54676,7 @@
         <v>-306727.1</v>
       </c>
     </row>
-    <row r="27" ht="21" customHeight="1">
+    <row r="27" ht="21" customHeight="1" s="52">
       <c r="A27" s="11" t="inlineStr">
         <is>
           <t>TTL_30: Other transport equipment</t>
@@ -54748,7 +54819,7 @@
         <v>-61444.6</v>
       </c>
     </row>
-    <row r="28" ht="42" customHeight="1">
+    <row r="28" ht="42" customHeight="1" s="52">
       <c r="A28" s="11" t="inlineStr">
         <is>
           <t>TTL_31T33: Other manufacturing; repair and installation of machinery and equipment</t>
@@ -54891,7 +54962,7 @@
         <v>-99643.3</v>
       </c>
     </row>
-    <row r="29" ht="31.5" customHeight="1">
+    <row r="29" ht="31.5" customHeight="1" s="52">
       <c r="A29" s="11" t="inlineStr">
         <is>
           <t>TTL_35T39: Electricity, gas, water supply, sewerage, waste and remediation services</t>
@@ -55034,7 +55105,7 @@
         <v>-4933</v>
       </c>
     </row>
-    <row r="30" ht="13.5" customHeight="1">
+    <row r="30" ht="13.5" customHeight="1" s="52">
       <c r="A30" s="11" t="inlineStr">
         <is>
           <t>TTL_41T43: Construction</t>
@@ -55177,7 +55248,7 @@
         <v>-1563</v>
       </c>
     </row>
-    <row r="31" ht="31.5" customHeight="1">
+    <row r="31" ht="31.5" customHeight="1" s="52">
       <c r="A31" s="11" t="inlineStr">
         <is>
           <t>TTL_45T47: Wholesale and retail trade; repair of motor vehicles</t>
@@ -55320,7 +55391,7 @@
         <v>-197714.9</v>
       </c>
     </row>
-    <row r="32" ht="21" customHeight="1">
+    <row r="32" ht="21" customHeight="1" s="52">
       <c r="A32" s="11" t="inlineStr">
         <is>
           <t>TTL_49T53: Transportation and storage</t>
@@ -55463,7 +55534,7 @@
         <v>-127601.9</v>
       </c>
     </row>
-    <row r="33" ht="21" customHeight="1">
+    <row r="33" ht="21" customHeight="1" s="52">
       <c r="A33" s="11" t="inlineStr">
         <is>
           <t>TTL_55T56: Accomodation and food services</t>
@@ -55606,7 +55677,7 @@
         <v>-51797.3</v>
       </c>
     </row>
-    <row r="34" ht="31.5" customHeight="1">
+    <row r="34" ht="31.5" customHeight="1" s="52">
       <c r="A34" s="11" t="inlineStr">
         <is>
           <t>TTL_58T60: Publishing, audiovisual and broadcasting activities</t>
@@ -55749,7 +55820,7 @@
         <v>-11993.5</v>
       </c>
     </row>
-    <row r="35" ht="13.5" customHeight="1">
+    <row r="35" ht="13.5" customHeight="1" s="52">
       <c r="A35" s="11" t="inlineStr">
         <is>
           <t>TTL_61: Telecommunications</t>
@@ -55892,7 +55963,7 @@
         <v>-3766.8</v>
       </c>
     </row>
-    <row r="36" ht="21" customHeight="1">
+    <row r="36" ht="21" customHeight="1" s="52">
       <c r="A36" s="11" t="inlineStr">
         <is>
           <t>TTL_62T63: IT and other information services</t>
@@ -56035,7 +56106,7 @@
         <v>-62979.2</v>
       </c>
     </row>
-    <row r="37" ht="21" customHeight="1">
+    <row r="37" ht="21" customHeight="1" s="52">
       <c r="A37" s="11" t="inlineStr">
         <is>
           <t>TTL_64T66: Financial and insurance activities</t>
@@ -56178,7 +56249,7 @@
         <v>-56936.7</v>
       </c>
     </row>
-    <row r="38" ht="13.5" customHeight="1">
+    <row r="38" ht="13.5" customHeight="1" s="52">
       <c r="A38" s="11" t="inlineStr">
         <is>
           <t>TTL_68: Real estate activities</t>
@@ -56321,7 +56392,7 @@
         <v>-10003</v>
       </c>
     </row>
-    <row r="39" ht="21" customHeight="1">
+    <row r="39" ht="21" customHeight="1" s="52">
       <c r="A39" s="11" t="inlineStr">
         <is>
           <t>TTL_69T82: Other business sector services</t>
@@ -56464,7 +56535,7 @@
         <v>-132575.6</v>
       </c>
     </row>
-    <row r="40" ht="31.5" customHeight="1">
+    <row r="40" ht="31.5" customHeight="1" s="52">
       <c r="A40" s="11" t="inlineStr">
         <is>
           <t>TTL_84: Public administration and defence; compulsory social security</t>
@@ -56607,7 +56678,7 @@
         <v>-2410.8</v>
       </c>
     </row>
-    <row r="41" ht="13.5" customHeight="1">
+    <row r="41" ht="13.5" customHeight="1" s="52">
       <c r="A41" s="11" t="inlineStr">
         <is>
           <t>TTL_85: Education</t>
@@ -56750,7 +56821,7 @@
         <v>-11121.3</v>
       </c>
     </row>
-    <row r="42" ht="21" customHeight="1">
+    <row r="42" ht="21" customHeight="1" s="52">
       <c r="A42" s="11" t="inlineStr">
         <is>
           <t>TTL_86T88: Human health and social work</t>
@@ -56893,7 +56964,7 @@
         <v>-2867.1</v>
       </c>
     </row>
-    <row r="43" ht="31.5" customHeight="1">
+    <row r="43" ht="31.5" customHeight="1" s="52">
       <c r="A43" s="11" t="inlineStr">
         <is>
           <t>TTL_90T96: Arts, entertainment, recreation and other service activities</t>
@@ -57036,7 +57107,7 @@
         <v>-8872.6</v>
       </c>
     </row>
-    <row r="44" ht="21" customHeight="1">
+    <row r="44" ht="21" customHeight="1" s="52">
       <c r="A44" s="11" t="inlineStr">
         <is>
           <t>TTL_97T98: Private households with employed persons</t>
@@ -57179,7 +57250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" ht="42" customHeight="1">
+    <row r="45" ht="42" customHeight="1" s="52">
       <c r="A45" s="11" t="inlineStr">
         <is>
           <t>TXS_IMP_FNL: Taxes less subsidies on intermediate and final products (paid in foreign countries)</t>
@@ -57322,7 +57393,7 @@
         <v>-52880.8</v>
       </c>
     </row>
-    <row r="46" ht="52.5" customHeight="1">
+    <row r="46" ht="52.5" customHeight="1" s="52">
       <c r="A46" s="11" t="inlineStr">
         <is>
           <t>TXS_INT_FNL: Taxes less subsidies on intermediate and final products (paid in domestic agencies, includes duty on imported products)</t>
@@ -57465,7 +57536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" ht="31.5" customHeight="1">
+    <row r="47" ht="31.5" customHeight="1" s="52">
       <c r="A47" s="11" t="inlineStr">
         <is>
           <t>TTL_INT_FNL: Total intermediate consumption at purchasers’ prices</t>
@@ -57608,7 +57679,7 @@
         <v>-2583795.2</v>
       </c>
     </row>
-    <row r="48" ht="21" customHeight="1">
+    <row r="48" ht="21" customHeight="1" s="52">
       <c r="A48" s="11" t="inlineStr">
         <is>
           <t>VALU: Value added at basic prices</t>
@@ -57751,7 +57822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" ht="13.5" customHeight="1">
+    <row r="49" ht="13.5" customHeight="1" s="52">
       <c r="A49" s="11" t="inlineStr">
         <is>
           <t>OUTPUT: Output at basic prices</t>
@@ -57935,14 +58006,14 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
-    <col width="27.5" customWidth="1" min="1" max="1"/>
-    <col width="2.5" customWidth="1" min="2" max="2"/>
-    <col width="14.1640625" customWidth="1" min="3" max="14"/>
+    <col width="27.5" customWidth="1" style="52" min="1" max="1"/>
+    <col width="2.5" customWidth="1" style="52" min="2" max="2"/>
+    <col width="14.1796875" customWidth="1" style="52" min="3" max="14"/>
   </cols>
   <sheetData>
-    <row r="1" hidden="1">
+    <row r="1" hidden="1" s="52">
       <c r="A1" s="17">
         <f>DotStatQuery(B1)</f>
         <v/>
@@ -57953,7 +58024,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="24" customHeight="1">
+    <row r="2" ht="24" customHeight="1" s="52">
       <c r="A2" s="18" t="inlineStr">
         <is>
           <t>Dataset: STAN Industrial Analysis (2020 ed.)</t>
@@ -57961,80 +58032,80 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="67" t="inlineStr">
+      <c r="A3" s="71" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B3" s="61" t="n"/>
-      <c r="C3" s="68" t="inlineStr">
+      <c r="B3" s="65" t="n"/>
+      <c r="C3" s="72" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="D3" s="63" t="n"/>
-      <c r="E3" s="63" t="n"/>
-      <c r="F3" s="63" t="n"/>
-      <c r="G3" s="63" t="n"/>
-      <c r="H3" s="63" t="n"/>
-      <c r="I3" s="63" t="n"/>
-      <c r="J3" s="63" t="n"/>
-      <c r="K3" s="63" t="n"/>
-      <c r="L3" s="63" t="n"/>
-      <c r="M3" s="63" t="n"/>
-      <c r="N3" s="61" t="n"/>
-    </row>
-    <row r="4" ht="24" customHeight="1">
-      <c r="A4" s="66" t="inlineStr">
+      <c r="D3" s="67" t="n"/>
+      <c r="E3" s="67" t="n"/>
+      <c r="F3" s="67" t="n"/>
+      <c r="G3" s="67" t="n"/>
+      <c r="H3" s="67" t="n"/>
+      <c r="I3" s="67" t="n"/>
+      <c r="J3" s="67" t="n"/>
+      <c r="K3" s="67" t="n"/>
+      <c r="L3" s="67" t="n"/>
+      <c r="M3" s="67" t="n"/>
+      <c r="N3" s="65" t="n"/>
+    </row>
+    <row r="4" ht="24" customHeight="1" s="52">
+      <c r="A4" s="70" t="inlineStr">
         <is>
           <t>Variable</t>
         </is>
       </c>
-      <c r="B4" s="61" t="n"/>
-      <c r="C4" s="69" t="inlineStr">
+      <c r="B4" s="65" t="n"/>
+      <c r="C4" s="73" t="inlineStr">
         <is>
           <t>PROD: Production (gross output), current prices</t>
         </is>
       </c>
-      <c r="D4" s="61" t="n"/>
-      <c r="E4" s="69" t="inlineStr">
+      <c r="D4" s="65" t="n"/>
+      <c r="E4" s="73" t="inlineStr">
         <is>
           <t>VALU: Value added, current prices</t>
         </is>
       </c>
-      <c r="F4" s="61" t="n"/>
-      <c r="G4" s="69" t="inlineStr">
+      <c r="F4" s="65" t="n"/>
+      <c r="G4" s="73" t="inlineStr">
         <is>
           <t>LABR: Labour costs (compensation of employees)</t>
         </is>
       </c>
-      <c r="H4" s="61" t="n"/>
-      <c r="I4" s="69" t="inlineStr">
+      <c r="H4" s="65" t="n"/>
+      <c r="I4" s="73" t="inlineStr">
         <is>
           <t>GOPS: Gross operating surplus and mixed income</t>
         </is>
       </c>
-      <c r="J4" s="61" t="n"/>
-      <c r="K4" s="69" t="inlineStr">
+      <c r="J4" s="65" t="n"/>
+      <c r="K4" s="73" t="inlineStr">
         <is>
           <t>OTXS: Other taxes less subsidies on production</t>
         </is>
       </c>
-      <c r="L4" s="61" t="n"/>
-      <c r="M4" s="69" t="inlineStr">
+      <c r="L4" s="65" t="n"/>
+      <c r="M4" s="73" t="inlineStr">
         <is>
           <t>EMPN: Number of persons engaged (total employment)</t>
         </is>
       </c>
-      <c r="N4" s="61" t="n"/>
-    </row>
-    <row r="5" ht="63" customHeight="1">
-      <c r="A5" s="66" t="inlineStr">
+      <c r="N4" s="65" t="n"/>
+    </row>
+    <row r="5" ht="63" customHeight="1" s="52">
+      <c r="A5" s="70" t="inlineStr">
         <is>
           <t>Industry</t>
         </is>
       </c>
-      <c r="B5" s="61" t="n"/>
+      <c r="B5" s="65" t="n"/>
       <c r="C5" s="19" t="inlineStr">
         <is>
           <t>D20: Chemicals and chemical products [CE]</t>
@@ -59336,150 +59407,150 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ2"/>
+  <dimension ref="A1:AQ16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
-    <col width="20.1640625" customWidth="1" min="1" max="1"/>
-    <col width="10.1640625" customWidth="1" min="2" max="38"/>
+    <col width="78.1796875" bestFit="1" customWidth="1" style="52" min="1" max="1"/>
+    <col width="10.1796875" customWidth="1" style="52" min="2" max="38"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="4">
-      <c r="A1" s="15" t="inlineStr">
+    <row r="1" customFormat="1" s="51">
+      <c r="A1" s="50" t="inlineStr">
         <is>
           <t>Unit: USD</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="54" t="inlineStr">
         <is>
           <t>ISIC 01T03</t>
         </is>
       </c>
-      <c r="C1" s="30" t="inlineStr">
+      <c r="C1" s="51" t="inlineStr">
         <is>
           <t>ISIC 05</t>
         </is>
       </c>
-      <c r="D1" s="31" t="inlineStr">
+      <c r="D1" s="51" t="inlineStr">
         <is>
           <t>ISIC 06</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="51" t="inlineStr">
         <is>
           <t>ISIC 07T08</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="51" t="inlineStr">
         <is>
           <t>ISIC 09</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="51" t="inlineStr">
         <is>
           <t>ISIC 10T12</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="H1" s="51" t="inlineStr">
         <is>
           <t>ISIC 13T15</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
+      <c r="I1" s="51" t="inlineStr">
         <is>
           <t>ISIC 16</t>
         </is>
       </c>
-      <c r="J1" s="4" t="inlineStr">
+      <c r="J1" s="51" t="inlineStr">
         <is>
           <t>ISIC 17T18</t>
         </is>
       </c>
-      <c r="K1" s="4" t="inlineStr">
+      <c r="K1" s="54" t="inlineStr">
         <is>
           <t>ISIC 19</t>
         </is>
       </c>
-      <c r="L1" s="30" t="inlineStr">
+      <c r="L1" s="51" t="inlineStr">
         <is>
           <t>ISIC 20</t>
         </is>
       </c>
-      <c r="M1" s="31" t="inlineStr">
+      <c r="M1" s="51" t="inlineStr">
         <is>
           <t>ISIC 21</t>
         </is>
       </c>
-      <c r="N1" s="4" t="inlineStr">
+      <c r="N1" s="51" t="inlineStr">
         <is>
           <t>ISIC 22</t>
         </is>
       </c>
-      <c r="O1" s="30" t="inlineStr">
+      <c r="O1" s="51" t="inlineStr">
         <is>
           <t>ISIC 231</t>
         </is>
       </c>
-      <c r="P1" s="31" t="inlineStr">
+      <c r="P1" s="51" t="inlineStr">
         <is>
           <t>ISIC 239</t>
         </is>
       </c>
-      <c r="Q1" s="30" t="inlineStr">
+      <c r="Q1" s="51" t="inlineStr">
         <is>
           <t>ISIC 241</t>
         </is>
       </c>
-      <c r="R1" s="31" t="inlineStr">
+      <c r="R1" s="51" t="inlineStr">
         <is>
           <t>ISIC 242</t>
         </is>
       </c>
-      <c r="S1" s="4" t="inlineStr">
+      <c r="S1" s="51" t="inlineStr">
         <is>
           <t>ISIC 25</t>
         </is>
       </c>
-      <c r="T1" s="4" t="inlineStr">
+      <c r="T1" s="51" t="inlineStr">
         <is>
           <t>ISIC 26</t>
         </is>
       </c>
-      <c r="U1" s="4" t="inlineStr">
+      <c r="U1" s="51" t="inlineStr">
         <is>
           <t>ISIC 27</t>
         </is>
       </c>
-      <c r="V1" s="4" t="inlineStr">
+      <c r="V1" s="51" t="inlineStr">
         <is>
           <t>ISIC 28</t>
         </is>
       </c>
-      <c r="W1" s="4" t="inlineStr">
+      <c r="W1" s="51" t="inlineStr">
         <is>
           <t>ISIC 29</t>
         </is>
       </c>
-      <c r="X1" s="4" t="inlineStr">
+      <c r="X1" s="51" t="inlineStr">
         <is>
           <t>ISIC 30</t>
         </is>
       </c>
-      <c r="Y1" s="4" t="inlineStr">
+      <c r="Y1" s="51" t="inlineStr">
         <is>
           <t>ISIC 31T33</t>
         </is>
       </c>
-      <c r="Z1" s="30" t="inlineStr">
+      <c r="Z1" s="54" t="inlineStr">
         <is>
           <t>ISIC 351</t>
         </is>
       </c>
-      <c r="AA1" s="36" t="inlineStr">
+      <c r="AA1" s="31" t="inlineStr">
         <is>
           <t>ISIC 352T353</t>
         </is>
@@ -59489,216 +59560,736 @@
           <t>ISIC 36T39</t>
         </is>
       </c>
-      <c r="AC1" s="4" t="inlineStr">
+      <c r="AC1" s="51" t="inlineStr">
         <is>
           <t>ISIC 41T43</t>
         </is>
       </c>
-      <c r="AD1" s="4" t="inlineStr">
+      <c r="AD1" s="51" t="inlineStr">
         <is>
           <t>ISIC 45T47</t>
         </is>
       </c>
-      <c r="AE1" s="4" t="inlineStr">
+      <c r="AE1" s="51" t="inlineStr">
         <is>
           <t>ISIC 49T53</t>
         </is>
       </c>
-      <c r="AF1" s="4" t="inlineStr">
+      <c r="AF1" s="51" t="inlineStr">
         <is>
           <t>ISIC 55T56</t>
         </is>
       </c>
-      <c r="AG1" s="4" t="inlineStr">
+      <c r="AG1" s="51" t="inlineStr">
         <is>
           <t>ISIC 58T60</t>
         </is>
       </c>
-      <c r="AH1" s="4" t="inlineStr">
+      <c r="AH1" s="54" t="inlineStr">
         <is>
           <t>ISIC 61</t>
         </is>
       </c>
-      <c r="AI1" s="4" t="inlineStr">
+      <c r="AI1" s="54" t="inlineStr">
         <is>
           <t>ISIC 62T63</t>
         </is>
       </c>
-      <c r="AJ1" s="4" t="inlineStr">
+      <c r="AJ1" s="54" t="inlineStr">
         <is>
           <t>ISIC 64T66</t>
         </is>
       </c>
-      <c r="AK1" s="4" t="inlineStr">
+      <c r="AK1" s="51" t="inlineStr">
         <is>
           <t>ISIC 68</t>
         </is>
       </c>
-      <c r="AL1" s="4" t="inlineStr">
+      <c r="AL1" s="51" t="inlineStr">
         <is>
           <t>ISIC 69T82</t>
         </is>
       </c>
-      <c r="AM1" s="4" t="inlineStr">
+      <c r="AM1" s="54" t="inlineStr">
         <is>
           <t>ISIC 84</t>
         </is>
       </c>
-      <c r="AN1" s="4" t="inlineStr">
+      <c r="AN1" s="51" t="inlineStr">
         <is>
           <t>ISIC 85</t>
         </is>
       </c>
-      <c r="AO1" s="4" t="inlineStr">
+      <c r="AO1" s="51" t="inlineStr">
         <is>
           <t>ISIC 86T88</t>
         </is>
       </c>
-      <c r="AP1" s="4" t="inlineStr">
+      <c r="AP1" s="51" t="inlineStr">
         <is>
           <t>ISIC 90T96</t>
         </is>
       </c>
-      <c r="AQ1" s="4" t="inlineStr">
+      <c r="AQ1" s="54" t="inlineStr">
         <is>
           <t>ISIC 97T98</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="16" customHeight="1" thickBot="1">
+    <row r="2" ht="16" customHeight="1" s="52" thickBot="1">
       <c r="A2" t="inlineStr">
         <is>
           <t>Output</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="55" t="n">
         <v>1751705800</v>
       </c>
-      <c r="C2" s="32" t="n">
-        <v>410822840</v>
-      </c>
-      <c r="D2" s="33" t="n">
-        <v>1425293177.323055</v>
+      <c r="C2" s="53" t="n">
+        <v>7343667.220000001</v>
+      </c>
+      <c r="D2" s="53" t="n">
+        <v>8091462000</v>
       </c>
       <c r="E2" t="n">
-        <v>322727682.9992992</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3496314260</v>
+        <v>6724721000</v>
       </c>
       <c r="G2" t="n">
-        <v>2345825160</v>
+        <v>9174607000</v>
       </c>
       <c r="H2" t="n">
-        <v>117980420</v>
+        <v>187903000</v>
       </c>
       <c r="I2" t="n">
-        <v>858983860</v>
+        <v>2510706000</v>
       </c>
       <c r="J2" t="n">
-        <v>2164174400</v>
-      </c>
-      <c r="K2" t="n">
+        <v>6520431000</v>
+      </c>
+      <c r="K2" s="55" t="n">
         <v>16703743980</v>
       </c>
-      <c r="L2" s="34" t="n">
-        <v>15550034472.98179</v>
-      </c>
-      <c r="M2" s="35" t="n">
-        <v>310360367.0182088</v>
+      <c r="L2" t="n">
+        <v>52725278000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>240384000</v>
       </c>
       <c r="N2" t="n">
-        <v>470378780</v>
-      </c>
-      <c r="O2" s="34" t="n">
-        <v>186403827.7589902</v>
-      </c>
-      <c r="P2" s="35" t="n">
-        <v>529707492.2410098</v>
-      </c>
-      <c r="Q2" s="34" t="n">
-        <v>219043403.5458575</v>
-      </c>
-      <c r="R2" s="35" t="n">
-        <v>213585756.4541425</v>
+        <v>1470726000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>293383000</v>
+      </c>
+      <c r="P2" t="n">
+        <v>966230000</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>481443000</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1681246700</v>
+        <v>3860352000</v>
       </c>
       <c r="T2" t="n">
-        <v>249229780</v>
+        <v>213001000</v>
       </c>
       <c r="U2" t="n">
-        <v>183296520</v>
+        <v>317150000</v>
       </c>
       <c r="V2" t="n">
-        <v>1723316440</v>
+        <v>2686744000</v>
       </c>
       <c r="W2" t="n">
-        <v>83213740</v>
+        <v>201118000</v>
       </c>
       <c r="X2" t="n">
-        <v>1308893500</v>
+        <v>1830430000</v>
       </c>
       <c r="Y2" t="n">
-        <v>338100820</v>
-      </c>
-      <c r="Z2" s="34" t="n">
+        <v>916728000</v>
+      </c>
+      <c r="Z2" s="55" t="n">
         <v>4215160047.302066</v>
       </c>
-      <c r="AA2" s="37" t="n">
-        <v>333272455.4162603</v>
+      <c r="AA2" s="35" t="n">
+        <v>53573434.96409255</v>
       </c>
       <c r="AB2" s="35" t="n">
-        <v>643528857.2816739</v>
+        <v>1482324534.004788</v>
       </c>
       <c r="AC2" t="n">
-        <v>13275317320</v>
+        <v>29264066000</v>
       </c>
       <c r="AD2" t="n">
-        <v>29627691540</v>
+        <v>142677908000</v>
       </c>
       <c r="AE2" t="n">
-        <v>9307904260</v>
+        <v>11212445000</v>
       </c>
       <c r="AF2" t="n">
-        <v>9273343300</v>
+        <v>14553042000</v>
       </c>
       <c r="AG2" t="n">
-        <v>1590729900</v>
-      </c>
-      <c r="AH2" t="n">
+        <v>452509000</v>
+      </c>
+      <c r="AH2" s="55" t="n">
         <v>2938195900</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2" s="55" t="n">
         <v>475213200</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2" s="55" t="n">
         <v>10870347660</v>
       </c>
       <c r="AK2" t="n">
-        <v>25516171620</v>
+        <v>7300579000</v>
       </c>
       <c r="AL2" t="n">
-        <v>27246482540</v>
-      </c>
-      <c r="AM2" t="n">
+        <v>32033574000</v>
+      </c>
+      <c r="AM2" s="55" t="n">
         <v>28597960080</v>
       </c>
       <c r="AN2" t="n">
-        <v>2684543140</v>
+        <v>420381000</v>
       </c>
       <c r="AO2" t="n">
-        <v>19284912820</v>
+        <v>34618006000</v>
       </c>
       <c r="AP2" t="n">
-        <v>2546710740</v>
-      </c>
-      <c r="AQ2" t="n">
+        <v>2788563000</v>
+      </c>
+      <c r="AQ2" s="55" t="n">
         <v>0</v>
       </c>
     </row>
+    <row r="4" ht="14.75" customHeight="1" s="52" thickBot="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>(Ratio of gross output to value added) * (Ratio state value added to national value added)</t>
+        </is>
+      </c>
+      <c r="B4">
+        <f>'USA Ratio Output - Value Added'!F5*'USA Value Added'!B4</f>
+        <v/>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D4">
+        <f>'USA Ratio Output - Value Added'!H5*'USA Value Added'!D4</f>
+        <v/>
+      </c>
+      <c r="E4">
+        <f>'USA Ratio Output - Value Added'!I5*'USA Value Added'!E4</f>
+        <v/>
+      </c>
+      <c r="F4">
+        <f>'USA Ratio Output - Value Added'!J5*'USA Value Added'!F4</f>
+        <v/>
+      </c>
+      <c r="G4">
+        <f>'USA Ratio Output - Value Added'!K5*'USA Value Added'!G4</f>
+        <v/>
+      </c>
+      <c r="H4">
+        <f>'USA Ratio Output - Value Added'!L5*'USA Value Added'!H4</f>
+        <v/>
+      </c>
+      <c r="I4">
+        <f>'USA Ratio Output - Value Added'!M5*'USA Value Added'!I4</f>
+        <v/>
+      </c>
+      <c r="J4">
+        <f>'USA Ratio Output - Value Added'!N5*'USA Value Added'!J4</f>
+        <v/>
+      </c>
+      <c r="K4">
+        <f>'USA Ratio Output - Value Added'!O5*'USA Value Added'!K4</f>
+        <v/>
+      </c>
+      <c r="L4">
+        <f>'USA Ratio Output - Value Added'!P5*'USA Value Added'!L4</f>
+        <v/>
+      </c>
+      <c r="M4">
+        <f>'USA Ratio Output - Value Added'!Q5*'USA Value Added'!M4</f>
+        <v/>
+      </c>
+      <c r="N4">
+        <f>'USA Ratio Output - Value Added'!R5*'USA Value Added'!N4</f>
+        <v/>
+      </c>
+      <c r="O4">
+        <f>'USA Ratio Output - Value Added'!S5*'USA Value Added'!O4</f>
+        <v/>
+      </c>
+      <c r="P4">
+        <f>'USA Ratio Output - Value Added'!T5*'USA Value Added'!P4</f>
+        <v/>
+      </c>
+      <c r="Q4">
+        <f>'USA Ratio Output - Value Added'!U5*'USA Value Added'!Q4</f>
+        <v/>
+      </c>
+      <c r="R4">
+        <f>'USA Ratio Output - Value Added'!V5*'USA Value Added'!R4</f>
+        <v/>
+      </c>
+      <c r="S4">
+        <f>'USA Ratio Output - Value Added'!W5*'USA Value Added'!S4</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>'USA Ratio Output - Value Added'!X5*'USA Value Added'!T4</f>
+        <v/>
+      </c>
+      <c r="U4">
+        <f>'USA Ratio Output - Value Added'!Y5*'USA Value Added'!U4</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>'USA Ratio Output - Value Added'!Z5*'USA Value Added'!V4</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>'USA Ratio Output - Value Added'!AA5*'USA Value Added'!W4</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>'USA Ratio Output - Value Added'!AB5*'USA Value Added'!X4</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>'USA Ratio Output - Value Added'!AC5*'USA Value Added'!Y4</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>'USA Ratio Output - Value Added'!AD5*'USA Value Added'!Z4</f>
+        <v/>
+      </c>
+      <c r="AA4">
+        <f>'USA Ratio Output - Value Added'!AE5*'USA Value Added'!AA4</f>
+        <v/>
+      </c>
+      <c r="AB4">
+        <f>'USA Ratio Output - Value Added'!AF5*'USA Value Added'!AB4</f>
+        <v/>
+      </c>
+      <c r="AC4">
+        <f>'USA Ratio Output - Value Added'!AG5*'USA Value Added'!AC4</f>
+        <v/>
+      </c>
+      <c r="AD4">
+        <f>'USA Ratio Output - Value Added'!AH5*'USA Value Added'!AD4</f>
+        <v/>
+      </c>
+      <c r="AE4">
+        <f>'USA Ratio Output - Value Added'!AI5*'USA Value Added'!AE4</f>
+        <v/>
+      </c>
+      <c r="AF4">
+        <f>'USA Ratio Output - Value Added'!AJ5*'USA Value Added'!AF4</f>
+        <v/>
+      </c>
+      <c r="AG4">
+        <f>'USA Ratio Output - Value Added'!AK5*'USA Value Added'!AG4</f>
+        <v/>
+      </c>
+      <c r="AH4">
+        <f>'USA Ratio Output - Value Added'!AL5*'USA Value Added'!AH4</f>
+        <v/>
+      </c>
+      <c r="AI4">
+        <f>'USA Ratio Output - Value Added'!AM5*'USA Value Added'!AI4</f>
+        <v/>
+      </c>
+      <c r="AJ4">
+        <f>'USA Ratio Output - Value Added'!AN5*'USA Value Added'!AJ4</f>
+        <v/>
+      </c>
+      <c r="AK4">
+        <f>'USA Ratio Output - Value Added'!AO5*'USA Value Added'!AK4</f>
+        <v/>
+      </c>
+      <c r="AL4">
+        <f>'USA Ratio Output - Value Added'!AP5*'USA Value Added'!AL4</f>
+        <v/>
+      </c>
+      <c r="AM4">
+        <f>'USA Ratio Output - Value Added'!AQ5*'USA Value Added'!AM4</f>
+        <v/>
+      </c>
+      <c r="AN4">
+        <f>'USA Ratio Output - Value Added'!AR5*'USA Value Added'!AN4</f>
+        <v/>
+      </c>
+      <c r="AO4">
+        <f>'USA Ratio Output - Value Added'!AS5*'USA Value Added'!AO4</f>
+        <v/>
+      </c>
+      <c r="AP4">
+        <f>'USA Ratio Output - Value Added'!AT5*'USA Value Added'!AP4</f>
+        <v/>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15.5" customHeight="1" s="52" thickBot="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Use multiplier? (1 = yes, 0 = no)</t>
+        </is>
+      </c>
+      <c r="B5" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Imputed output</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>IF(B5=1,B2*B4,B2)</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>IF(C5=1,C2*C4,C2)</f>
+        <v/>
+      </c>
+      <c r="D6">
+        <f>IF(D5=1,D2*D4,D2)</f>
+        <v/>
+      </c>
+      <c r="E6">
+        <f>IF(E5=1,E2*E4,E2)</f>
+        <v/>
+      </c>
+      <c r="F6">
+        <f>IF(F5=1,F2*F4,F2)</f>
+        <v/>
+      </c>
+      <c r="G6">
+        <f>IF(G5=1,G2*G4,G2)</f>
+        <v/>
+      </c>
+      <c r="H6">
+        <f>IF(H5=1,H2*H4,H2)</f>
+        <v/>
+      </c>
+      <c r="I6">
+        <f>IF(I5=1,I2*I4,I2)</f>
+        <v/>
+      </c>
+      <c r="J6">
+        <f>IF(J5=1,J2*J4,J2)</f>
+        <v/>
+      </c>
+      <c r="K6">
+        <f>IF(K5=1,K2*K4,K2)</f>
+        <v/>
+      </c>
+      <c r="L6">
+        <f>IF(L5=1,L2*L4,L2)</f>
+        <v/>
+      </c>
+      <c r="M6">
+        <f>IF(M5=1,M2*M4,M2)</f>
+        <v/>
+      </c>
+      <c r="N6">
+        <f>IF(N5=1,N2*N4,N2)</f>
+        <v/>
+      </c>
+      <c r="O6">
+        <f>IF(O5=1,O2*O4,O2)</f>
+        <v/>
+      </c>
+      <c r="P6">
+        <f>IF(P5=1,P2*P4,P2)</f>
+        <v/>
+      </c>
+      <c r="Q6">
+        <f>IF(Q5=1,Q2*Q4,Q2)</f>
+        <v/>
+      </c>
+      <c r="R6">
+        <f>IF(R5=1,R2*R4,R2)</f>
+        <v/>
+      </c>
+      <c r="S6">
+        <f>IF(S5=1,S2*S4,S2)</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>IF(T5=1,T2*T4,T2)</f>
+        <v/>
+      </c>
+      <c r="U6">
+        <f>IF(U5=1,U2*U4,U2)</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>IF(V5=1,V2*V4,V2)</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>IF(W5=1,W2*W4,W2)</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>IF(X5=1,X2*X4,X2)</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>IF(Y5=1,Y2*Y4,Y2)</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>IF(Z5=1,Z2*Z4,Z2)</f>
+        <v/>
+      </c>
+      <c r="AA6">
+        <f>IF(AA5=1,AA2*AA4,AA2)</f>
+        <v/>
+      </c>
+      <c r="AB6">
+        <f>IF(AB5=1,AB2*AB4,AB2)</f>
+        <v/>
+      </c>
+      <c r="AC6">
+        <f>IF(AC5=1,AC2*AC4,AC2)</f>
+        <v/>
+      </c>
+      <c r="AD6">
+        <f>IF(AD5=1,AD2*AD4,AD2)</f>
+        <v/>
+      </c>
+      <c r="AE6">
+        <f>IF(AE5=1,AE2*AE4,AE2)</f>
+        <v/>
+      </c>
+      <c r="AF6">
+        <f>IF(AF5=1,AF2*AF4,AF2)</f>
+        <v/>
+      </c>
+      <c r="AG6">
+        <f>IF(AG5=1,AG2*AG4,AG2)</f>
+        <v/>
+      </c>
+      <c r="AH6">
+        <f>IF(AH5=1,AH2*AH4,AH2)</f>
+        <v/>
+      </c>
+      <c r="AI6">
+        <f>IF(AI5=1,AI2*AI4,AI2)</f>
+        <v/>
+      </c>
+      <c r="AJ6">
+        <f>IF(AJ5=1,AJ2*AJ4,AJ2)</f>
+        <v/>
+      </c>
+      <c r="AK6">
+        <f>IF(AK5=1,AK2*AK4,AK2)</f>
+        <v/>
+      </c>
+      <c r="AL6">
+        <f>IF(AL5=1,AL2*AL4,AL2)</f>
+        <v/>
+      </c>
+      <c r="AM6">
+        <f>IF(AM5=1,AM2*AM4,AM2)</f>
+        <v/>
+      </c>
+      <c r="AN6">
+        <f>IF(AN5=1,AN2*AN4,AN2)</f>
+        <v/>
+      </c>
+      <c r="AO6">
+        <f>IF(AO5=1,AO2*AO4,AO2)</f>
+        <v/>
+      </c>
+      <c r="AP6">
+        <f>IF(AP5=1,AP2*AP4,AP2)</f>
+        <v/>
+      </c>
+      <c r="AQ6">
+        <f>IF(AQ5=1,AQ2*AQ4,AQ2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15.5" customHeight="1" s="52" thickBot="1"/>
+    <row r="13">
+      <c r="A13" s="83" t="inlineStr">
+        <is>
+          <t>Note: These sectors will use BEA data, scaled by a multiplier of gross output to value added (since BEA gives state-level value added, not output. Other sectors will use Census Bureau data unless those data are missing. In this case, we use the same BEA scaling method as the yellow cells</t>
+        </is>
+      </c>
+      <c r="B13" s="84" t="n"/>
+      <c r="C13" s="84" t="n"/>
+      <c r="D13" s="84" t="n"/>
+      <c r="E13" s="85" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="86" t="n"/>
+      <c r="E14" s="87" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="86" t="n"/>
+      <c r="E15" s="87" t="n"/>
+    </row>
+    <row r="16" ht="15.5" customHeight="1" s="52" thickBot="1">
+      <c r="A16" s="88" t="n"/>
+      <c r="B16" s="89" t="n"/>
+      <c r="C16" s="89" t="n"/>
+      <c r="D16" s="89" t="n"/>
+      <c r="E16" s="90" t="n"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A13:E16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/InputData/io-model/BObIC/BAU Output by ISIC Code.xlsx
+++ b/InputData/io-model/BObIC/BAU Output by ISIC Code.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="720" yWindow="720" windowWidth="14400" windowHeight="6920" tabRatio="600" firstSheet="6" activeTab="8" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="9765" tabRatio="600" firstSheet="6" activeTab="8" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -1439,7 +1439,7 @@
   <dimension ref="A1:AQ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
@@ -59409,8 +59409,8 @@
   </sheetPr>
   <dimension ref="A1:AQ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AG3" sqref="AG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
@@ -59615,12 +59615,12 @@
           <t>ISIC 84</t>
         </is>
       </c>
-      <c r="AN1" s="51" t="inlineStr">
+      <c r="AN1" s="54" t="inlineStr">
         <is>
           <t>ISIC 85</t>
         </is>
       </c>
-      <c r="AO1" s="51" t="inlineStr">
+      <c r="AO1" s="54" t="inlineStr">
         <is>
           <t>ISIC 86T88</t>
         </is>
@@ -59715,13 +59715,13 @@
         <v>916728000</v>
       </c>
       <c r="Z2" s="55" t="n">
-        <v>4215160047.302066</v>
+        <v>3387203631.627244</v>
       </c>
       <c r="AA2" s="35" t="n">
-        <v>53573434.96409255</v>
+        <v>1494619629.481334</v>
       </c>
       <c r="AB2" s="35" t="n">
-        <v>1482324534.004788</v>
+        <v>1191161186.879453</v>
       </c>
       <c r="AC2" t="n">
         <v>29264066000</v>
@@ -59756,11 +59756,11 @@
       <c r="AM2" s="55" t="n">
         <v>28597960080</v>
       </c>
-      <c r="AN2" t="n">
-        <v>420381000</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>34618006000</v>
+      <c r="AN2" s="55" t="n">
+        <v>2684543140</v>
+      </c>
+      <c r="AO2" s="55" t="n">
+        <v>19284912820</v>
       </c>
       <c r="AP2" t="n">
         <v>2788563000</v>
@@ -60068,11 +60068,11 @@
       <c r="AM5" s="56" t="n">
         <v>1</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
+      <c r="AN5" s="56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="56" t="n">
+        <v>1</v>
       </c>
       <c r="AP5" t="n">
         <v>0</v>
